--- a/Code/Results/Cases/Case_3_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9862639601932248</v>
+        <v>0.9862639601932228</v>
       </c>
       <c r="D2">
-        <v>1.004520615605147</v>
+        <v>1.004520615605145</v>
       </c>
       <c r="E2">
-        <v>0.9943377050145029</v>
+        <v>0.9943377050145011</v>
       </c>
       <c r="F2">
-        <v>0.9612042406131368</v>
+        <v>0.9612042406131348</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037637963985087</v>
+        <v>1.037637963985086</v>
       </c>
       <c r="J2">
-        <v>1.008863422241488</v>
+        <v>1.008863422241486</v>
       </c>
       <c r="K2">
-        <v>1.015917328303949</v>
+        <v>1.015917328303947</v>
       </c>
       <c r="L2">
-        <v>1.005876492356037</v>
+        <v>1.005876492356035</v>
       </c>
       <c r="M2">
-        <v>0.9732318948656776</v>
+        <v>0.9732318948656755</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,22 +459,22 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9929082855317833</v>
+        <v>0.9929082855317836</v>
       </c>
       <c r="D3">
         <v>1.009758316480658</v>
       </c>
       <c r="E3">
-        <v>0.9997961293305291</v>
+        <v>0.9997961293305294</v>
       </c>
       <c r="F3">
-        <v>0.9716186084848049</v>
+        <v>0.9716186084848054</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039977113659566</v>
+        <v>1.039977113659567</v>
       </c>
       <c r="J3">
         <v>1.013594162707812</v>
@@ -483,10 +483,10 @@
         <v>1.020267842034442</v>
       </c>
       <c r="L3">
-        <v>1.010431619384684</v>
+        <v>1.010431619384685</v>
       </c>
       <c r="M3">
-        <v>0.9826279932434518</v>
+        <v>0.9826279932434521</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9970748982799801</v>
+        <v>0.9970748982799809</v>
       </c>
       <c r="D4">
-        <v>1.013040665244732</v>
+        <v>1.013040665244733</v>
       </c>
       <c r="E4">
-        <v>1.003225217838454</v>
+        <v>1.003225217838455</v>
       </c>
       <c r="F4">
-        <v>0.9781133516372555</v>
+        <v>0.9781133516372561</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04142640954673</v>
+        <v>1.041426409546731</v>
       </c>
       <c r="J4">
-        <v>1.016553725584479</v>
+        <v>1.01655372558448</v>
       </c>
       <c r="K4">
-        <v>1.02298420804273</v>
+        <v>1.022984208042731</v>
       </c>
       <c r="L4">
-        <v>1.013284872557211</v>
+        <v>1.013284872557212</v>
       </c>
       <c r="M4">
-        <v>0.9884833094707214</v>
+        <v>0.9884833094707219</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9987965944351173</v>
+        <v>0.9987965944351174</v>
       </c>
       <c r="D5">
         <v>1.014396427782462</v>
@@ -544,7 +544,7 @@
         <v>1.004643560481496</v>
       </c>
       <c r="F5">
-        <v>0.9807894917722576</v>
+        <v>0.9807894917722572</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,7 +553,7 @@
         <v>1.042021040836534</v>
       </c>
       <c r="J5">
-        <v>1.017774949685072</v>
+        <v>1.017774949685073</v>
       </c>
       <c r="K5">
         <v>1.02410382787073</v>
@@ -562,7 +562,7 @@
         <v>1.014463060855237</v>
       </c>
       <c r="M5">
-        <v>0.9908948576550943</v>
+        <v>0.990894857655094</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9990839685318467</v>
+        <v>0.9990839685318461</v>
       </c>
       <c r="D6">
-        <v>1.014622689938991</v>
+        <v>1.01462268993899</v>
       </c>
       <c r="E6">
-        <v>1.00488038113737</v>
+        <v>1.004880381137369</v>
       </c>
       <c r="F6">
-        <v>0.9812357592005302</v>
+        <v>0.9812357592005294</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04212004296405</v>
+        <v>1.042120042964049</v>
       </c>
       <c r="J6">
         <v>1.01797868769429</v>
       </c>
       <c r="K6">
-        <v>1.024290542124946</v>
+        <v>1.024290542124945</v>
       </c>
       <c r="L6">
-        <v>1.014659667499789</v>
+        <v>1.014659667499788</v>
       </c>
       <c r="M6">
-        <v>0.9912969348441862</v>
+        <v>0.9912969348441852</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9970980190568531</v>
+        <v>0.997098019056852</v>
       </c>
       <c r="D7">
-        <v>1.01305887406134</v>
+        <v>1.013058874061339</v>
       </c>
       <c r="E7">
-        <v>1.003244259409336</v>
+        <v>1.003244259409335</v>
       </c>
       <c r="F7">
-        <v>0.9781493183375988</v>
+        <v>0.9781493183375982</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.041434411689861</v>
       </c>
       <c r="J7">
-        <v>1.016570132251052</v>
+        <v>1.016570132251051</v>
       </c>
       <c r="K7">
-        <v>1.022999254626197</v>
+        <v>1.022999254626195</v>
       </c>
       <c r="L7">
-        <v>1.013300697787327</v>
+        <v>1.013300697787326</v>
       </c>
       <c r="M7">
-        <v>0.9885157246245894</v>
+        <v>0.9885157246245886</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -658,7 +658,7 @@
         <v>0.9962045809137758</v>
       </c>
       <c r="F8">
-        <v>0.9647770229530602</v>
+        <v>0.9647770229530599</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>1.038442270401328</v>
       </c>
       <c r="J8">
-        <v>1.010484067441531</v>
+        <v>1.01048406744153</v>
       </c>
       <c r="K8">
         <v>1.017408860702399</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9723457993344496</v>
+        <v>0.9723457993344489</v>
       </c>
       <c r="D9">
-        <v>0.9935374923626044</v>
+        <v>0.993537492362604</v>
       </c>
       <c r="E9">
-        <v>0.9829419905026179</v>
+        <v>0.9829419905026173</v>
       </c>
       <c r="F9">
-        <v>0.9391278694680096</v>
+        <v>0.9391278694680092</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03263982367396</v>
+        <v>1.032639823673959</v>
       </c>
       <c r="J9">
-        <v>0.998914368763487</v>
+        <v>0.9989143687634864</v>
       </c>
       <c r="K9">
-        <v>1.006736296715269</v>
+        <v>1.006736296715268</v>
       </c>
       <c r="L9">
-        <v>0.9963180207309132</v>
+        <v>0.9963180207309128</v>
       </c>
       <c r="M9">
-        <v>0.953292317085724</v>
+        <v>0.9532923170857236</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -731,10 +731,10 @@
         <v>0.9843040009964088</v>
       </c>
       <c r="E10">
-        <v>0.9734111760145823</v>
+        <v>0.9734111760145825</v>
       </c>
       <c r="F10">
-        <v>0.9202671972132914</v>
+        <v>0.9202671972132916</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.028354488703151</v>
       </c>
       <c r="J10">
-        <v>0.990523806270927</v>
+        <v>0.9905238062709273</v>
       </c>
       <c r="K10">
         <v>0.9989625548909584</v>
       </c>
       <c r="L10">
-        <v>0.988277688188283</v>
+        <v>0.9882776881882831</v>
       </c>
       <c r="M10">
-        <v>0.9362424893653654</v>
+        <v>0.9362424893653656</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9553439627326465</v>
+        <v>0.9553439627326474</v>
       </c>
       <c r="D11">
-        <v>0.9801039148690027</v>
+        <v>0.9801039148690037</v>
       </c>
       <c r="E11">
-        <v>0.9690903030541431</v>
+        <v>0.969090303054144</v>
       </c>
       <c r="F11">
-        <v>0.9115808362990303</v>
+        <v>0.9115808362990315</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026383349126902</v>
+        <v>1.026383349126903</v>
       </c>
       <c r="J11">
-        <v>0.9867001684186594</v>
+        <v>0.9867001684186602</v>
       </c>
       <c r="K11">
-        <v>0.9954110557684754</v>
+        <v>0.9954110557684763</v>
       </c>
       <c r="L11">
-        <v>0.9846196603117678</v>
+        <v>0.9846196603117685</v>
       </c>
       <c r="M11">
-        <v>0.9283878817711568</v>
+        <v>0.9283878817711581</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9533283311806167</v>
+        <v>0.9533283311806171</v>
       </c>
       <c r="D12">
-        <v>0.9785101835254898</v>
+        <v>0.9785101835254901</v>
       </c>
       <c r="E12">
-        <v>0.9674530838818748</v>
+        <v>0.9674530838818749</v>
       </c>
       <c r="F12">
-        <v>0.9082654878646877</v>
+        <v>0.9082654878646885</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025632107602278</v>
+        <v>1.025632107602279</v>
       </c>
       <c r="J12">
-        <v>0.985248231100627</v>
+        <v>0.9852482311006276</v>
       </c>
       <c r="K12">
-        <v>0.9940610095622905</v>
+        <v>0.9940610095622908</v>
       </c>
       <c r="L12">
-        <v>0.9832315736363305</v>
+        <v>0.9832315736363308</v>
       </c>
       <c r="M12">
-        <v>0.9253898385950469</v>
+        <v>0.9253898385950476</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9537626649890774</v>
+        <v>0.9537626649890762</v>
       </c>
       <c r="D13">
-        <v>0.9788536253962161</v>
+        <v>0.9788536253962156</v>
       </c>
       <c r="E13">
-        <v>0.9678057882102364</v>
+        <v>0.9678057882102357</v>
       </c>
       <c r="F13">
-        <v>0.9089808588935168</v>
+        <v>0.9089808588935148</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025794145246952</v>
+        <v>1.025794145246951</v>
       </c>
       <c r="J13">
-        <v>0.9855611643385936</v>
+        <v>0.9855611643385926</v>
       </c>
       <c r="K13">
-        <v>0.994352049597749</v>
+        <v>0.9943520495977483</v>
       </c>
       <c r="L13">
-        <v>0.9835307006739568</v>
+        <v>0.983530700673956</v>
       </c>
       <c r="M13">
-        <v>0.9260367464348007</v>
+        <v>0.9260367464347991</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -880,28 +880,28 @@
         <v>0.9551782329662066</v>
       </c>
       <c r="D14">
-        <v>0.9799728837163502</v>
+        <v>0.9799728837163504</v>
       </c>
       <c r="E14">
-        <v>0.9689556478423855</v>
+        <v>0.9689556478423853</v>
       </c>
       <c r="F14">
-        <v>0.9113086711566456</v>
+        <v>0.9113086711566455</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02632165129147</v>
+        <v>1.026321651291471</v>
       </c>
       <c r="J14">
-        <v>0.9865808163506828</v>
+        <v>0.9865808163506831</v>
       </c>
       <c r="K14">
-        <v>0.9953001093385254</v>
+        <v>0.9953001093385258</v>
       </c>
       <c r="L14">
-        <v>0.9845055369692951</v>
+        <v>0.9845055369692948</v>
       </c>
       <c r="M14">
         <v>0.9281417668954471</v>
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9560447113343895</v>
+        <v>0.9560447113343883</v>
       </c>
       <c r="D15">
-        <v>0.9806579308902955</v>
+        <v>0.9806579308902941</v>
       </c>
       <c r="E15">
-        <v>0.9696597383731197</v>
+        <v>0.9696597383731184</v>
       </c>
       <c r="F15">
-        <v>0.9127307805945737</v>
+        <v>0.9127307805945717</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026644081697474</v>
+        <v>1.026644081697472</v>
       </c>
       <c r="J15">
-        <v>0.987204761191899</v>
+        <v>0.9872047611918978</v>
       </c>
       <c r="K15">
-        <v>0.9958800520512103</v>
+        <v>0.9958800520512089</v>
       </c>
       <c r="L15">
-        <v>0.9851021867732155</v>
+        <v>0.9851021867732144</v>
       </c>
       <c r="M15">
-        <v>0.9294277542457449</v>
+        <v>0.9294277542457426</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9610043407505827</v>
+        <v>0.9610043407505834</v>
       </c>
       <c r="D16">
-        <v>0.9845782237590376</v>
+        <v>0.9845782237590378</v>
       </c>
       <c r="E16">
-        <v>0.9736935971090863</v>
+        <v>0.9736935971090871</v>
       </c>
       <c r="F16">
-        <v>0.9208318622616938</v>
+        <v>0.9208318622616937</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028482732475425</v>
+        <v>1.028482732475426</v>
       </c>
       <c r="J16">
-        <v>0.9907733064579537</v>
+        <v>0.9907733064579544</v>
       </c>
       <c r="K16">
-        <v>0.9991941047350418</v>
+        <v>0.9991941047350421</v>
       </c>
       <c r="L16">
-        <v>0.9885165108576238</v>
+        <v>0.9885165108576245</v>
       </c>
       <c r="M16">
-        <v>0.9367530540467757</v>
+        <v>0.9367530540467758</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9640451607536071</v>
+        <v>0.9640451607536069</v>
       </c>
       <c r="D17">
-        <v>0.9869811005789364</v>
+        <v>0.9869811005789363</v>
       </c>
       <c r="E17">
-        <v>0.9761699550758635</v>
+        <v>0.9761699550758637</v>
       </c>
       <c r="F17">
-        <v>0.9257673741372973</v>
+        <v>0.9257673741372964</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.029604010206</v>
       </c>
       <c r="J17">
-        <v>0.9929587656822898</v>
+        <v>0.9929587656822897</v>
       </c>
       <c r="K17">
         <v>1.001221314933022</v>
       </c>
       <c r="L17">
-        <v>0.9906091234757248</v>
+        <v>0.9906091234757249</v>
       </c>
       <c r="M17">
-        <v>0.9412154639444689</v>
+        <v>0.9412154639444682</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9657947934193007</v>
+        <v>0.965794793419301</v>
       </c>
       <c r="D18">
-        <v>0.9883634246730142</v>
+        <v>0.9883634246730144</v>
       </c>
       <c r="E18">
-        <v>0.9775958925257532</v>
+        <v>0.9775958925257539</v>
       </c>
       <c r="F18">
-        <v>0.9285968733254647</v>
+        <v>0.9285968733254653</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.030247012050751</v>
       </c>
       <c r="J18">
-        <v>0.9942153602859597</v>
+        <v>0.99421536028596</v>
       </c>
       <c r="K18">
         <v>1.00238608987891</v>
       </c>
       <c r="L18">
-        <v>0.9918128907579059</v>
+        <v>0.9918128907579065</v>
       </c>
       <c r="M18">
-        <v>0.9437735151661045</v>
+        <v>0.9437735151661053</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9663874118384616</v>
+        <v>0.9663874118384629</v>
       </c>
       <c r="D19">
-        <v>0.988831590462937</v>
+        <v>0.9888315904629382</v>
       </c>
       <c r="E19">
-        <v>0.9780790522951057</v>
+        <v>0.9780790522951072</v>
       </c>
       <c r="F19">
-        <v>0.9295535914080904</v>
+        <v>0.9295535914080921</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030464437175883</v>
+        <v>1.030464437175884</v>
       </c>
       <c r="J19">
-        <v>0.9946408332096482</v>
+        <v>0.9946408332096495</v>
       </c>
       <c r="K19">
-        <v>1.002780335300369</v>
+        <v>1.00278033530037</v>
       </c>
       <c r="L19">
-        <v>0.9922205697152233</v>
+        <v>0.9922205697152244</v>
       </c>
       <c r="M19">
-        <v>0.944638408139681</v>
+        <v>0.9446384081396826</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9637214222534725</v>
+        <v>0.9637214222534712</v>
       </c>
       <c r="D20">
-        <v>0.9867253060860336</v>
+        <v>0.9867253060860324</v>
       </c>
       <c r="E20">
-        <v>0.9759061976954013</v>
+        <v>0.9759061976953999</v>
       </c>
       <c r="F20">
-        <v>0.9252430111836156</v>
+        <v>0.9252430111836137</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029484859065549</v>
+        <v>1.029484859065548</v>
       </c>
       <c r="J20">
-        <v>0.9927261840460325</v>
+        <v>0.9927261840460314</v>
       </c>
       <c r="K20">
-        <v>1.001005661463914</v>
+        <v>1.001005661463912</v>
       </c>
       <c r="L20">
-        <v>0.9903863643988354</v>
+        <v>0.9903863643988343</v>
       </c>
       <c r="M20">
-        <v>0.940741386587908</v>
+        <v>0.9407413865879061</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9547625792834177</v>
+        <v>0.9547625792834183</v>
       </c>
       <c r="D21">
-        <v>0.979644247775222</v>
+        <v>0.9796442477752227</v>
       </c>
       <c r="E21">
         <v>0.9686179608264144</v>
       </c>
       <c r="F21">
-        <v>0.9106257386017406</v>
+        <v>0.9106257386017413</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026166855628361</v>
+        <v>1.026166855628362</v>
       </c>
       <c r="J21">
-        <v>0.9862814555599725</v>
+        <v>0.9862814555599732</v>
       </c>
       <c r="K21">
-        <v>0.9950218080617227</v>
+        <v>0.9950218080617234</v>
       </c>
       <c r="L21">
-        <v>0.9842193066708865</v>
+        <v>0.9842193066708866</v>
       </c>
       <c r="M21">
-        <v>0.9275241994260176</v>
+        <v>0.9275241994260183</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9488842334219655</v>
+        <v>0.9488842334219668</v>
       </c>
       <c r="D22">
-        <v>0.9749954410944363</v>
+        <v>0.9749954410944375</v>
       </c>
       <c r="E22">
-        <v>0.9638469947944404</v>
+        <v>0.9638469947944415</v>
       </c>
       <c r="F22">
-        <v>0.900914179892945</v>
+        <v>0.9009141798929465</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023969268145814</v>
+        <v>1.023969268145815</v>
       </c>
       <c r="J22">
-        <v>0.982044258885425</v>
+        <v>0.9820442588854261</v>
       </c>
       <c r="K22">
-        <v>0.9910790679407738</v>
+        <v>0.9910790679407749</v>
       </c>
       <c r="L22">
-        <v>0.9801703598965404</v>
+        <v>0.9801703598965416</v>
       </c>
       <c r="M22">
-        <v>0.9187420673398303</v>
+        <v>0.9187420673398319</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9520252913970447</v>
+        <v>0.9520252913970446</v>
       </c>
       <c r="D23">
-        <v>0.9774797602990168</v>
+        <v>0.9774797602990167</v>
       </c>
       <c r="E23">
-        <v>0.9663952299910964</v>
+        <v>0.9663952299910965</v>
       </c>
       <c r="F23">
-        <v>0.9061160591476498</v>
+        <v>0.9061160591476489</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.025145465758425</v>
       </c>
       <c r="J23">
-        <v>0.9843091887244155</v>
+        <v>0.9843091887244152</v>
       </c>
       <c r="K23">
-        <v>0.9931874422431674</v>
+        <v>0.993187442243167</v>
       </c>
       <c r="L23">
-        <v>0.9823341072968591</v>
+        <v>0.9823341072968592</v>
       </c>
       <c r="M23">
-        <v>0.9234461108011227</v>
+        <v>0.923446110801122</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.963867779693382</v>
+        <v>0.9638677796933814</v>
       </c>
       <c r="D24">
-        <v>0.9868409478023975</v>
+        <v>0.9868409478023968</v>
       </c>
       <c r="E24">
-        <v>0.976025435183808</v>
+        <v>0.9760254351838072</v>
       </c>
       <c r="F24">
-        <v>0.9254800998043617</v>
+        <v>0.9254800998043615</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,13 +1275,13 @@
         <v>1.029538732268388</v>
       </c>
       <c r="J24">
-        <v>0.9928313335315381</v>
+        <v>0.9928313335315373</v>
       </c>
       <c r="K24">
         <v>1.001103160346408</v>
       </c>
       <c r="L24">
-        <v>0.990487071404471</v>
+        <v>0.9904870714044702</v>
       </c>
       <c r="M24">
         <v>0.940955739478194</v>
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9766773171849041</v>
+        <v>0.9766773171849026</v>
       </c>
       <c r="D25">
-        <v>0.9969570728788084</v>
+        <v>0.9969570728788072</v>
       </c>
       <c r="E25">
-        <v>0.9864829943866362</v>
+        <v>0.9864829943866348</v>
       </c>
       <c r="F25">
-        <v>0.9460393912449907</v>
+        <v>0.94603939124499</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034208433313411</v>
+        <v>1.034208433313409</v>
       </c>
       <c r="J25">
-        <v>1.002015908070654</v>
+        <v>1.002015908070652</v>
       </c>
       <c r="K25">
-        <v>1.009602810749538</v>
+        <v>1.009602810749537</v>
       </c>
       <c r="L25">
-        <v>0.9992948324038164</v>
+        <v>0.999294832403815</v>
       </c>
       <c r="M25">
-        <v>0.9595374215446421</v>
+        <v>0.9595374215446412</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9862639601932228</v>
+        <v>0.9862639601932248</v>
       </c>
       <c r="D2">
-        <v>1.004520615605145</v>
+        <v>1.004520615605147</v>
       </c>
       <c r="E2">
-        <v>0.9943377050145011</v>
+        <v>0.9943377050145029</v>
       </c>
       <c r="F2">
-        <v>0.9612042406131348</v>
+        <v>0.9612042406131368</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037637963985086</v>
+        <v>1.037637963985087</v>
       </c>
       <c r="J2">
-        <v>1.008863422241486</v>
+        <v>1.008863422241488</v>
       </c>
       <c r="K2">
-        <v>1.015917328303947</v>
+        <v>1.015917328303949</v>
       </c>
       <c r="L2">
-        <v>1.005876492356035</v>
+        <v>1.005876492356037</v>
       </c>
       <c r="M2">
-        <v>0.9732318948656755</v>
+        <v>0.9732318948656776</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,22 +459,22 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9929082855317836</v>
+        <v>0.9929082855317833</v>
       </c>
       <c r="D3">
         <v>1.009758316480658</v>
       </c>
       <c r="E3">
-        <v>0.9997961293305294</v>
+        <v>0.9997961293305291</v>
       </c>
       <c r="F3">
-        <v>0.9716186084848054</v>
+        <v>0.9716186084848049</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039977113659567</v>
+        <v>1.039977113659566</v>
       </c>
       <c r="J3">
         <v>1.013594162707812</v>
@@ -483,10 +483,10 @@
         <v>1.020267842034442</v>
       </c>
       <c r="L3">
-        <v>1.010431619384685</v>
+        <v>1.010431619384684</v>
       </c>
       <c r="M3">
-        <v>0.9826279932434521</v>
+        <v>0.9826279932434518</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9970748982799809</v>
+        <v>0.9970748982799801</v>
       </c>
       <c r="D4">
-        <v>1.013040665244733</v>
+        <v>1.013040665244732</v>
       </c>
       <c r="E4">
-        <v>1.003225217838455</v>
+        <v>1.003225217838454</v>
       </c>
       <c r="F4">
-        <v>0.9781133516372561</v>
+        <v>0.9781133516372555</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041426409546731</v>
+        <v>1.04142640954673</v>
       </c>
       <c r="J4">
-        <v>1.01655372558448</v>
+        <v>1.016553725584479</v>
       </c>
       <c r="K4">
-        <v>1.022984208042731</v>
+        <v>1.02298420804273</v>
       </c>
       <c r="L4">
-        <v>1.013284872557212</v>
+        <v>1.013284872557211</v>
       </c>
       <c r="M4">
-        <v>0.9884833094707219</v>
+        <v>0.9884833094707214</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9987965944351174</v>
+        <v>0.9987965944351173</v>
       </c>
       <c r="D5">
         <v>1.014396427782462</v>
@@ -544,7 +544,7 @@
         <v>1.004643560481496</v>
       </c>
       <c r="F5">
-        <v>0.9807894917722572</v>
+        <v>0.9807894917722576</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,7 +553,7 @@
         <v>1.042021040836534</v>
       </c>
       <c r="J5">
-        <v>1.017774949685073</v>
+        <v>1.017774949685072</v>
       </c>
       <c r="K5">
         <v>1.02410382787073</v>
@@ -562,7 +562,7 @@
         <v>1.014463060855237</v>
       </c>
       <c r="M5">
-        <v>0.990894857655094</v>
+        <v>0.9908948576550943</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9990839685318461</v>
+        <v>0.9990839685318467</v>
       </c>
       <c r="D6">
-        <v>1.01462268993899</v>
+        <v>1.014622689938991</v>
       </c>
       <c r="E6">
-        <v>1.004880381137369</v>
+        <v>1.00488038113737</v>
       </c>
       <c r="F6">
-        <v>0.9812357592005294</v>
+        <v>0.9812357592005302</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042120042964049</v>
+        <v>1.04212004296405</v>
       </c>
       <c r="J6">
         <v>1.01797868769429</v>
       </c>
       <c r="K6">
-        <v>1.024290542124945</v>
+        <v>1.024290542124946</v>
       </c>
       <c r="L6">
-        <v>1.014659667499788</v>
+        <v>1.014659667499789</v>
       </c>
       <c r="M6">
-        <v>0.9912969348441852</v>
+        <v>0.9912969348441862</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.997098019056852</v>
+        <v>0.9970980190568531</v>
       </c>
       <c r="D7">
-        <v>1.013058874061339</v>
+        <v>1.01305887406134</v>
       </c>
       <c r="E7">
-        <v>1.003244259409335</v>
+        <v>1.003244259409336</v>
       </c>
       <c r="F7">
-        <v>0.9781493183375982</v>
+        <v>0.9781493183375988</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.041434411689861</v>
       </c>
       <c r="J7">
-        <v>1.016570132251051</v>
+        <v>1.016570132251052</v>
       </c>
       <c r="K7">
-        <v>1.022999254626195</v>
+        <v>1.022999254626197</v>
       </c>
       <c r="L7">
-        <v>1.013300697787326</v>
+        <v>1.013300697787327</v>
       </c>
       <c r="M7">
-        <v>0.9885157246245886</v>
+        <v>0.9885157246245894</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -658,7 +658,7 @@
         <v>0.9962045809137758</v>
       </c>
       <c r="F8">
-        <v>0.9647770229530599</v>
+        <v>0.9647770229530602</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>1.038442270401328</v>
       </c>
       <c r="J8">
-        <v>1.01048406744153</v>
+        <v>1.010484067441531</v>
       </c>
       <c r="K8">
         <v>1.017408860702399</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9723457993344489</v>
+        <v>0.9723457993344496</v>
       </c>
       <c r="D9">
-        <v>0.993537492362604</v>
+        <v>0.9935374923626044</v>
       </c>
       <c r="E9">
-        <v>0.9829419905026173</v>
+        <v>0.9829419905026179</v>
       </c>
       <c r="F9">
-        <v>0.9391278694680092</v>
+        <v>0.9391278694680096</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032639823673959</v>
+        <v>1.03263982367396</v>
       </c>
       <c r="J9">
-        <v>0.9989143687634864</v>
+        <v>0.998914368763487</v>
       </c>
       <c r="K9">
-        <v>1.006736296715268</v>
+        <v>1.006736296715269</v>
       </c>
       <c r="L9">
-        <v>0.9963180207309128</v>
+        <v>0.9963180207309132</v>
       </c>
       <c r="M9">
-        <v>0.9532923170857236</v>
+        <v>0.953292317085724</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -731,10 +731,10 @@
         <v>0.9843040009964088</v>
       </c>
       <c r="E10">
-        <v>0.9734111760145825</v>
+        <v>0.9734111760145823</v>
       </c>
       <c r="F10">
-        <v>0.9202671972132916</v>
+        <v>0.9202671972132914</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.028354488703151</v>
       </c>
       <c r="J10">
-        <v>0.9905238062709273</v>
+        <v>0.990523806270927</v>
       </c>
       <c r="K10">
         <v>0.9989625548909584</v>
       </c>
       <c r="L10">
-        <v>0.9882776881882831</v>
+        <v>0.988277688188283</v>
       </c>
       <c r="M10">
-        <v>0.9362424893653656</v>
+        <v>0.9362424893653654</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9553439627326474</v>
+        <v>0.9553439627326465</v>
       </c>
       <c r="D11">
-        <v>0.9801039148690037</v>
+        <v>0.9801039148690027</v>
       </c>
       <c r="E11">
-        <v>0.969090303054144</v>
+        <v>0.9690903030541431</v>
       </c>
       <c r="F11">
-        <v>0.9115808362990315</v>
+        <v>0.9115808362990303</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026383349126903</v>
+        <v>1.026383349126902</v>
       </c>
       <c r="J11">
-        <v>0.9867001684186602</v>
+        <v>0.9867001684186594</v>
       </c>
       <c r="K11">
-        <v>0.9954110557684763</v>
+        <v>0.9954110557684754</v>
       </c>
       <c r="L11">
-        <v>0.9846196603117685</v>
+        <v>0.9846196603117678</v>
       </c>
       <c r="M11">
-        <v>0.9283878817711581</v>
+        <v>0.9283878817711568</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9533283311806171</v>
+        <v>0.9533283311806167</v>
       </c>
       <c r="D12">
-        <v>0.9785101835254901</v>
+        <v>0.9785101835254898</v>
       </c>
       <c r="E12">
-        <v>0.9674530838818749</v>
+        <v>0.9674530838818748</v>
       </c>
       <c r="F12">
-        <v>0.9082654878646885</v>
+        <v>0.9082654878646877</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025632107602279</v>
+        <v>1.025632107602278</v>
       </c>
       <c r="J12">
-        <v>0.9852482311006276</v>
+        <v>0.985248231100627</v>
       </c>
       <c r="K12">
-        <v>0.9940610095622908</v>
+        <v>0.9940610095622905</v>
       </c>
       <c r="L12">
-        <v>0.9832315736363308</v>
+        <v>0.9832315736363305</v>
       </c>
       <c r="M12">
-        <v>0.9253898385950476</v>
+        <v>0.9253898385950469</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9537626649890762</v>
+        <v>0.9537626649890774</v>
       </c>
       <c r="D13">
-        <v>0.9788536253962156</v>
+        <v>0.9788536253962161</v>
       </c>
       <c r="E13">
-        <v>0.9678057882102357</v>
+        <v>0.9678057882102364</v>
       </c>
       <c r="F13">
-        <v>0.9089808588935148</v>
+        <v>0.9089808588935168</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025794145246951</v>
+        <v>1.025794145246952</v>
       </c>
       <c r="J13">
-        <v>0.9855611643385926</v>
+        <v>0.9855611643385936</v>
       </c>
       <c r="K13">
-        <v>0.9943520495977483</v>
+        <v>0.994352049597749</v>
       </c>
       <c r="L13">
-        <v>0.983530700673956</v>
+        <v>0.9835307006739568</v>
       </c>
       <c r="M13">
-        <v>0.9260367464347991</v>
+        <v>0.9260367464348007</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -880,28 +880,28 @@
         <v>0.9551782329662066</v>
       </c>
       <c r="D14">
-        <v>0.9799728837163504</v>
+        <v>0.9799728837163502</v>
       </c>
       <c r="E14">
-        <v>0.9689556478423853</v>
+        <v>0.9689556478423855</v>
       </c>
       <c r="F14">
-        <v>0.9113086711566455</v>
+        <v>0.9113086711566456</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026321651291471</v>
+        <v>1.02632165129147</v>
       </c>
       <c r="J14">
-        <v>0.9865808163506831</v>
+        <v>0.9865808163506828</v>
       </c>
       <c r="K14">
-        <v>0.9953001093385258</v>
+        <v>0.9953001093385254</v>
       </c>
       <c r="L14">
-        <v>0.9845055369692948</v>
+        <v>0.9845055369692951</v>
       </c>
       <c r="M14">
         <v>0.9281417668954471</v>
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9560447113343883</v>
+        <v>0.9560447113343895</v>
       </c>
       <c r="D15">
-        <v>0.9806579308902941</v>
+        <v>0.9806579308902955</v>
       </c>
       <c r="E15">
-        <v>0.9696597383731184</v>
+        <v>0.9696597383731197</v>
       </c>
       <c r="F15">
-        <v>0.9127307805945717</v>
+        <v>0.9127307805945737</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026644081697472</v>
+        <v>1.026644081697474</v>
       </c>
       <c r="J15">
-        <v>0.9872047611918978</v>
+        <v>0.987204761191899</v>
       </c>
       <c r="K15">
-        <v>0.9958800520512089</v>
+        <v>0.9958800520512103</v>
       </c>
       <c r="L15">
-        <v>0.9851021867732144</v>
+        <v>0.9851021867732155</v>
       </c>
       <c r="M15">
-        <v>0.9294277542457426</v>
+        <v>0.9294277542457449</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9610043407505834</v>
+        <v>0.9610043407505827</v>
       </c>
       <c r="D16">
-        <v>0.9845782237590378</v>
+        <v>0.9845782237590376</v>
       </c>
       <c r="E16">
-        <v>0.9736935971090871</v>
+        <v>0.9736935971090863</v>
       </c>
       <c r="F16">
-        <v>0.9208318622616937</v>
+        <v>0.9208318622616938</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028482732475426</v>
+        <v>1.028482732475425</v>
       </c>
       <c r="J16">
-        <v>0.9907733064579544</v>
+        <v>0.9907733064579537</v>
       </c>
       <c r="K16">
-        <v>0.9991941047350421</v>
+        <v>0.9991941047350418</v>
       </c>
       <c r="L16">
-        <v>0.9885165108576245</v>
+        <v>0.9885165108576238</v>
       </c>
       <c r="M16">
-        <v>0.9367530540467758</v>
+        <v>0.9367530540467757</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9640451607536069</v>
+        <v>0.9640451607536071</v>
       </c>
       <c r="D17">
-        <v>0.9869811005789363</v>
+        <v>0.9869811005789364</v>
       </c>
       <c r="E17">
-        <v>0.9761699550758637</v>
+        <v>0.9761699550758635</v>
       </c>
       <c r="F17">
-        <v>0.9257673741372964</v>
+        <v>0.9257673741372973</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.029604010206</v>
       </c>
       <c r="J17">
-        <v>0.9929587656822897</v>
+        <v>0.9929587656822898</v>
       </c>
       <c r="K17">
         <v>1.001221314933022</v>
       </c>
       <c r="L17">
-        <v>0.9906091234757249</v>
+        <v>0.9906091234757248</v>
       </c>
       <c r="M17">
-        <v>0.9412154639444682</v>
+        <v>0.9412154639444689</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.965794793419301</v>
+        <v>0.9657947934193007</v>
       </c>
       <c r="D18">
-        <v>0.9883634246730144</v>
+        <v>0.9883634246730142</v>
       </c>
       <c r="E18">
-        <v>0.9775958925257539</v>
+        <v>0.9775958925257532</v>
       </c>
       <c r="F18">
-        <v>0.9285968733254653</v>
+        <v>0.9285968733254647</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.030247012050751</v>
       </c>
       <c r="J18">
-        <v>0.99421536028596</v>
+        <v>0.9942153602859597</v>
       </c>
       <c r="K18">
         <v>1.00238608987891</v>
       </c>
       <c r="L18">
-        <v>0.9918128907579065</v>
+        <v>0.9918128907579059</v>
       </c>
       <c r="M18">
-        <v>0.9437735151661053</v>
+        <v>0.9437735151661045</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9663874118384629</v>
+        <v>0.9663874118384616</v>
       </c>
       <c r="D19">
-        <v>0.9888315904629382</v>
+        <v>0.988831590462937</v>
       </c>
       <c r="E19">
-        <v>0.9780790522951072</v>
+        <v>0.9780790522951057</v>
       </c>
       <c r="F19">
-        <v>0.9295535914080921</v>
+        <v>0.9295535914080904</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030464437175884</v>
+        <v>1.030464437175883</v>
       </c>
       <c r="J19">
-        <v>0.9946408332096495</v>
+        <v>0.9946408332096482</v>
       </c>
       <c r="K19">
-        <v>1.00278033530037</v>
+        <v>1.002780335300369</v>
       </c>
       <c r="L19">
-        <v>0.9922205697152244</v>
+        <v>0.9922205697152233</v>
       </c>
       <c r="M19">
-        <v>0.9446384081396826</v>
+        <v>0.944638408139681</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9637214222534712</v>
+        <v>0.9637214222534725</v>
       </c>
       <c r="D20">
-        <v>0.9867253060860324</v>
+        <v>0.9867253060860336</v>
       </c>
       <c r="E20">
-        <v>0.9759061976953999</v>
+        <v>0.9759061976954013</v>
       </c>
       <c r="F20">
-        <v>0.9252430111836137</v>
+        <v>0.9252430111836156</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029484859065548</v>
+        <v>1.029484859065549</v>
       </c>
       <c r="J20">
-        <v>0.9927261840460314</v>
+        <v>0.9927261840460325</v>
       </c>
       <c r="K20">
-        <v>1.001005661463912</v>
+        <v>1.001005661463914</v>
       </c>
       <c r="L20">
-        <v>0.9903863643988343</v>
+        <v>0.9903863643988354</v>
       </c>
       <c r="M20">
-        <v>0.9407413865879061</v>
+        <v>0.940741386587908</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9547625792834183</v>
+        <v>0.9547625792834177</v>
       </c>
       <c r="D21">
-        <v>0.9796442477752227</v>
+        <v>0.979644247775222</v>
       </c>
       <c r="E21">
         <v>0.9686179608264144</v>
       </c>
       <c r="F21">
-        <v>0.9106257386017413</v>
+        <v>0.9106257386017406</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026166855628362</v>
+        <v>1.026166855628361</v>
       </c>
       <c r="J21">
-        <v>0.9862814555599732</v>
+        <v>0.9862814555599725</v>
       </c>
       <c r="K21">
-        <v>0.9950218080617234</v>
+        <v>0.9950218080617227</v>
       </c>
       <c r="L21">
-        <v>0.9842193066708866</v>
+        <v>0.9842193066708865</v>
       </c>
       <c r="M21">
-        <v>0.9275241994260183</v>
+        <v>0.9275241994260176</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9488842334219668</v>
+        <v>0.9488842334219655</v>
       </c>
       <c r="D22">
-        <v>0.9749954410944375</v>
+        <v>0.9749954410944363</v>
       </c>
       <c r="E22">
-        <v>0.9638469947944415</v>
+        <v>0.9638469947944404</v>
       </c>
       <c r="F22">
-        <v>0.9009141798929465</v>
+        <v>0.900914179892945</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023969268145815</v>
+        <v>1.023969268145814</v>
       </c>
       <c r="J22">
-        <v>0.9820442588854261</v>
+        <v>0.982044258885425</v>
       </c>
       <c r="K22">
-        <v>0.9910790679407749</v>
+        <v>0.9910790679407738</v>
       </c>
       <c r="L22">
-        <v>0.9801703598965416</v>
+        <v>0.9801703598965404</v>
       </c>
       <c r="M22">
-        <v>0.9187420673398319</v>
+        <v>0.9187420673398303</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9520252913970446</v>
+        <v>0.9520252913970447</v>
       </c>
       <c r="D23">
-        <v>0.9774797602990167</v>
+        <v>0.9774797602990168</v>
       </c>
       <c r="E23">
-        <v>0.9663952299910965</v>
+        <v>0.9663952299910964</v>
       </c>
       <c r="F23">
-        <v>0.9061160591476489</v>
+        <v>0.9061160591476498</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.025145465758425</v>
       </c>
       <c r="J23">
-        <v>0.9843091887244152</v>
+        <v>0.9843091887244155</v>
       </c>
       <c r="K23">
-        <v>0.993187442243167</v>
+        <v>0.9931874422431674</v>
       </c>
       <c r="L23">
-        <v>0.9823341072968592</v>
+        <v>0.9823341072968591</v>
       </c>
       <c r="M23">
-        <v>0.923446110801122</v>
+        <v>0.9234461108011227</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9638677796933814</v>
+        <v>0.963867779693382</v>
       </c>
       <c r="D24">
-        <v>0.9868409478023968</v>
+        <v>0.9868409478023975</v>
       </c>
       <c r="E24">
-        <v>0.9760254351838072</v>
+        <v>0.976025435183808</v>
       </c>
       <c r="F24">
-        <v>0.9254800998043615</v>
+        <v>0.9254800998043617</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,13 +1275,13 @@
         <v>1.029538732268388</v>
       </c>
       <c r="J24">
-        <v>0.9928313335315373</v>
+        <v>0.9928313335315381</v>
       </c>
       <c r="K24">
         <v>1.001103160346408</v>
       </c>
       <c r="L24">
-        <v>0.9904870714044702</v>
+        <v>0.990487071404471</v>
       </c>
       <c r="M24">
         <v>0.940955739478194</v>
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9766773171849026</v>
+        <v>0.9766773171849041</v>
       </c>
       <c r="D25">
-        <v>0.9969570728788072</v>
+        <v>0.9969570728788084</v>
       </c>
       <c r="E25">
-        <v>0.9864829943866348</v>
+        <v>0.9864829943866362</v>
       </c>
       <c r="F25">
-        <v>0.94603939124499</v>
+        <v>0.9460393912449907</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034208433313409</v>
+        <v>1.034208433313411</v>
       </c>
       <c r="J25">
-        <v>1.002015908070652</v>
+        <v>1.002015908070654</v>
       </c>
       <c r="K25">
-        <v>1.009602810749537</v>
+        <v>1.009602810749538</v>
       </c>
       <c r="L25">
-        <v>0.999294832403815</v>
+        <v>0.9992948324038164</v>
       </c>
       <c r="M25">
-        <v>0.9595374215446412</v>
+        <v>0.9595374215446421</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_bus/vm_pu.xlsx
@@ -418,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9862639601932248</v>
+        <v>0.9862722627556759</v>
       </c>
       <c r="D2">
-        <v>1.004520615605147</v>
+        <v>1.004527327531369</v>
       </c>
       <c r="E2">
-        <v>0.9943377050145029</v>
+        <v>0.9943454936831172</v>
       </c>
       <c r="F2">
-        <v>0.9612042406131368</v>
+        <v>0.9612116410315337</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037637963985087</v>
+        <v>1.037641732087463</v>
       </c>
       <c r="J2">
-        <v>1.008863422241488</v>
+        <v>1.008871466828403</v>
       </c>
       <c r="K2">
-        <v>1.015917328303949</v>
+        <v>1.015923947780915</v>
       </c>
       <c r="L2">
-        <v>1.005876492356037</v>
+        <v>1.00588417094962</v>
       </c>
       <c r="M2">
-        <v>0.9732318948656776</v>
+        <v>0.9732391812921232</v>
+      </c>
+      <c r="N2">
+        <v>1.00797376357915</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9929082855317833</v>
+        <v>0.9929134203680903</v>
       </c>
       <c r="D3">
-        <v>1.009758316480658</v>
+        <v>1.009762543240362</v>
       </c>
       <c r="E3">
-        <v>0.9997961293305291</v>
+        <v>0.9998011169532249</v>
       </c>
       <c r="F3">
-        <v>0.9716186084848049</v>
+        <v>0.9716232190711226</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039977113659566</v>
+        <v>1.039979484885897</v>
       </c>
       <c r="J3">
-        <v>1.013594162707812</v>
+        <v>1.013599154821696</v>
       </c>
       <c r="K3">
-        <v>1.020267842034442</v>
+        <v>1.020272016007398</v>
       </c>
       <c r="L3">
-        <v>1.010431619384684</v>
+        <v>1.010436543157682</v>
       </c>
       <c r="M3">
-        <v>0.9826279932434518</v>
+        <v>0.9826325404160359</v>
+      </c>
+      <c r="N3">
+        <v>1.01122849605553</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9970748982799801</v>
+        <v>0.9970780802847163</v>
       </c>
       <c r="D4">
-        <v>1.013040665244732</v>
+        <v>1.01304335850402</v>
       </c>
       <c r="E4">
-        <v>1.003225217838454</v>
+        <v>1.003228475345308</v>
       </c>
       <c r="F4">
-        <v>0.9781133516372555</v>
+        <v>0.9781162707622132</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04142640954673</v>
+        <v>1.041427916786423</v>
       </c>
       <c r="J4">
-        <v>1.016553725584479</v>
+        <v>1.016556825545853</v>
       </c>
       <c r="K4">
-        <v>1.02298420804273</v>
+        <v>1.022986869824096</v>
       </c>
       <c r="L4">
-        <v>1.013284872557211</v>
+        <v>1.013288091061929</v>
       </c>
       <c r="M4">
-        <v>0.9884833094707214</v>
+        <v>0.9884861913680919</v>
+      </c>
+      <c r="N4">
+        <v>1.013263566078908</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9987965944351173</v>
+        <v>0.9987989766218752</v>
       </c>
       <c r="D5">
-        <v>1.014396427782462</v>
+        <v>1.014398492655723</v>
       </c>
       <c r="E5">
-        <v>1.004643560481496</v>
+        <v>1.00464610871575</v>
       </c>
       <c r="F5">
-        <v>0.9807894917722576</v>
+        <v>0.9807917240784987</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042021040836534</v>
+        <v>1.042022193575115</v>
       </c>
       <c r="J5">
-        <v>1.017774949685072</v>
+        <v>1.017777272406906</v>
       </c>
       <c r="K5">
-        <v>1.02410382787073</v>
+        <v>1.024105869291625</v>
       </c>
       <c r="L5">
-        <v>1.014463060855237</v>
+        <v>1.014465579448471</v>
       </c>
       <c r="M5">
-        <v>0.9908948576550943</v>
+        <v>0.9908970624000101</v>
+      </c>
+      <c r="N5">
+        <v>1.014103031505767</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9990839685318467</v>
+        <v>0.9990862176111647</v>
       </c>
       <c r="D6">
-        <v>1.014622689938991</v>
+        <v>1.014624650217494</v>
       </c>
       <c r="E6">
-        <v>1.00488038113737</v>
+        <v>1.004882811296906</v>
       </c>
       <c r="F6">
-        <v>0.9812357592005302</v>
+        <v>0.9812378775323086</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04212004296405</v>
+        <v>1.042121136669348</v>
       </c>
       <c r="J6">
-        <v>1.01797868769429</v>
+        <v>1.017980880938364</v>
       </c>
       <c r="K6">
-        <v>1.024290542124946</v>
+        <v>1.024292480246862</v>
       </c>
       <c r="L6">
-        <v>1.014659667499789</v>
+        <v>1.014662069529882</v>
       </c>
       <c r="M6">
-        <v>0.9912969348441862</v>
+        <v>0.9912990271646899</v>
+      </c>
+      <c r="N6">
+        <v>1.014243063493521</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9970980190568531</v>
+        <v>0.9971011902937844</v>
       </c>
       <c r="D7">
-        <v>1.01305887406134</v>
+        <v>1.013061558861975</v>
       </c>
       <c r="E7">
-        <v>1.003244259409336</v>
+        <v>1.003247507369888</v>
       </c>
       <c r="F7">
-        <v>0.9781493183375988</v>
+        <v>0.9781522281934616</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041434411689861</v>
+        <v>1.041435914159455</v>
       </c>
       <c r="J7">
-        <v>1.016570132251052</v>
+        <v>1.016573221757348</v>
       </c>
       <c r="K7">
-        <v>1.022999254626197</v>
+        <v>1.023001908059678</v>
       </c>
       <c r="L7">
-        <v>1.013300697787327</v>
+        <v>1.013303906874933</v>
       </c>
       <c r="M7">
-        <v>0.9885157246245894</v>
+        <v>0.988518597387035</v>
+      </c>
+      <c r="N7">
+        <v>1.013274845092687</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9885380727668279</v>
+        <v>0.9885452834034032</v>
       </c>
       <c r="D8">
-        <v>1.006313739185034</v>
+        <v>1.006319594798466</v>
       </c>
       <c r="E8">
-        <v>0.9962045809137758</v>
+        <v>0.9962114048488467</v>
       </c>
       <c r="F8">
-        <v>0.9647770229530602</v>
+        <v>0.9647834550517983</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038442270401328</v>
+        <v>1.038445557631143</v>
       </c>
       <c r="J8">
-        <v>1.010484067441531</v>
+        <v>1.010491062186487</v>
       </c>
       <c r="K8">
-        <v>1.017408860702399</v>
+        <v>1.017414638243326</v>
       </c>
       <c r="L8">
-        <v>1.007436210198794</v>
+        <v>1.007442940811112</v>
       </c>
       <c r="M8">
-        <v>0.9764562391216404</v>
+        <v>0.9764625758242591</v>
+      </c>
+      <c r="N8">
+        <v>1.009088984298294</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9723457993344496</v>
+        <v>0.9723609778537005</v>
       </c>
       <c r="D9">
-        <v>0.9935374923626044</v>
+        <v>0.9935495885008675</v>
       </c>
       <c r="E9">
-        <v>0.9829419905026179</v>
+        <v>0.9829558328763059</v>
       </c>
       <c r="F9">
-        <v>0.9391278694680096</v>
+        <v>0.9391415419075072</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03263982367396</v>
+        <v>1.032646605096219</v>
       </c>
       <c r="J9">
-        <v>0.998914368763487</v>
+        <v>0.9989289673540664</v>
       </c>
       <c r="K9">
-        <v>1.006736296715269</v>
+        <v>1.006748193306677</v>
       </c>
       <c r="L9">
-        <v>0.9963180207309132</v>
+        <v>0.9963316283527178</v>
       </c>
       <c r="M9">
-        <v>0.953292317085724</v>
+        <v>0.9533057284804974</v>
+      </c>
+      <c r="N9">
+        <v>1.001123402753777</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9606573577993999</v>
+        <v>0.9606786024847878</v>
       </c>
       <c r="D10">
-        <v>0.9843040009964088</v>
+        <v>0.9843208360791799</v>
       </c>
       <c r="E10">
-        <v>0.9734111760145823</v>
+        <v>0.9734303253651944</v>
       </c>
       <c r="F10">
-        <v>0.9202671972132914</v>
+        <v>0.9202866818840644</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028354488703151</v>
+        <v>1.02836390861475</v>
       </c>
       <c r="J10">
-        <v>0.990523806270927</v>
+        <v>0.9905441060402606</v>
       </c>
       <c r="K10">
-        <v>0.9989625548909584</v>
+        <v>0.998979073222943</v>
       </c>
       <c r="L10">
-        <v>0.988277688188283</v>
+        <v>0.9882964666004322</v>
       </c>
       <c r="M10">
-        <v>0.9362424893653654</v>
+        <v>0.936261536220414</v>
+      </c>
+      <c r="N10">
+        <v>0.995342244469934</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9553439627326465</v>
+        <v>0.9553680663025441</v>
       </c>
       <c r="D11">
-        <v>0.9801039148690027</v>
+        <v>0.9801229800293713</v>
       </c>
       <c r="E11">
-        <v>0.9690903030541431</v>
+        <v>0.9691119416239778</v>
       </c>
       <c r="F11">
-        <v>0.9115808362990303</v>
+        <v>0.911603162203428</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026383349126902</v>
+        <v>1.026394006521343</v>
       </c>
       <c r="J11">
-        <v>0.9867001684186594</v>
+        <v>0.9867231292122812</v>
       </c>
       <c r="K11">
-        <v>0.9954110557684754</v>
+        <v>0.9954297419514808</v>
       </c>
       <c r="L11">
-        <v>0.9846196603117678</v>
+        <v>0.9846408557589374</v>
       </c>
       <c r="M11">
-        <v>0.9283878817711568</v>
+        <v>0.9284096696098899</v>
+      </c>
+      <c r="N11">
+        <v>0.9927070105746763</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9533283311806167</v>
+        <v>0.9533535373371514</v>
       </c>
       <c r="D12">
-        <v>0.9785101835254898</v>
+        <v>0.9785301082469696</v>
       </c>
       <c r="E12">
-        <v>0.9674530838818748</v>
+        <v>0.9674756803674033</v>
       </c>
       <c r="F12">
-        <v>0.9082654878646877</v>
+        <v>0.9082889283507687</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025632107602278</v>
+        <v>1.025643241289343</v>
       </c>
       <c r="J12">
-        <v>0.985248231100627</v>
+        <v>0.9852722138190207</v>
       </c>
       <c r="K12">
-        <v>0.9940610095622905</v>
+        <v>0.994080530155229</v>
       </c>
       <c r="L12">
-        <v>0.9832315736363305</v>
+        <v>0.9832536978486744</v>
       </c>
       <c r="M12">
-        <v>0.9253898385950469</v>
+        <v>0.9254126992546442</v>
+      </c>
+      <c r="N12">
+        <v>0.9917062650202476</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9537626649890774</v>
+        <v>0.9537876326895999</v>
       </c>
       <c r="D13">
-        <v>0.9788536253962161</v>
+        <v>0.978873364243832</v>
       </c>
       <c r="E13">
-        <v>0.9678057882102364</v>
+        <v>0.9678281776278268</v>
       </c>
       <c r="F13">
-        <v>0.9089808588935168</v>
+        <v>0.9090040574178306</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025794145246952</v>
+        <v>1.02580517597095</v>
       </c>
       <c r="J13">
-        <v>0.9855611643385936</v>
+        <v>0.9855849262495968</v>
       </c>
       <c r="K13">
-        <v>0.994352049597749</v>
+        <v>0.9943713898098284</v>
       </c>
       <c r="L13">
-        <v>0.9835307006739568</v>
+        <v>0.9835526241835439</v>
       </c>
       <c r="M13">
-        <v>0.9260367464348007</v>
+        <v>0.9260593743140069</v>
+      </c>
+      <c r="N13">
+        <v>0.9919219566969895</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9551782329662066</v>
+        <v>0.9552024268085411</v>
       </c>
       <c r="D14">
-        <v>0.9799728837163502</v>
+        <v>0.9799920192622018</v>
       </c>
       <c r="E14">
-        <v>0.9689556478423855</v>
+        <v>0.9689773648842939</v>
       </c>
       <c r="F14">
-        <v>0.9113086711566456</v>
+        <v>0.9113310879135735</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02632165129147</v>
+        <v>1.02633234770144</v>
       </c>
       <c r="J14">
-        <v>0.9865808163506828</v>
+        <v>0.9866038609032566</v>
       </c>
       <c r="K14">
-        <v>0.9953001093385254</v>
+        <v>0.9953188638716338</v>
       </c>
       <c r="L14">
-        <v>0.9845055369692951</v>
+        <v>0.9845268085289536</v>
       </c>
       <c r="M14">
-        <v>0.9281417668954471</v>
+        <v>0.9281636422336954</v>
+      </c>
+      <c r="N14">
+        <v>0.9926247487106165</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9560447113343895</v>
+        <v>0.9560684339611556</v>
       </c>
       <c r="D15">
-        <v>0.9806579308902955</v>
+        <v>0.9806766990082932</v>
       </c>
       <c r="E15">
-        <v>0.9696597383731197</v>
+        <v>0.9696810457097508</v>
       </c>
       <c r="F15">
-        <v>0.9127307805945737</v>
+        <v>0.9127527238888991</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026644081697474</v>
+        <v>1.026654574409812</v>
       </c>
       <c r="J15">
-        <v>0.987204761191899</v>
+        <v>0.9872273683504018</v>
       </c>
       <c r="K15">
-        <v>0.9958800520512103</v>
+        <v>0.9958984497339184</v>
       </c>
       <c r="L15">
-        <v>0.9851021867732155</v>
+        <v>0.985123060890928</v>
       </c>
       <c r="M15">
-        <v>0.9294277542457449</v>
+        <v>0.9294491734953618</v>
+      </c>
+      <c r="N15">
+        <v>0.9930547916690843</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9610043407505827</v>
+        <v>0.9610254010589705</v>
       </c>
       <c r="D16">
-        <v>0.9845782237590376</v>
+        <v>0.9845949149491121</v>
       </c>
       <c r="E16">
-        <v>0.9736935971090863</v>
+        <v>0.9737125856565975</v>
       </c>
       <c r="F16">
-        <v>0.9208318622616938</v>
+        <v>0.9208511660361827</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028482732475425</v>
+        <v>1.028492072450976</v>
       </c>
       <c r="J16">
-        <v>0.9907733064579537</v>
+        <v>0.9907934340474379</v>
       </c>
       <c r="K16">
-        <v>0.9991941047350418</v>
+        <v>0.9992104830370863</v>
       </c>
       <c r="L16">
-        <v>0.9885165108576238</v>
+        <v>0.9885351329504236</v>
       </c>
       <c r="M16">
-        <v>0.9367530540467757</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9367719260838602</v>
+      </c>
+      <c r="N16">
+        <v>0.995514186540345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9640451607536071</v>
+        <v>0.9640646169326302</v>
       </c>
       <c r="D17">
-        <v>0.9869811005789364</v>
+        <v>0.9869965394943762</v>
       </c>
       <c r="E17">
-        <v>0.9761699550758635</v>
+        <v>0.9761875432502468</v>
       </c>
       <c r="F17">
-        <v>0.9257673741372973</v>
+        <v>0.9257851156350307</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029604010206</v>
+        <v>1.0296126540467</v>
       </c>
       <c r="J17">
-        <v>0.9929587656822898</v>
+        <v>0.9929773923584014</v>
       </c>
       <c r="K17">
-        <v>1.001221314933022</v>
+        <v>1.001236473784912</v>
       </c>
       <c r="L17">
-        <v>0.9906091234757248</v>
+        <v>0.990626383309998</v>
       </c>
       <c r="M17">
-        <v>0.9412154639444689</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9412328246688459</v>
+      </c>
+      <c r="N17">
+        <v>0.997020209562696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9657947934193007</v>
+        <v>0.9658133358905109</v>
       </c>
       <c r="D18">
-        <v>0.9883634246730142</v>
+        <v>0.9883781499931147</v>
       </c>
       <c r="E18">
-        <v>0.9775958925257532</v>
+        <v>0.9776126819854309</v>
       </c>
       <c r="F18">
-        <v>0.9285968733254647</v>
+        <v>0.9286137340470261</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030247012050751</v>
+        <v>1.030255258829802</v>
       </c>
       <c r="J18">
-        <v>0.9942153602859597</v>
+        <v>0.9942331297091018</v>
       </c>
       <c r="K18">
-        <v>1.00238608987891</v>
+        <v>1.002400553198459</v>
       </c>
       <c r="L18">
-        <v>0.9918128907579059</v>
+        <v>0.9918293728613823</v>
       </c>
       <c r="M18">
-        <v>0.9437735151661045</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9437900226316647</v>
+      </c>
+      <c r="N18">
+        <v>0.9978860726373855</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9663874118384616</v>
+        <v>0.9664056463266693</v>
       </c>
       <c r="D19">
-        <v>0.988831590462937</v>
+        <v>0.988846075201211</v>
       </c>
       <c r="E19">
-        <v>0.9780790522951057</v>
+        <v>0.9780955723601167</v>
       </c>
       <c r="F19">
-        <v>0.9295535914080904</v>
+        <v>0.9295701567028213</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030464437175883</v>
+        <v>1.030472550027079</v>
       </c>
       <c r="J19">
-        <v>0.9946408332096482</v>
+        <v>0.9946583132953243</v>
       </c>
       <c r="K19">
-        <v>1.002780335300369</v>
+        <v>1.002794564021866</v>
       </c>
       <c r="L19">
-        <v>0.9922205697152233</v>
+        <v>0.9922367893769292</v>
       </c>
       <c r="M19">
-        <v>0.944638408139681</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9446546292110067</v>
+      </c>
+      <c r="N19">
+        <v>0.9981792343281167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9637214222534725</v>
+        <v>0.9637410482317741</v>
       </c>
       <c r="D20">
-        <v>0.9867253060860336</v>
+        <v>0.9867408775882576</v>
       </c>
       <c r="E20">
-        <v>0.9759061976954013</v>
+        <v>0.9759239342145117</v>
       </c>
       <c r="F20">
-        <v>0.9252430111836156</v>
+        <v>0.9252609170801156</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029484859065549</v>
+        <v>1.02949357665044</v>
       </c>
       <c r="J20">
-        <v>0.9927261840460325</v>
+        <v>0.9927449698428616</v>
       </c>
       <c r="K20">
-        <v>1.001005661463914</v>
+        <v>1.001020949494898</v>
       </c>
       <c r="L20">
-        <v>0.9903863643988354</v>
+        <v>0.9904037686198716</v>
       </c>
       <c r="M20">
-        <v>0.940741386587908</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9407589064776072</v>
+      </c>
+      <c r="N20">
+        <v>0.9968599421265506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9547625792834177</v>
+        <v>0.9547869998320881</v>
       </c>
       <c r="D21">
-        <v>0.979644247775222</v>
+        <v>0.9796635600759379</v>
       </c>
       <c r="E21">
-        <v>0.9686179608264144</v>
+        <v>0.9686398749049397</v>
       </c>
       <c r="F21">
-        <v>0.9106257386017406</v>
+        <v>0.9106483838360993</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026166855628361</v>
+        <v>1.026177650004557</v>
       </c>
       <c r="J21">
-        <v>0.9862814555599725</v>
+        <v>0.9863047103898629</v>
       </c>
       <c r="K21">
-        <v>0.9950218080617227</v>
+        <v>0.99504073421933</v>
       </c>
       <c r="L21">
-        <v>0.9842193066708865</v>
+        <v>0.9842407693200411</v>
       </c>
       <c r="M21">
-        <v>0.9275241994260176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9275462947693869</v>
+      </c>
+      <c r="N21">
+        <v>0.9924184170477105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9488842334219655</v>
+        <v>0.9489119077009309</v>
       </c>
       <c r="D22">
-        <v>0.9749954410944363</v>
+        <v>0.9750172889798853</v>
       </c>
       <c r="E22">
-        <v>0.9638469947944404</v>
+        <v>0.963871731250129</v>
       </c>
       <c r="F22">
-        <v>0.900914179892945</v>
+        <v>0.9009401551292165</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023969268145814</v>
+        <v>1.023981466135184</v>
       </c>
       <c r="J22">
-        <v>0.982044258885425</v>
+        <v>0.9820705204936971</v>
       </c>
       <c r="K22">
-        <v>0.9910790679407738</v>
+        <v>0.9911004531307485</v>
       </c>
       <c r="L22">
-        <v>0.9801703598965404</v>
+        <v>0.9801945562583348</v>
       </c>
       <c r="M22">
-        <v>0.9187420673398303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9187673627447792</v>
+      </c>
+      <c r="N22">
+        <v>0.9894978284239135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9520252913970447</v>
+        <v>0.9520512158477766</v>
       </c>
       <c r="D23">
-        <v>0.9774797602990168</v>
+        <v>0.9775002448479035</v>
       </c>
       <c r="E23">
-        <v>0.9663952299910964</v>
+        <v>0.9664184498860316</v>
       </c>
       <c r="F23">
-        <v>0.9061160591476498</v>
+        <v>0.9061402315694859</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025145465758425</v>
+        <v>1.025156909451359</v>
       </c>
       <c r="J23">
-        <v>0.9843091887244155</v>
+        <v>0.9843338358970163</v>
       </c>
       <c r="K23">
-        <v>0.9931874422431674</v>
+        <v>0.9932075059397238</v>
       </c>
       <c r="L23">
-        <v>0.9823341072968591</v>
+        <v>0.9823568355438789</v>
       </c>
       <c r="M23">
-        <v>0.9234461108011227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9234696752340252</v>
+      </c>
+      <c r="N23">
+        <v>0.9910590140963222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.963867779693382</v>
+        <v>0.9638873288792729</v>
       </c>
       <c r="D24">
-        <v>0.9868409478023975</v>
+        <v>0.9868564593426548</v>
       </c>
       <c r="E24">
-        <v>0.976025435183808</v>
+        <v>0.9760431046167201</v>
       </c>
       <c r="F24">
-        <v>0.9254800998043617</v>
+        <v>0.9254979313226935</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029538732268388</v>
+        <v>1.029547416503867</v>
       </c>
       <c r="J24">
-        <v>0.9928313335315381</v>
+        <v>0.9928500473726384</v>
       </c>
       <c r="K24">
-        <v>1.001103160346408</v>
+        <v>1.001118389958538</v>
       </c>
       <c r="L24">
-        <v>0.990487071404471</v>
+        <v>0.9905044103315721</v>
       </c>
       <c r="M24">
-        <v>0.940955739478194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9409731873612549</v>
+      </c>
+      <c r="N24">
+        <v>0.9969323987896145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9766773171849041</v>
+        <v>0.9766903182566385</v>
       </c>
       <c r="D25">
-        <v>0.9969570728788084</v>
+        <v>0.9969674654662607</v>
       </c>
       <c r="E25">
-        <v>0.9864829943866362</v>
+        <v>0.9864949238760182</v>
       </c>
       <c r="F25">
-        <v>0.9460393912449907</v>
+        <v>0.9460510434143437</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034208433313411</v>
+        <v>1.034214263186847</v>
       </c>
       <c r="J25">
-        <v>1.002015908070654</v>
+        <v>1.002028441784604</v>
       </c>
       <c r="K25">
-        <v>1.009602810749538</v>
+        <v>1.009613040745733</v>
       </c>
       <c r="L25">
-        <v>0.9992948324038164</v>
+        <v>0.9993065701391729</v>
       </c>
       <c r="M25">
-        <v>0.9595374215446421</v>
+        <v>0.9595488650419229</v>
+      </c>
+      <c r="N25">
+        <v>1.003259603447257</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9862722627556759</v>
+        <v>1.011372887263684</v>
       </c>
       <c r="D2">
-        <v>1.004527327531369</v>
+        <v>1.026120296174882</v>
       </c>
       <c r="E2">
-        <v>0.9943454936831172</v>
+        <v>1.023858459623451</v>
       </c>
       <c r="F2">
-        <v>0.9612116410315337</v>
+        <v>1.030718199874056</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037641732087463</v>
+        <v>1.045979210804103</v>
       </c>
       <c r="J2">
-        <v>1.008871466828403</v>
+        <v>1.03321867783954</v>
       </c>
       <c r="K2">
-        <v>1.015923947780915</v>
+        <v>1.037227343224266</v>
       </c>
       <c r="L2">
-        <v>1.00588417094962</v>
+        <v>1.034995121144613</v>
       </c>
       <c r="M2">
-        <v>0.9732391812921232</v>
+        <v>1.041765547368593</v>
       </c>
       <c r="N2">
-        <v>1.00797376357915</v>
+        <v>1.034685966873934</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9929134203680903</v>
+        <v>1.018812420561928</v>
       </c>
       <c r="D3">
-        <v>1.009762543240362</v>
+        <v>1.031795007778848</v>
       </c>
       <c r="E3">
-        <v>0.9998011169532249</v>
+        <v>1.030314731267033</v>
       </c>
       <c r="F3">
-        <v>0.9716232190711226</v>
+        <v>1.037671328421436</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039979484885897</v>
+        <v>1.048347197567523</v>
       </c>
       <c r="J3">
-        <v>1.013599154821696</v>
+        <v>1.038803054523081</v>
       </c>
       <c r="K3">
-        <v>1.020272016007398</v>
+        <v>1.042036607618181</v>
       </c>
       <c r="L3">
-        <v>1.010436543157682</v>
+        <v>1.040573883446664</v>
       </c>
       <c r="M3">
-        <v>0.9826325404160359</v>
+        <v>1.047843861017711</v>
       </c>
       <c r="N3">
-        <v>1.01122849605553</v>
+        <v>1.04027827401288</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9970780802847163</v>
+        <v>1.023484208757035</v>
       </c>
       <c r="D4">
-        <v>1.01304335850402</v>
+        <v>1.03536059322806</v>
       </c>
       <c r="E4">
-        <v>1.003228475345308</v>
+        <v>1.034375299086165</v>
       </c>
       <c r="F4">
-        <v>0.9781162707622132</v>
+        <v>1.042046142746256</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041427916786423</v>
+        <v>1.049822166297978</v>
       </c>
       <c r="J4">
-        <v>1.016556825545853</v>
+        <v>1.042305683112412</v>
       </c>
       <c r="K4">
-        <v>1.022986869824096</v>
+        <v>1.045050186400913</v>
       </c>
       <c r="L4">
-        <v>1.013288091061929</v>
+        <v>1.044075818186953</v>
       </c>
       <c r="M4">
-        <v>0.9884861913680919</v>
+        <v>1.051662269836006</v>
       </c>
       <c r="N4">
-        <v>1.013263566078908</v>
+        <v>1.043785876736565</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9987989766218752</v>
+        <v>1.025416096244548</v>
       </c>
       <c r="D5">
-        <v>1.014398492655723</v>
+        <v>1.036835424540409</v>
       </c>
       <c r="E5">
-        <v>1.00464610871575</v>
+        <v>1.036055841110379</v>
       </c>
       <c r="F5">
-        <v>0.9807917240784987</v>
+        <v>1.043857170365501</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042022193575115</v>
+        <v>1.050429143606192</v>
       </c>
       <c r="J5">
-        <v>1.017777272406906</v>
+        <v>1.043753028401418</v>
       </c>
       <c r="K5">
-        <v>1.024105869291625</v>
+        <v>1.04629473154638</v>
       </c>
       <c r="L5">
-        <v>1.014465579448471</v>
+        <v>1.045523546485428</v>
       </c>
       <c r="M5">
-        <v>0.9908970624000101</v>
+        <v>1.053241524635818</v>
       </c>
       <c r="N5">
-        <v>1.014103031505767</v>
+        <v>1.045235277421894</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9990862176111647</v>
+        <v>1.025738636287876</v>
       </c>
       <c r="D6">
-        <v>1.014624650217494</v>
+        <v>1.03708167585904</v>
       </c>
       <c r="E6">
-        <v>1.004882811296906</v>
+        <v>1.036336497870487</v>
       </c>
       <c r="F6">
-        <v>0.9812378775323086</v>
+        <v>1.044159644131771</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042121136669348</v>
+        <v>1.050530306494439</v>
       </c>
       <c r="J6">
-        <v>1.017980880938364</v>
+        <v>1.043994606556538</v>
       </c>
       <c r="K6">
-        <v>1.024292480246862</v>
+        <v>1.046502417249198</v>
       </c>
       <c r="L6">
-        <v>1.014662069529882</v>
+        <v>1.04576522772679</v>
       </c>
       <c r="M6">
-        <v>0.9912990271646899</v>
+        <v>1.053505203468295</v>
       </c>
       <c r="N6">
-        <v>1.014243063493521</v>
+        <v>1.045477198645703</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9971011902937844</v>
+        <v>1.023510146614623</v>
       </c>
       <c r="D7">
-        <v>1.013061558861975</v>
+        <v>1.035380393191931</v>
       </c>
       <c r="E7">
-        <v>1.003247507369888</v>
+        <v>1.034397856877056</v>
       </c>
       <c r="F7">
-        <v>0.9781522281934616</v>
+        <v>1.042070450329463</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041435914159455</v>
+        <v>1.049830327457022</v>
       </c>
       <c r="J7">
-        <v>1.016573221757348</v>
+        <v>1.042325119736639</v>
       </c>
       <c r="K7">
-        <v>1.023001908059678</v>
+        <v>1.045066902458805</v>
       </c>
       <c r="L7">
-        <v>1.013303906874933</v>
+        <v>1.044095257313961</v>
       </c>
       <c r="M7">
-        <v>0.988518597387035</v>
+        <v>1.051683472267881</v>
       </c>
       <c r="N7">
-        <v>1.013274845092687</v>
+        <v>1.043805340963027</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9885452834034032</v>
+        <v>1.013917717631535</v>
       </c>
       <c r="D8">
-        <v>1.006319594798466</v>
+        <v>1.028060935030923</v>
       </c>
       <c r="E8">
-        <v>0.9962114048488467</v>
+        <v>1.026065574218246</v>
       </c>
       <c r="F8">
-        <v>0.9647834550517983</v>
+        <v>1.033094802262107</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038445557631143</v>
+        <v>1.046791727800619</v>
       </c>
       <c r="J8">
-        <v>1.010491062186487</v>
+        <v>1.035129757909711</v>
       </c>
       <c r="K8">
-        <v>1.017414638243326</v>
+        <v>1.038873758937024</v>
       </c>
       <c r="L8">
-        <v>1.007442940811112</v>
+        <v>1.036903676923927</v>
       </c>
       <c r="M8">
-        <v>0.9764625758242591</v>
+        <v>1.043844394033426</v>
       </c>
       <c r="N8">
-        <v>1.009088984298294</v>
+        <v>1.036599760896985</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9723609778537005</v>
+        <v>0.9958325899779944</v>
       </c>
       <c r="D9">
-        <v>0.9935495885008675</v>
+        <v>1.014283405548026</v>
       </c>
       <c r="E9">
-        <v>0.9829558328763059</v>
+        <v>1.010411549670291</v>
       </c>
       <c r="F9">
-        <v>0.9391415419075072</v>
+        <v>1.016245935281617</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032646605096219</v>
+        <v>1.040968199218039</v>
       </c>
       <c r="J9">
-        <v>0.9989289673540664</v>
+        <v>1.021533373414877</v>
       </c>
       <c r="K9">
-        <v>1.006748193306677</v>
+        <v>1.027148918404044</v>
       </c>
       <c r="L9">
-        <v>0.9963316283527178</v>
+        <v>1.02333793541686</v>
       </c>
       <c r="M9">
-        <v>0.9533057284804974</v>
+        <v>1.029080819878488</v>
       </c>
       <c r="N9">
-        <v>1.001123402753777</v>
+        <v>1.022984067976642</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9606786024847878</v>
+        <v>0.9828332003892398</v>
       </c>
       <c r="D10">
-        <v>0.9843208360791799</v>
+        <v>1.004404295471679</v>
       </c>
       <c r="E10">
-        <v>0.9734303253651944</v>
+        <v>0.9992047308816115</v>
       </c>
       <c r="F10">
-        <v>0.9202866818840644</v>
+        <v>1.004192643052464</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02836390861475</v>
+        <v>1.036722561341043</v>
       </c>
       <c r="J10">
-        <v>0.9905441060402606</v>
+        <v>1.011744873203901</v>
       </c>
       <c r="K10">
-        <v>0.998979073222943</v>
+        <v>1.018694481742446</v>
       </c>
       <c r="L10">
-        <v>0.9882964666004322</v>
+        <v>1.013588359019032</v>
       </c>
       <c r="M10">
-        <v>0.936261536220414</v>
+        <v>1.018486608417247</v>
       </c>
       <c r="N10">
-        <v>0.995342244469934</v>
+        <v>1.01318166697261</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9553680663025441</v>
+        <v>0.9769418621792242</v>
       </c>
       <c r="D11">
-        <v>0.9801229800293713</v>
+        <v>0.999935056352483</v>
       </c>
       <c r="E11">
-        <v>0.9691119416239778</v>
+        <v>0.9941384342959164</v>
       </c>
       <c r="F11">
-        <v>0.911603162203428</v>
+        <v>0.9987456730573747</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026394006521343</v>
+        <v>1.034785456617959</v>
       </c>
       <c r="J11">
-        <v>0.9867231292122812</v>
+        <v>1.007306374574353</v>
       </c>
       <c r="K11">
-        <v>0.9954297419514808</v>
+        <v>1.014858197519455</v>
       </c>
       <c r="L11">
-        <v>0.9846408557589374</v>
+        <v>1.009171744261806</v>
       </c>
       <c r="M11">
-        <v>0.9284096696098899</v>
+        <v>1.013691282977633</v>
       </c>
       <c r="N11">
-        <v>0.9927070105746763</v>
+        <v>1.008736865165904</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9533535373371514</v>
+        <v>0.9747102694461907</v>
       </c>
       <c r="D12">
-        <v>0.9785301082469696</v>
+        <v>0.9982435625549837</v>
       </c>
       <c r="E12">
-        <v>0.9674756803674033</v>
+        <v>0.9922214476291344</v>
       </c>
       <c r="F12">
-        <v>0.9082889283507687</v>
+        <v>0.9966849351864088</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025643241289343</v>
+        <v>1.034049863491453</v>
       </c>
       <c r="J12">
-        <v>0.9852722138190207</v>
+        <v>1.005624886198049</v>
       </c>
       <c r="K12">
-        <v>0.994080530155229</v>
+        <v>1.013404490676203</v>
       </c>
       <c r="L12">
-        <v>0.9832536978486744</v>
+        <v>1.007499205301805</v>
       </c>
       <c r="M12">
-        <v>0.9254126992546442</v>
+        <v>1.011875923391876</v>
       </c>
       <c r="N12">
-        <v>0.9917062650202476</v>
+        <v>1.007052988883237</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9537876326895999</v>
+        <v>0.9751909799789229</v>
       </c>
       <c r="D13">
-        <v>0.978873364243832</v>
+        <v>0.998607861804587</v>
       </c>
       <c r="E13">
-        <v>0.9678281776278268</v>
+        <v>0.9926342910295395</v>
       </c>
       <c r="F13">
-        <v>0.9090040574178306</v>
+        <v>0.9971287241223904</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02580517597095</v>
+        <v>1.034208399357486</v>
       </c>
       <c r="J13">
-        <v>0.9855849262495968</v>
+        <v>1.005987105626704</v>
       </c>
       <c r="K13">
-        <v>0.9943713898098284</v>
+        <v>1.013717657932248</v>
       </c>
       <c r="L13">
-        <v>0.9835526241835439</v>
+        <v>1.00785946675224</v>
       </c>
       <c r="M13">
-        <v>0.9260593743140069</v>
+        <v>1.012266921178423</v>
       </c>
       <c r="N13">
-        <v>0.9919219566969895</v>
+        <v>1.007415722705028</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9552024268085411</v>
+        <v>0.9767583051769998</v>
       </c>
       <c r="D14">
-        <v>0.9799920192622018</v>
+        <v>0.9997958944321673</v>
       </c>
       <c r="E14">
-        <v>0.9689773648842939</v>
+        <v>0.9939807113863347</v>
       </c>
       <c r="F14">
-        <v>0.9113310879135735</v>
+        <v>0.9985761170314248</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02633234770144</v>
+        <v>1.034724987727688</v>
       </c>
       <c r="J14">
-        <v>0.9866038609032566</v>
+        <v>1.007168069398519</v>
       </c>
       <c r="K14">
-        <v>0.9953188638716338</v>
+        <v>1.014738634827566</v>
       </c>
       <c r="L14">
-        <v>0.9845268085289536</v>
+        <v>1.009034161691365</v>
       </c>
       <c r="M14">
-        <v>0.9281636422336954</v>
+        <v>1.013541939934733</v>
       </c>
       <c r="N14">
-        <v>0.9926247487106165</v>
+        <v>1.008598363580857</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9560684339611556</v>
+        <v>0.9777181260703869</v>
       </c>
       <c r="D15">
-        <v>0.9806766990082932</v>
+        <v>1.000523632134549</v>
       </c>
       <c r="E15">
-        <v>0.9696810457097508</v>
+        <v>0.9948055315679007</v>
       </c>
       <c r="F15">
-        <v>0.9127527238888991</v>
+        <v>0.9994628307520752</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026654574409812</v>
+        <v>1.035041106244516</v>
       </c>
       <c r="J15">
-        <v>0.9872273683504018</v>
+        <v>1.007891260050797</v>
       </c>
       <c r="K15">
-        <v>0.9958984497339184</v>
+        <v>1.015363807543399</v>
       </c>
       <c r="L15">
-        <v>0.985123060890928</v>
+        <v>1.009753600788552</v>
       </c>
       <c r="M15">
-        <v>0.9294491734953618</v>
+        <v>1.014322900425447</v>
       </c>
       <c r="N15">
-        <v>0.9930547916690843</v>
+        <v>1.009322581246813</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9610254010589705</v>
+        <v>0.9832183413130712</v>
       </c>
       <c r="D16">
-        <v>0.9845949149491121</v>
+        <v>1.004696650940459</v>
       </c>
       <c r="E16">
-        <v>0.9737125856565975</v>
+        <v>0.9995362121827397</v>
       </c>
       <c r="F16">
-        <v>0.9208511660361827</v>
+        <v>1.004549071664147</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028492072450976</v>
+        <v>1.036848938941908</v>
       </c>
       <c r="J16">
-        <v>0.9907934340474379</v>
+        <v>1.012034998370962</v>
       </c>
       <c r="K16">
-        <v>0.9992104830370863</v>
+        <v>1.018945190467967</v>
       </c>
       <c r="L16">
-        <v>0.9885351329504236</v>
+        <v>1.013877143129463</v>
       </c>
       <c r="M16">
-        <v>0.9367719260838602</v>
+        <v>1.018800236307522</v>
       </c>
       <c r="N16">
-        <v>0.995514186540345</v>
+        <v>1.013472204150685</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9640646169326302</v>
+        <v>0.9865956378818886</v>
       </c>
       <c r="D17">
-        <v>0.9869965394943762</v>
+        <v>1.007261236923376</v>
       </c>
       <c r="E17">
-        <v>0.9761875432502468</v>
+        <v>1.002444414080996</v>
       </c>
       <c r="F17">
-        <v>0.9257851156350307</v>
+        <v>1.007676368898974</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0296126540467</v>
+        <v>1.037955692430272</v>
       </c>
       <c r="J17">
-        <v>0.9929773923584014</v>
+        <v>1.014578853301378</v>
       </c>
       <c r="K17">
-        <v>1.001236473784912</v>
+        <v>1.021143137028315</v>
       </c>
       <c r="L17">
-        <v>0.990626383309998</v>
+        <v>1.016409719182271</v>
       </c>
       <c r="M17">
-        <v>0.9412328246688459</v>
+        <v>1.021551129094998</v>
       </c>
       <c r="N17">
-        <v>0.997020209562696</v>
+        <v>1.016019671646887</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9658133358905109</v>
+        <v>0.9885405141385603</v>
       </c>
       <c r="D18">
-        <v>0.9883781499931147</v>
+        <v>1.008738833512186</v>
       </c>
       <c r="E18">
-        <v>0.9776126819854309</v>
+        <v>1.004120327823848</v>
       </c>
       <c r="F18">
-        <v>0.9286137340470261</v>
+        <v>1.009478729284834</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030255258829802</v>
+        <v>1.038591809827708</v>
       </c>
       <c r="J18">
-        <v>0.9942331297091018</v>
+        <v>1.01604354855913</v>
       </c>
       <c r="K18">
-        <v>1.002400553198459</v>
+        <v>1.022408409165783</v>
       </c>
       <c r="L18">
-        <v>0.9918293728613823</v>
+        <v>1.017868316053755</v>
       </c>
       <c r="M18">
-        <v>0.9437900226316647</v>
+        <v>1.023135829056383</v>
       </c>
       <c r="N18">
-        <v>0.9978860726373855</v>
+        <v>1.017486446939908</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9664056463266693</v>
+        <v>0.9891995275106409</v>
       </c>
       <c r="D19">
-        <v>0.988846075201211</v>
+        <v>1.009239629528359</v>
       </c>
       <c r="E19">
-        <v>0.9780955723601167</v>
+        <v>1.004688398322576</v>
       </c>
       <c r="F19">
-        <v>0.9295701567028213</v>
+        <v>1.010089692607416</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030472550027079</v>
+        <v>1.038807144349824</v>
       </c>
       <c r="J19">
-        <v>0.9946583132953243</v>
+        <v>1.016539812103427</v>
       </c>
       <c r="K19">
-        <v>1.002794564021866</v>
+        <v>1.022837060006158</v>
       </c>
       <c r="L19">
-        <v>0.9922367893769292</v>
+        <v>1.018362579868824</v>
       </c>
       <c r="M19">
-        <v>0.9446546292110067</v>
+        <v>1.023672886579204</v>
       </c>
       <c r="N19">
-        <v>0.9981792343281167</v>
+        <v>1.017983415235359</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9637410482317741</v>
+        <v>0.986235902487521</v>
       </c>
       <c r="D20">
-        <v>0.9867408775882576</v>
+        <v>1.0069879902506</v>
       </c>
       <c r="E20">
-        <v>0.9759239342145117</v>
+        <v>1.002134521393726</v>
       </c>
       <c r="F20">
-        <v>0.9252609170801156</v>
+        <v>1.007343110328395</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02949357665044</v>
+        <v>1.037837932393437</v>
       </c>
       <c r="J20">
-        <v>0.9927449698428616</v>
+        <v>1.014307915500231</v>
       </c>
       <c r="K20">
-        <v>1.001020949494898</v>
+        <v>1.020909067208643</v>
       </c>
       <c r="L20">
-        <v>0.9904037686198716</v>
+        <v>1.016139941369544</v>
       </c>
       <c r="M20">
-        <v>0.9407589064776072</v>
+        <v>1.021258057319877</v>
       </c>
       <c r="N20">
-        <v>0.9968599421265506</v>
+        <v>1.015748349082985</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9547869998320881</v>
+        <v>0.9762979954211135</v>
       </c>
       <c r="D21">
-        <v>0.9796635600759379</v>
+        <v>0.9994469387574798</v>
       </c>
       <c r="E21">
-        <v>0.9686398749049397</v>
+        <v>0.993585220549106</v>
       </c>
       <c r="F21">
-        <v>0.9106483838360993</v>
+        <v>0.9981509591991721</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026177650004557</v>
+        <v>1.034573319569479</v>
       </c>
       <c r="J21">
-        <v>0.9863047103898629</v>
+        <v>1.006821235538885</v>
       </c>
       <c r="K21">
-        <v>0.99504073421933</v>
+        <v>1.014438796634666</v>
       </c>
       <c r="L21">
-        <v>0.9842407693200411</v>
+        <v>1.008689150615655</v>
       </c>
       <c r="M21">
-        <v>0.9275462947693869</v>
+        <v>1.013167447105127</v>
       </c>
       <c r="N21">
-        <v>0.9924184170477105</v>
+        <v>1.00825103717736</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9489119077009309</v>
+        <v>0.9697968864114332</v>
       </c>
       <c r="D22">
-        <v>0.9750172889798853</v>
+        <v>0.9945222201428671</v>
       </c>
       <c r="E22">
-        <v>0.963871731250129</v>
+        <v>0.988004823005969</v>
       </c>
       <c r="F22">
-        <v>0.9009401551292165</v>
+        <v>0.9921526318626176</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023981466135184</v>
+        <v>1.032427037504721</v>
       </c>
       <c r="J22">
-        <v>0.9820705204936971</v>
+        <v>1.001922442827552</v>
       </c>
       <c r="K22">
-        <v>0.9911004531307485</v>
+        <v>1.010202979604451</v>
       </c>
       <c r="L22">
-        <v>0.9801945562583348</v>
+        <v>1.003817711660234</v>
       </c>
       <c r="M22">
-        <v>0.9187673627447792</v>
+        <v>1.0078811662088</v>
       </c>
       <c r="N22">
-        <v>0.9894978284239135</v>
+        <v>1.003345287618478</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9520512158477766</v>
+        <v>0.9732686313814857</v>
       </c>
       <c r="D23">
-        <v>0.9775002448479035</v>
+        <v>0.9971512651117426</v>
       </c>
       <c r="E23">
-        <v>0.9664184498860316</v>
+        <v>0.9909836628138664</v>
       </c>
       <c r="F23">
-        <v>0.9061402315694859</v>
+        <v>0.9953544109380069</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025156909451359</v>
+        <v>1.033574159636897</v>
       </c>
       <c r="J23">
-        <v>0.9843338358970163</v>
+        <v>1.004538578559354</v>
       </c>
       <c r="K23">
-        <v>0.9932075059397238</v>
+        <v>1.012465242565412</v>
       </c>
       <c r="L23">
-        <v>0.9823568355438789</v>
+        <v>1.006418868221659</v>
       </c>
       <c r="M23">
-        <v>0.9234696752340252</v>
+        <v>1.010703503134661</v>
       </c>
       <c r="N23">
-        <v>0.9910590140963222</v>
+        <v>1.005965138563094</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9638873288792729</v>
+        <v>0.9863985285352161</v>
       </c>
       <c r="D24">
-        <v>0.9868564593426548</v>
+        <v>1.007111514964483</v>
       </c>
       <c r="E24">
-        <v>0.9760431046167201</v>
+        <v>1.002274611350153</v>
       </c>
       <c r="F24">
-        <v>0.9254979313226935</v>
+        <v>1.00749376247052</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029547416503867</v>
+        <v>1.037891172144965</v>
       </c>
       <c r="J24">
-        <v>0.9928500473726384</v>
+        <v>1.014430399425001</v>
       </c>
       <c r="K24">
-        <v>1.001118389958538</v>
+        <v>1.021014884879996</v>
       </c>
       <c r="L24">
-        <v>0.9905044103315721</v>
+        <v>1.016261899665783</v>
       </c>
       <c r="M24">
-        <v>0.9409731873612549</v>
+        <v>1.021390544964048</v>
       </c>
       <c r="N24">
-        <v>0.9969323987896145</v>
+        <v>1.015871006948977</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9766903182566385</v>
+        <v>1.000662293824494</v>
       </c>
       <c r="D25">
-        <v>0.9969674654662607</v>
+        <v>1.017959339985812</v>
       </c>
       <c r="E25">
-        <v>0.9864949238760182</v>
+        <v>1.014584917596591</v>
       </c>
       <c r="F25">
-        <v>0.9460510434143437</v>
+        <v>1.020736290622497</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034214263186847</v>
+        <v>1.04253391441273</v>
       </c>
       <c r="J25">
-        <v>1.002028441784604</v>
+        <v>1.025167389678898</v>
       </c>
       <c r="K25">
-        <v>1.009613040745733</v>
+        <v>1.030285113675143</v>
       </c>
       <c r="L25">
-        <v>0.9993065701391729</v>
+        <v>1.0269609632379</v>
       </c>
       <c r="M25">
-        <v>0.9595488650419229</v>
+        <v>1.033021010127565</v>
       </c>
       <c r="N25">
-        <v>1.003259603447257</v>
+        <v>1.026623244960586</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011372887263684</v>
+        <v>1.007733666082572</v>
       </c>
       <c r="D2">
-        <v>1.026120296174882</v>
+        <v>1.022479616168845</v>
       </c>
       <c r="E2">
-        <v>1.023858459623451</v>
+        <v>1.018814184753943</v>
       </c>
       <c r="F2">
-        <v>1.030718199874056</v>
+        <v>1.020179948165604</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045979210804103</v>
+        <v>1.043892447701869</v>
       </c>
       <c r="J2">
-        <v>1.03321867783954</v>
+        <v>1.029685499627631</v>
       </c>
       <c r="K2">
-        <v>1.037227343224266</v>
+        <v>1.033634411636261</v>
       </c>
       <c r="L2">
-        <v>1.034995121144613</v>
+        <v>1.030017485929795</v>
       </c>
       <c r="M2">
-        <v>1.041765547368593</v>
+        <v>1.031365124683323</v>
       </c>
       <c r="N2">
-        <v>1.034685966873934</v>
+        <v>1.031147771143681</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018812420561928</v>
+        <v>1.011752924245407</v>
       </c>
       <c r="D3">
-        <v>1.031795007778848</v>
+        <v>1.02528422333794</v>
       </c>
       <c r="E3">
-        <v>1.030314731267033</v>
+        <v>1.02245543620899</v>
       </c>
       <c r="F3">
-        <v>1.037671328421436</v>
+        <v>1.024812688255704</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048347197567523</v>
+        <v>1.04493409370679</v>
       </c>
       <c r="J3">
-        <v>1.038803054523081</v>
+        <v>1.031928240877809</v>
       </c>
       <c r="K3">
-        <v>1.042036607618181</v>
+        <v>1.035603494626487</v>
       </c>
       <c r="L3">
-        <v>1.040573883446664</v>
+        <v>1.032808836741869</v>
       </c>
       <c r="M3">
-        <v>1.047843861017711</v>
+        <v>1.035137632361285</v>
       </c>
       <c r="N3">
-        <v>1.04027827401288</v>
+        <v>1.033393697343679</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023484208757035</v>
+        <v>1.014304153023465</v>
       </c>
       <c r="D4">
-        <v>1.03536059322806</v>
+        <v>1.027067259907022</v>
       </c>
       <c r="E4">
-        <v>1.034375299086165</v>
+        <v>1.02477204079012</v>
       </c>
       <c r="F4">
-        <v>1.042046142746256</v>
+        <v>1.027760651053306</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049822166297978</v>
+        <v>1.045586744167181</v>
       </c>
       <c r="J4">
-        <v>1.042305683112412</v>
+        <v>1.033348902077549</v>
       </c>
       <c r="K4">
-        <v>1.045050186400913</v>
+        <v>1.03684962406198</v>
       </c>
       <c r="L4">
-        <v>1.044075818186953</v>
+        <v>1.03458040680758</v>
       </c>
       <c r="M4">
-        <v>1.051662269836006</v>
+        <v>1.037535188128388</v>
       </c>
       <c r="N4">
-        <v>1.043785876736565</v>
+        <v>1.034816376045275</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025416096244548</v>
+        <v>1.01536521831728</v>
       </c>
       <c r="D5">
-        <v>1.036835424540409</v>
+        <v>1.027809460791093</v>
       </c>
       <c r="E5">
-        <v>1.036055841110379</v>
+        <v>1.025736781359688</v>
       </c>
       <c r="F5">
-        <v>1.043857170365501</v>
+        <v>1.028988490521828</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050429143606192</v>
+        <v>1.045856104559647</v>
       </c>
       <c r="J5">
-        <v>1.043753028401418</v>
+        <v>1.033939033358336</v>
       </c>
       <c r="K5">
-        <v>1.04629473154638</v>
+        <v>1.03736696176618</v>
       </c>
       <c r="L5">
-        <v>1.045523546485428</v>
+        <v>1.035317130989839</v>
       </c>
       <c r="M5">
-        <v>1.053241524635818</v>
+        <v>1.038533044642113</v>
       </c>
       <c r="N5">
-        <v>1.045235277421894</v>
+        <v>1.03540734538017</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025738636287876</v>
+        <v>1.015542713873161</v>
       </c>
       <c r="D6">
-        <v>1.03708167585904</v>
+        <v>1.027933652276199</v>
       </c>
       <c r="E6">
-        <v>1.036336497870487</v>
+        <v>1.025898236970865</v>
       </c>
       <c r="F6">
-        <v>1.044159644131771</v>
+        <v>1.029193988640248</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050530306494439</v>
+        <v>1.045901040182044</v>
       </c>
       <c r="J6">
-        <v>1.043994606556538</v>
+        <v>1.034037707357794</v>
       </c>
       <c r="K6">
-        <v>1.046502417249198</v>
+        <v>1.037453446562416</v>
       </c>
       <c r="L6">
-        <v>1.04576522772679</v>
+        <v>1.035440365428199</v>
       </c>
       <c r="M6">
-        <v>1.053505203468295</v>
+        <v>1.038700007894381</v>
       </c>
       <c r="N6">
-        <v>1.045477198645703</v>
+        <v>1.035506159508025</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023510146614623</v>
+        <v>1.014318375613885</v>
       </c>
       <c r="D7">
-        <v>1.035380393191931</v>
+        <v>1.02707720598915</v>
       </c>
       <c r="E7">
-        <v>1.034397856877056</v>
+        <v>1.024784967300727</v>
       </c>
       <c r="F7">
-        <v>1.042070450329463</v>
+        <v>1.027777102084187</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049830327457022</v>
+        <v>1.0455903629444</v>
       </c>
       <c r="J7">
-        <v>1.042325119736639</v>
+        <v>1.033356815141123</v>
       </c>
       <c r="K7">
-        <v>1.045066902458805</v>
+        <v>1.036856562214724</v>
       </c>
       <c r="L7">
-        <v>1.044095257313961</v>
+        <v>1.034590282242767</v>
       </c>
       <c r="M7">
-        <v>1.051683472267881</v>
+        <v>1.03754856068738</v>
       </c>
       <c r="N7">
-        <v>1.043805340963027</v>
+        <v>1.034824300346307</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013917717631535</v>
+        <v>1.009102476300637</v>
       </c>
       <c r="D8">
-        <v>1.028060935030923</v>
+        <v>1.023434145315787</v>
       </c>
       <c r="E8">
-        <v>1.026065574218246</v>
+        <v>1.020053134245489</v>
       </c>
       <c r="F8">
-        <v>1.033094802262107</v>
+        <v>1.02175616102539</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046791727800619</v>
+        <v>1.044248962624545</v>
       </c>
       <c r="J8">
-        <v>1.035129757909711</v>
+        <v>1.030449890144918</v>
       </c>
       <c r="K8">
-        <v>1.038873758937024</v>
+        <v>1.034305773345224</v>
       </c>
       <c r="L8">
-        <v>1.036903676923927</v>
+        <v>1.030968155071111</v>
       </c>
       <c r="M8">
-        <v>1.043844394033426</v>
+        <v>1.032649279876706</v>
       </c>
       <c r="N8">
-        <v>1.036599760896985</v>
+        <v>1.031913247183178</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9958325899779944</v>
+        <v>0.9995143541473009</v>
       </c>
       <c r="D9">
-        <v>1.014283405548026</v>
+        <v>1.016761720622413</v>
       </c>
       <c r="E9">
-        <v>1.010411549670291</v>
+        <v>1.01139798343676</v>
       </c>
       <c r="F9">
-        <v>1.016245935281617</v>
+        <v>1.010745706368646</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040968199218039</v>
+        <v>1.04171684595825</v>
       </c>
       <c r="J9">
-        <v>1.021533373414877</v>
+        <v>1.025084273484704</v>
       </c>
       <c r="K9">
-        <v>1.027148918404044</v>
+        <v>1.029588580679424</v>
       </c>
       <c r="L9">
-        <v>1.02333793541686</v>
+        <v>1.02430880395135</v>
       </c>
       <c r="M9">
-        <v>1.029080819878488</v>
+        <v>1.023666815001136</v>
       </c>
       <c r="N9">
-        <v>1.022984067976642</v>
+        <v>1.026540010731862</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9828332003892398</v>
+        <v>0.992828812431667</v>
       </c>
       <c r="D10">
-        <v>1.004404295471679</v>
+        <v>1.012128876030556</v>
       </c>
       <c r="E10">
-        <v>0.9992047308816115</v>
+        <v>1.005393589006268</v>
       </c>
       <c r="F10">
-        <v>1.004192643052464</v>
+        <v>1.003106499345338</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036722561341043</v>
+        <v>1.039908476836186</v>
       </c>
       <c r="J10">
-        <v>1.011744873203901</v>
+        <v>1.021329868529718</v>
       </c>
       <c r="K10">
-        <v>1.018694481742446</v>
+        <v>1.026282539424955</v>
       </c>
       <c r="L10">
-        <v>1.013588359019032</v>
+        <v>1.019666138640923</v>
       </c>
       <c r="M10">
-        <v>1.018486608417247</v>
+        <v>1.01741989060131</v>
       </c>
       <c r="N10">
-        <v>1.01318166697261</v>
+        <v>1.022780274091204</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9769418621792242</v>
+        <v>0.9898579306812325</v>
       </c>
       <c r="D11">
-        <v>0.999935056352483</v>
+        <v>1.010075553401983</v>
       </c>
       <c r="E11">
-        <v>0.9941384342959164</v>
+        <v>1.002732992182218</v>
       </c>
       <c r="F11">
-        <v>0.9987456730573747</v>
+        <v>0.9997206787452065</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034785456617959</v>
+        <v>1.039095202392893</v>
       </c>
       <c r="J11">
-        <v>1.007306374574353</v>
+        <v>1.01965880413152</v>
       </c>
       <c r="K11">
-        <v>1.014858197519455</v>
+        <v>1.024809928479455</v>
       </c>
       <c r="L11">
-        <v>1.009171744261806</v>
+        <v>1.017603551663403</v>
       </c>
       <c r="M11">
-        <v>1.013691282977633</v>
+        <v>1.014647864579</v>
       </c>
       <c r="N11">
-        <v>1.008736865165904</v>
+        <v>1.021106836589886</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9747102694461907</v>
+        <v>0.9887424136165963</v>
       </c>
       <c r="D12">
-        <v>0.9982435625549837</v>
+        <v>1.009305439713671</v>
       </c>
       <c r="E12">
-        <v>0.9922214476291344</v>
+        <v>1.001735154387569</v>
       </c>
       <c r="F12">
-        <v>0.9966849351864088</v>
+        <v>0.9984506712305714</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034049863491453</v>
+        <v>1.038788417599002</v>
       </c>
       <c r="J12">
-        <v>1.005624886198049</v>
+        <v>1.019030976339286</v>
       </c>
       <c r="K12">
-        <v>1.013404490676203</v>
+        <v>1.024256507571594</v>
       </c>
       <c r="L12">
-        <v>1.007499205301805</v>
+        <v>1.016829186908784</v>
       </c>
       <c r="M12">
-        <v>1.011875923391876</v>
+        <v>1.013607614251567</v>
       </c>
       <c r="N12">
-        <v>1.007052988883237</v>
+        <v>1.020478117210174</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9751909799789229</v>
+        <v>0.9889822485543807</v>
       </c>
       <c r="D13">
-        <v>0.998607861804587</v>
+        <v>1.009470972697681</v>
       </c>
       <c r="E13">
-        <v>0.9926342910295395</v>
+        <v>1.001949634929907</v>
       </c>
       <c r="F13">
-        <v>0.9971287241223904</v>
+        <v>0.9987236624240848</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034208399357486</v>
+        <v>1.038854439198166</v>
       </c>
       <c r="J13">
-        <v>1.005987105626704</v>
+        <v>1.019165974787515</v>
       </c>
       <c r="K13">
-        <v>1.013717657932248</v>
+        <v>1.024375513400417</v>
       </c>
       <c r="L13">
-        <v>1.00785946675224</v>
+        <v>1.016995669370033</v>
       </c>
       <c r="M13">
-        <v>1.012266921178423</v>
+        <v>1.013831239711428</v>
       </c>
       <c r="N13">
-        <v>1.007415722705028</v>
+        <v>1.020613307371685</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9767583051769998</v>
+        <v>0.9897659699682878</v>
       </c>
       <c r="D14">
-        <v>0.9997958944321673</v>
+        <v>1.010012048791319</v>
       </c>
       <c r="E14">
-        <v>0.9939807113863347</v>
+        <v>1.002650708665764</v>
       </c>
       <c r="F14">
-        <v>0.9985761170314248</v>
+        <v>0.9996159556068359</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034724987727688</v>
+        <v>1.039069940246649</v>
       </c>
       <c r="J14">
-        <v>1.007168069398519</v>
+        <v>1.019607054750336</v>
       </c>
       <c r="K14">
-        <v>1.014738634827566</v>
+        <v>1.024764315198128</v>
       </c>
       <c r="L14">
-        <v>1.009034161691365</v>
+        <v>1.017539712523596</v>
       </c>
       <c r="M14">
-        <v>1.013541939934733</v>
+        <v>1.014562096452788</v>
       </c>
       <c r="N14">
-        <v>1.008598363580857</v>
+        <v>1.021055013718645</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9777181260703869</v>
+        <v>0.9902472385541879</v>
       </c>
       <c r="D15">
-        <v>1.000523632134549</v>
+        <v>1.01034443085425</v>
       </c>
       <c r="E15">
-        <v>0.9948055315679007</v>
+        <v>1.003081380455429</v>
       </c>
       <c r="F15">
-        <v>0.9994628307520752</v>
+        <v>1.000164068669086</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035041106244516</v>
+        <v>1.039202090149169</v>
       </c>
       <c r="J15">
-        <v>1.007891260050797</v>
+        <v>1.019877865844132</v>
       </c>
       <c r="K15">
-        <v>1.015363807543399</v>
+        <v>1.025003009140836</v>
       </c>
       <c r="L15">
-        <v>1.009753600788552</v>
+        <v>1.017873813599831</v>
       </c>
       <c r="M15">
-        <v>1.014322900425447</v>
+        <v>1.015010981156307</v>
       </c>
       <c r="N15">
-        <v>1.009322581246813</v>
+        <v>1.021326209395258</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9832183413130712</v>
+        <v>0.9930243300836786</v>
       </c>
       <c r="D16">
-        <v>1.004696650940459</v>
+        <v>1.012264125784281</v>
       </c>
       <c r="E16">
-        <v>0.9995362121827397</v>
+        <v>1.005568847429641</v>
       </c>
       <c r="F16">
-        <v>1.004549071664147</v>
+        <v>1.003329507720907</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036848938941908</v>
+        <v>1.039961801042645</v>
       </c>
       <c r="J16">
-        <v>1.012034998370962</v>
+        <v>1.021439790077011</v>
       </c>
       <c r="K16">
-        <v>1.018945190467967</v>
+        <v>1.026379384835611</v>
       </c>
       <c r="L16">
-        <v>1.013877143129463</v>
+        <v>1.019801892883874</v>
       </c>
       <c r="M16">
-        <v>1.018800236307522</v>
+        <v>1.017602404145557</v>
       </c>
       <c r="N16">
-        <v>1.013472204150685</v>
+        <v>1.022890351739701</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9865956378818886</v>
+        <v>0.994745580367433</v>
       </c>
       <c r="D17">
-        <v>1.007261236923376</v>
+        <v>1.01345542663327</v>
       </c>
       <c r="E17">
-        <v>1.002444414080996</v>
+        <v>1.007112614200786</v>
       </c>
       <c r="F17">
-        <v>1.007676368898974</v>
+        <v>1.005293780086081</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037955692430272</v>
+        <v>1.04043014516669</v>
       </c>
       <c r="J17">
-        <v>1.014578853301378</v>
+        <v>1.022407186490177</v>
       </c>
       <c r="K17">
-        <v>1.021143137028315</v>
+        <v>1.027231576098232</v>
       </c>
       <c r="L17">
-        <v>1.016409719182271</v>
+        <v>1.020997072337391</v>
       </c>
       <c r="M17">
-        <v>1.021551129094998</v>
+        <v>1.019209622488157</v>
       </c>
       <c r="N17">
-        <v>1.016019671646887</v>
+        <v>1.023859121966737</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9885405141385603</v>
+        <v>0.9957422650000909</v>
       </c>
       <c r="D18">
-        <v>1.008738833512186</v>
+        <v>1.014145753713452</v>
       </c>
       <c r="E18">
-        <v>1.004120327823848</v>
+        <v>1.008007247572613</v>
       </c>
       <c r="F18">
-        <v>1.009478729284834</v>
+        <v>1.006432027379316</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038591809827708</v>
+        <v>1.040700415781144</v>
       </c>
       <c r="J18">
-        <v>1.01604354855913</v>
+        <v>1.022967095083659</v>
       </c>
       <c r="K18">
-        <v>1.022408409165783</v>
+        <v>1.027724700040274</v>
       </c>
       <c r="L18">
-        <v>1.017868316053755</v>
+        <v>1.02168918222617</v>
       </c>
       <c r="M18">
-        <v>1.023135829056383</v>
+        <v>1.020140651651514</v>
       </c>
       <c r="N18">
-        <v>1.017486446939908</v>
+        <v>1.024419825694643</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9891995275106409</v>
+        <v>0.9960808889877418</v>
       </c>
       <c r="D19">
-        <v>1.009239629528359</v>
+        <v>1.014380376888397</v>
       </c>
       <c r="E19">
-        <v>1.004688398322576</v>
+        <v>1.008311320852779</v>
       </c>
       <c r="F19">
-        <v>1.010089692607416</v>
+        <v>1.006818890559099</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038807144349824</v>
+        <v>1.040792082628745</v>
       </c>
       <c r="J19">
-        <v>1.016539812103427</v>
+        <v>1.023157279219629</v>
       </c>
       <c r="K19">
-        <v>1.022837060006158</v>
+        <v>1.027892180993247</v>
       </c>
       <c r="L19">
-        <v>1.018362579868824</v>
+        <v>1.021924333617523</v>
       </c>
       <c r="M19">
-        <v>1.023672886579204</v>
+        <v>1.020457032469987</v>
       </c>
       <c r="N19">
-        <v>1.017983415235359</v>
+        <v>1.024610279913901</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.986235902487521</v>
+        <v>0.9945616647843405</v>
       </c>
       <c r="D20">
-        <v>1.0069879902506</v>
+        <v>1.013328082996337</v>
       </c>
       <c r="E20">
-        <v>1.002134521393726</v>
+        <v>1.006947587833308</v>
       </c>
       <c r="F20">
-        <v>1.007343110328395</v>
+        <v>1.005083810428532</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037837932393437</v>
+        <v>1.040380198009151</v>
       </c>
       <c r="J20">
-        <v>1.014307915500231</v>
+        <v>1.022303846835298</v>
       </c>
       <c r="K20">
-        <v>1.020909067208643</v>
+        <v>1.027140553876028</v>
       </c>
       <c r="L20">
-        <v>1.016139941369544</v>
+        <v>1.020869362558987</v>
       </c>
       <c r="M20">
-        <v>1.021258057319877</v>
+        <v>1.019037852336957</v>
       </c>
       <c r="N20">
-        <v>1.015748349082985</v>
+        <v>1.023755635557694</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9762979954211135</v>
+        <v>0.9895355196421961</v>
       </c>
       <c r="D21">
-        <v>0.9994469387574798</v>
+        <v>1.00985292278524</v>
       </c>
       <c r="E21">
-        <v>0.993585220549106</v>
+        <v>1.002444528051522</v>
       </c>
       <c r="F21">
-        <v>0.9981509591991721</v>
+        <v>0.999353544174667</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034573319569479</v>
+        <v>1.039006611557322</v>
       </c>
       <c r="J21">
-        <v>1.006821235538885</v>
+        <v>1.019477366763993</v>
       </c>
       <c r="K21">
-        <v>1.014438796634666</v>
+        <v>1.024650002337113</v>
       </c>
       <c r="L21">
-        <v>1.008689150615655</v>
+        <v>1.017379735627246</v>
       </c>
       <c r="M21">
-        <v>1.013167447105127</v>
+        <v>1.014347174218645</v>
       </c>
       <c r="N21">
-        <v>1.00825103717736</v>
+        <v>1.020925141560486</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9697968864114332</v>
+        <v>0.9863056428383704</v>
       </c>
       <c r="D22">
-        <v>0.9945222201428671</v>
+        <v>1.007624861053068</v>
       </c>
       <c r="E22">
-        <v>0.988004823005969</v>
+        <v>0.9995576357296698</v>
       </c>
       <c r="F22">
-        <v>0.9921526318626176</v>
+        <v>0.9956788195259706</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032427037504721</v>
+        <v>1.038115715153666</v>
       </c>
       <c r="J22">
-        <v>1.001922442827552</v>
+        <v>1.0176588884127</v>
       </c>
       <c r="K22">
-        <v>1.010202979604451</v>
+        <v>1.023046766312613</v>
       </c>
       <c r="L22">
-        <v>1.003817711660234</v>
+        <v>1.015137861039151</v>
       </c>
       <c r="M22">
-        <v>1.0078811662088</v>
+        <v>1.011336368647842</v>
       </c>
       <c r="N22">
-        <v>1.003345287618478</v>
+        <v>1.019104080761352</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9732686313814857</v>
+        <v>0.9880246762150275</v>
       </c>
       <c r="D23">
-        <v>0.9971512651117426</v>
+        <v>1.008810193967062</v>
       </c>
       <c r="E23">
-        <v>0.9909836628138664</v>
+        <v>1.001093467548525</v>
       </c>
       <c r="F23">
-        <v>0.9953544109380069</v>
+        <v>0.9976339003644739</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033574159636897</v>
+        <v>1.038590635405391</v>
       </c>
       <c r="J23">
-        <v>1.004538578559354</v>
+        <v>1.018626924320464</v>
       </c>
       <c r="K23">
-        <v>1.012465242565412</v>
+        <v>1.023900300295965</v>
       </c>
       <c r="L23">
-        <v>1.006418868221659</v>
+        <v>1.016330983669895</v>
       </c>
       <c r="M23">
-        <v>1.010703503134661</v>
+        <v>1.012938474254293</v>
       </c>
       <c r="N23">
-        <v>1.005965138563094</v>
+        <v>1.02007349139114</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9863985285352161</v>
+        <v>0.9946447908107164</v>
       </c>
       <c r="D24">
-        <v>1.007111514964483</v>
+        <v>1.013385638107336</v>
       </c>
       <c r="E24">
-        <v>1.002274611350153</v>
+        <v>1.007022174096676</v>
       </c>
       <c r="F24">
-        <v>1.00749376247052</v>
+        <v>1.00517870974614</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037891172144965</v>
+        <v>1.040402775950658</v>
       </c>
       <c r="J24">
-        <v>1.014430399425001</v>
+        <v>1.022350555020935</v>
       </c>
       <c r="K24">
-        <v>1.021014884879996</v>
+        <v>1.027181695072376</v>
       </c>
       <c r="L24">
-        <v>1.016261899665783</v>
+        <v>1.02092708459106</v>
       </c>
       <c r="M24">
-        <v>1.021390544964048</v>
+        <v>1.019115487720245</v>
       </c>
       <c r="N24">
-        <v>1.015871006948977</v>
+        <v>1.023802410074312</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000662293824494</v>
+        <v>1.002042798279634</v>
       </c>
       <c r="D25">
-        <v>1.017959339985812</v>
+        <v>1.01851811679242</v>
       </c>
       <c r="E25">
-        <v>1.014584917596591</v>
+        <v>1.013675220505697</v>
       </c>
       <c r="F25">
-        <v>1.020736290622497</v>
+        <v>1.013642592378347</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04253391441273</v>
+        <v>1.042392116776735</v>
       </c>
       <c r="J25">
-        <v>1.025167389678898</v>
+        <v>1.026501609147427</v>
       </c>
       <c r="K25">
-        <v>1.030285113675143</v>
+        <v>1.030835606712745</v>
       </c>
       <c r="L25">
-        <v>1.0269609632379</v>
+        <v>1.026064891653587</v>
       </c>
       <c r="M25">
-        <v>1.033021010127565</v>
+        <v>1.026032752810791</v>
       </c>
       <c r="N25">
-        <v>1.026623244960586</v>
+        <v>1.027959359173796</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007733666082572</v>
+        <v>1.034288629020576</v>
       </c>
       <c r="D2">
-        <v>1.022479616168845</v>
+        <v>1.036445064899648</v>
       </c>
       <c r="E2">
-        <v>1.018814184753943</v>
+        <v>1.04308523591621</v>
       </c>
       <c r="F2">
-        <v>1.020179948165604</v>
+        <v>1.053144062657496</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043892447701869</v>
+        <v>1.036169870978543</v>
       </c>
       <c r="J2">
-        <v>1.029685499627631</v>
+        <v>1.039408692253994</v>
       </c>
       <c r="K2">
-        <v>1.033634411636261</v>
+        <v>1.039238786654378</v>
       </c>
       <c r="L2">
-        <v>1.030017485929795</v>
+        <v>1.045860096804635</v>
       </c>
       <c r="M2">
-        <v>1.031365124683323</v>
+        <v>1.055890843412746</v>
       </c>
       <c r="N2">
-        <v>1.031147771143681</v>
+        <v>1.040884771818838</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011752924245407</v>
+        <v>1.035140055680802</v>
       </c>
       <c r="D3">
-        <v>1.02528422333794</v>
+        <v>1.037058555438295</v>
       </c>
       <c r="E3">
-        <v>1.02245543620899</v>
+        <v>1.043915656225188</v>
       </c>
       <c r="F3">
-        <v>1.024812688255704</v>
+        <v>1.054223695634863</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04493409370679</v>
+        <v>1.036342862173903</v>
       </c>
       <c r="J3">
-        <v>1.031928240877809</v>
+        <v>1.03990368429834</v>
       </c>
       <c r="K3">
-        <v>1.035603494626487</v>
+        <v>1.039662400553162</v>
       </c>
       <c r="L3">
-        <v>1.032808836741869</v>
+        <v>1.046501429441061</v>
       </c>
       <c r="M3">
-        <v>1.035137632361285</v>
+        <v>1.056782779266757</v>
       </c>
       <c r="N3">
-        <v>1.033393697343679</v>
+        <v>1.041380466808664</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014304153023465</v>
+        <v>1.03569147886536</v>
       </c>
       <c r="D4">
-        <v>1.027067259907022</v>
+        <v>1.03745589218931</v>
       </c>
       <c r="E4">
-        <v>1.02477204079012</v>
+        <v>1.044453875785342</v>
       </c>
       <c r="F4">
-        <v>1.027760651053306</v>
+        <v>1.054923705310342</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045586744167181</v>
+        <v>1.036453829170416</v>
       </c>
       <c r="J4">
-        <v>1.033348902077549</v>
+        <v>1.040223814536006</v>
       </c>
       <c r="K4">
-        <v>1.03684962406198</v>
+        <v>1.039936180652066</v>
       </c>
       <c r="L4">
-        <v>1.03458040680758</v>
+        <v>1.046916647824395</v>
       </c>
       <c r="M4">
-        <v>1.037535188128388</v>
+        <v>1.057360737396848</v>
       </c>
       <c r="N4">
-        <v>1.034816376045275</v>
+        <v>1.041701051667987</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01536521831728</v>
+        <v>1.035923413868025</v>
       </c>
       <c r="D5">
-        <v>1.027809460791093</v>
+        <v>1.03762301893842</v>
       </c>
       <c r="E5">
-        <v>1.025736781359688</v>
+        <v>1.04468035298415</v>
       </c>
       <c r="F5">
-        <v>1.028988490521828</v>
+        <v>1.055218326777118</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045856104559647</v>
+        <v>1.036500246909858</v>
       </c>
       <c r="J5">
-        <v>1.033939033358336</v>
+        <v>1.040358357255754</v>
       </c>
       <c r="K5">
-        <v>1.03736696176618</v>
+        <v>1.040051198590457</v>
       </c>
       <c r="L5">
-        <v>1.035317130989839</v>
+        <v>1.047091260304403</v>
       </c>
       <c r="M5">
-        <v>1.038533044642113</v>
+        <v>1.057603905077824</v>
       </c>
       <c r="N5">
-        <v>1.03540734538017</v>
+        <v>1.041835785453829</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015542713873161</v>
+        <v>1.035962363578666</v>
       </c>
       <c r="D6">
-        <v>1.027933652276199</v>
+        <v>1.037651085274752</v>
       </c>
       <c r="E6">
-        <v>1.025898236970865</v>
+        <v>1.044718391756086</v>
       </c>
       <c r="F6">
-        <v>1.029193988640248</v>
+        <v>1.05526781476416</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045901040182044</v>
+        <v>1.036508026984593</v>
       </c>
       <c r="J6">
-        <v>1.034037707357794</v>
+        <v>1.040380945191595</v>
       </c>
       <c r="K6">
-        <v>1.037453446562416</v>
+        <v>1.040070505932114</v>
       </c>
       <c r="L6">
-        <v>1.035440365428199</v>
+        <v>1.047120581679938</v>
       </c>
       <c r="M6">
-        <v>1.038700007894381</v>
+        <v>1.057644745345851</v>
       </c>
       <c r="N6">
-        <v>1.035506159508025</v>
+        <v>1.041858405467129</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014318375613885</v>
+        <v>1.035694577535401</v>
       </c>
       <c r="D7">
-        <v>1.02707720598915</v>
+        <v>1.037458125007669</v>
       </c>
       <c r="E7">
-        <v>1.024784967300727</v>
+        <v>1.044456901162648</v>
       </c>
       <c r="F7">
-        <v>1.027777102084187</v>
+        <v>1.054927640732724</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0455903629444</v>
+        <v>1.036454450321952</v>
       </c>
       <c r="J7">
-        <v>1.033356815141123</v>
+        <v>1.040225612461061</v>
       </c>
       <c r="K7">
-        <v>1.036856562214724</v>
+        <v>1.03993771783999</v>
       </c>
       <c r="L7">
-        <v>1.034590282242767</v>
+        <v>1.046918980791549</v>
       </c>
       <c r="M7">
-        <v>1.03754856068738</v>
+        <v>1.057363985854269</v>
       </c>
       <c r="N7">
-        <v>1.034824300346307</v>
+        <v>1.041702852146301</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009102476300637</v>
+        <v>1.034576269696624</v>
       </c>
       <c r="D8">
-        <v>1.023434145315787</v>
+        <v>1.036652319896812</v>
       </c>
       <c r="E8">
-        <v>1.020053134245489</v>
+        <v>1.043365696815078</v>
       </c>
       <c r="F8">
-        <v>1.02175616102539</v>
+        <v>1.053508635894619</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044248962624545</v>
+        <v>1.036228534623031</v>
       </c>
       <c r="J8">
-        <v>1.030449890144918</v>
+        <v>1.039576010175473</v>
       </c>
       <c r="K8">
-        <v>1.034305773345224</v>
+        <v>1.039382015899002</v>
       </c>
       <c r="L8">
-        <v>1.030968155071111</v>
+        <v>1.046076789160914</v>
       </c>
       <c r="M8">
-        <v>1.032649279876706</v>
+        <v>1.05619210759146</v>
       </c>
       <c r="N8">
-        <v>1.031913247183178</v>
+        <v>1.041052327350957</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9995143541473009</v>
+        <v>1.032609506711689</v>
       </c>
       <c r="D9">
-        <v>1.016761720622413</v>
+        <v>1.035235270933924</v>
       </c>
       <c r="E9">
-        <v>1.01139798343676</v>
+        <v>1.041449676515718</v>
       </c>
       <c r="F9">
-        <v>1.010745706368646</v>
+        <v>1.05101906430851</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04171684595825</v>
+        <v>1.035823040615376</v>
       </c>
       <c r="J9">
-        <v>1.025084273484704</v>
+        <v>1.038430129425247</v>
       </c>
       <c r="K9">
-        <v>1.029588580679424</v>
+        <v>1.038400345375856</v>
       </c>
       <c r="L9">
-        <v>1.02430880395135</v>
+        <v>1.04459457863442</v>
       </c>
       <c r="M9">
-        <v>1.023666815001136</v>
+        <v>1.054133413975326</v>
       </c>
       <c r="N9">
-        <v>1.026540010731862</v>
+        <v>1.039904819318632</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.992828812431667</v>
+        <v>1.031300993699358</v>
       </c>
       <c r="D10">
-        <v>1.012128876030556</v>
+        <v>1.034292602869719</v>
       </c>
       <c r="E10">
-        <v>1.005393589006268</v>
+        <v>1.040177003667018</v>
       </c>
       <c r="F10">
-        <v>1.003106499345338</v>
+        <v>1.049366755318007</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039908476836186</v>
+        <v>1.035547770299876</v>
       </c>
       <c r="J10">
-        <v>1.021329868529718</v>
+        <v>1.037665467121572</v>
       </c>
       <c r="K10">
-        <v>1.026282539424955</v>
+        <v>1.037744312885033</v>
       </c>
       <c r="L10">
-        <v>1.019666138640923</v>
+        <v>1.043607744383338</v>
       </c>
       <c r="M10">
-        <v>1.01741989060131</v>
+        <v>1.052765266132811</v>
       </c>
       <c r="N10">
-        <v>1.022780274091204</v>
+        <v>1.039139071106777</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9898579306812325</v>
+        <v>1.030735041617805</v>
       </c>
       <c r="D11">
-        <v>1.010075553401983</v>
+        <v>1.033884918604616</v>
       </c>
       <c r="E11">
-        <v>1.002732992182218</v>
+        <v>1.039627049302413</v>
       </c>
       <c r="F11">
-        <v>0.9997206787452065</v>
+        <v>1.048653060239072</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039095202392893</v>
+        <v>1.035427410718434</v>
       </c>
       <c r="J11">
-        <v>1.01965880413152</v>
+        <v>1.037334197368416</v>
       </c>
       <c r="K11">
-        <v>1.024809928479455</v>
+        <v>1.037459880869673</v>
       </c>
       <c r="L11">
-        <v>1.017603551663403</v>
+        <v>1.043180758657839</v>
       </c>
       <c r="M11">
-        <v>1.014647864579</v>
+        <v>1.052173881994815</v>
       </c>
       <c r="N11">
-        <v>1.021106836589886</v>
+        <v>1.038807330912575</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9887424136165963</v>
+        <v>1.030524919720326</v>
       </c>
       <c r="D12">
-        <v>1.009305439713671</v>
+        <v>1.033733562801622</v>
       </c>
       <c r="E12">
-        <v>1.001735154387569</v>
+        <v>1.039422941713218</v>
       </c>
       <c r="F12">
-        <v>0.9984506712305714</v>
+        <v>1.04838822867758</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038788417599002</v>
+        <v>1.035382529254765</v>
       </c>
       <c r="J12">
-        <v>1.019030976339286</v>
+        <v>1.037211125167753</v>
       </c>
       <c r="K12">
-        <v>1.024256507571594</v>
+        <v>1.037354176286983</v>
       </c>
       <c r="L12">
-        <v>1.016829186908784</v>
+        <v>1.043022206386995</v>
       </c>
       <c r="M12">
-        <v>1.013607614251567</v>
+        <v>1.0519543720122</v>
       </c>
       <c r="N12">
-        <v>1.020478117210174</v>
+        <v>1.03868408393527</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9889822485543807</v>
+        <v>1.030569987128535</v>
       </c>
       <c r="D13">
-        <v>1.009470972697681</v>
+        <v>1.033766025657703</v>
       </c>
       <c r="E13">
-        <v>1.001949634929907</v>
+        <v>1.03946671576974</v>
       </c>
       <c r="F13">
-        <v>0.9987236624240848</v>
+        <v>1.048445023862743</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038854439198166</v>
+        <v>1.035392164370777</v>
       </c>
       <c r="J13">
-        <v>1.019165974787515</v>
+        <v>1.037237525635391</v>
       </c>
       <c r="K13">
-        <v>1.024375513400417</v>
+        <v>1.037376852699369</v>
       </c>
       <c r="L13">
-        <v>1.016995669370033</v>
+        <v>1.043056214140482</v>
       </c>
       <c r="M13">
-        <v>1.013831239711428</v>
+        <v>1.052001450550506</v>
       </c>
       <c r="N13">
-        <v>1.020613307371685</v>
+        <v>1.0387105218946</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9897659699682878</v>
+        <v>1.030717670871174</v>
       </c>
       <c r="D14">
-        <v>1.010012048791319</v>
+        <v>1.033872405921386</v>
       </c>
       <c r="E14">
-        <v>1.002650708665764</v>
+        <v>1.039610174229986</v>
       </c>
       <c r="F14">
-        <v>0.9996159556068359</v>
+        <v>1.048631163734111</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039069940246649</v>
+        <v>1.035423704360177</v>
       </c>
       <c r="J14">
-        <v>1.019607054750336</v>
+        <v>1.037324024662585</v>
       </c>
       <c r="K14">
-        <v>1.024764315198128</v>
+        <v>1.037451144388637</v>
       </c>
       <c r="L14">
-        <v>1.017539712523596</v>
+        <v>1.043167651666487</v>
       </c>
       <c r="M14">
-        <v>1.014562096452788</v>
+        <v>1.05215573403314</v>
       </c>
       <c r="N14">
-        <v>1.021055013718645</v>
+        <v>1.038797143760334</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9902472385541879</v>
+        <v>1.030808676712904</v>
       </c>
       <c r="D15">
-        <v>1.01034443085425</v>
+        <v>1.033937960468658</v>
       </c>
       <c r="E15">
-        <v>1.003081380455429</v>
+        <v>1.039698586286034</v>
       </c>
       <c r="F15">
-        <v>1.000164068669086</v>
+        <v>1.04874588601423</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039202090149169</v>
+        <v>1.035443114075601</v>
       </c>
       <c r="J15">
-        <v>1.019877865844132</v>
+        <v>1.037377316437647</v>
       </c>
       <c r="K15">
-        <v>1.025003009140836</v>
+        <v>1.037496910844095</v>
       </c>
       <c r="L15">
-        <v>1.017873813599831</v>
+        <v>1.043236318563573</v>
       </c>
       <c r="M15">
-        <v>1.015010981156307</v>
+        <v>1.052250813942678</v>
       </c>
       <c r="N15">
-        <v>1.021326209395258</v>
+        <v>1.038850511215831</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9930243300836786</v>
+        <v>1.031338567730758</v>
       </c>
       <c r="D16">
-        <v>1.012264125784281</v>
+        <v>1.03431967014285</v>
       </c>
       <c r="E16">
-        <v>1.005568847429641</v>
+        <v>1.040213526078895</v>
       </c>
       <c r="F16">
-        <v>1.003329507720907</v>
+        <v>1.049414158220597</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039961801042645</v>
+        <v>1.035555733658008</v>
       </c>
       <c r="J16">
-        <v>1.021439790077011</v>
+        <v>1.037687448998964</v>
       </c>
       <c r="K16">
-        <v>1.026379384835611</v>
+        <v>1.03776318208864</v>
       </c>
       <c r="L16">
-        <v>1.019801892883874</v>
+        <v>1.043636088861067</v>
       </c>
       <c r="M16">
-        <v>1.017602404145557</v>
+        <v>1.052804536217834</v>
       </c>
       <c r="N16">
-        <v>1.022890351739701</v>
+        <v>1.039161084200957</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.994745580367433</v>
+        <v>1.031671127382851</v>
       </c>
       <c r="D17">
-        <v>1.01345542663327</v>
+        <v>1.034559240776477</v>
       </c>
       <c r="E17">
-        <v>1.007112614200786</v>
+        <v>1.040536835471134</v>
       </c>
       <c r="F17">
-        <v>1.005293780086081</v>
+        <v>1.049833821344713</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04043014516669</v>
+        <v>1.035626065259508</v>
       </c>
       <c r="J17">
-        <v>1.022407186490177</v>
+        <v>1.037881943288068</v>
       </c>
       <c r="K17">
-        <v>1.027231576098232</v>
+        <v>1.037930109868924</v>
       </c>
       <c r="L17">
-        <v>1.020997072337391</v>
+        <v>1.043886940702875</v>
       </c>
       <c r="M17">
-        <v>1.019209622488157</v>
+        <v>1.05315214898059</v>
       </c>
       <c r="N17">
-        <v>1.023859121966737</v>
+        <v>1.03935585469426</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9957422650000909</v>
+        <v>1.031865165720871</v>
       </c>
       <c r="D18">
-        <v>1.014145753713452</v>
+        <v>1.034699026143082</v>
       </c>
       <c r="E18">
-        <v>1.008007247572613</v>
+        <v>1.040725524467335</v>
       </c>
       <c r="F18">
-        <v>1.006432027379316</v>
+        <v>1.050078774013565</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040700415781144</v>
+        <v>1.035666975978831</v>
       </c>
       <c r="J18">
-        <v>1.022967095083659</v>
+        <v>1.037995372435052</v>
       </c>
       <c r="K18">
-        <v>1.027724700040274</v>
+        <v>1.038027440670912</v>
       </c>
       <c r="L18">
-        <v>1.02168918222617</v>
+        <v>1.044033289137217</v>
       </c>
       <c r="M18">
-        <v>1.020140651651514</v>
+        <v>1.053355005201323</v>
       </c>
       <c r="N18">
-        <v>1.024419825694643</v>
+        <v>1.039469444923643</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9960808889877418</v>
+        <v>1.03193133824139</v>
       </c>
       <c r="D19">
-        <v>1.014380376888397</v>
+        <v>1.034746697411995</v>
       </c>
       <c r="E19">
-        <v>1.008311320852779</v>
+        <v>1.040789880829297</v>
       </c>
       <c r="F19">
-        <v>1.006818890559099</v>
+        <v>1.050162325384446</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040792082628745</v>
+        <v>1.035680906374969</v>
       </c>
       <c r="J19">
-        <v>1.023157279219629</v>
+        <v>1.038034046082874</v>
       </c>
       <c r="K19">
-        <v>1.027892180993247</v>
+        <v>1.038060621931189</v>
       </c>
       <c r="L19">
-        <v>1.021924333617523</v>
+        <v>1.044083195360147</v>
       </c>
       <c r="M19">
-        <v>1.020457032469987</v>
+        <v>1.053424190782867</v>
       </c>
       <c r="N19">
-        <v>1.024610279913901</v>
+        <v>1.039508173492481</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9945616647843405</v>
+        <v>1.031635440465136</v>
       </c>
       <c r="D20">
-        <v>1.013328082996337</v>
+        <v>1.034533532151998</v>
       </c>
       <c r="E20">
-        <v>1.006947587833308</v>
+        <v>1.040502136241417</v>
       </c>
       <c r="F20">
-        <v>1.005083810428532</v>
+        <v>1.049788777842025</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040380198009151</v>
+        <v>1.035618530977936</v>
       </c>
       <c r="J20">
-        <v>1.022303846835298</v>
+        <v>1.037861077547193</v>
       </c>
       <c r="K20">
-        <v>1.027140553876028</v>
+        <v>1.037912203746434</v>
       </c>
       <c r="L20">
-        <v>1.020869362558987</v>
+        <v>1.043860023480209</v>
       </c>
       <c r="M20">
-        <v>1.019037852336957</v>
+        <v>1.053114843112236</v>
       </c>
       <c r="N20">
-        <v>1.023755635557694</v>
+        <v>1.03933495932164</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9895355196421961</v>
+        <v>1.030674178976394</v>
       </c>
       <c r="D21">
-        <v>1.00985292278524</v>
+        <v>1.033841077466647</v>
       </c>
       <c r="E21">
-        <v>1.002444528051522</v>
+        <v>1.039567924585792</v>
       </c>
       <c r="F21">
-        <v>0.999353544174667</v>
+        <v>1.04857634281232</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039006611557322</v>
+        <v>1.035414421433348</v>
       </c>
       <c r="J21">
-        <v>1.019477366763993</v>
+        <v>1.037298553505231</v>
       </c>
       <c r="K21">
-        <v>1.024650002337113</v>
+        <v>1.037429268816304</v>
       </c>
       <c r="L21">
-        <v>1.017379735627246</v>
+        <v>1.043134834724016</v>
       </c>
       <c r="M21">
-        <v>1.014347174218645</v>
+        <v>1.052110297065084</v>
       </c>
       <c r="N21">
-        <v>1.020925141560486</v>
+        <v>1.038771636431016</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9863056428383704</v>
+        <v>1.030070362842398</v>
       </c>
       <c r="D22">
-        <v>1.007624861053068</v>
+        <v>1.033406145866963</v>
       </c>
       <c r="E22">
-        <v>0.9995576357296698</v>
+        <v>1.038981532640165</v>
       </c>
       <c r="F22">
-        <v>0.9956788195259706</v>
+        <v>1.047815579718679</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038115715153666</v>
+        <v>1.035285080022304</v>
       </c>
       <c r="J22">
-        <v>1.0176588884127</v>
+        <v>1.036944734768513</v>
       </c>
       <c r="K22">
-        <v>1.023046766312613</v>
+        <v>1.037125317321443</v>
       </c>
       <c r="L22">
-        <v>1.015137861039151</v>
+        <v>1.042679165228955</v>
       </c>
       <c r="M22">
-        <v>1.011336368647842</v>
+        <v>1.051479604694148</v>
       </c>
       <c r="N22">
-        <v>1.019104080761352</v>
+        <v>1.038417315231108</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9880246762150275</v>
+        <v>1.030390402992304</v>
       </c>
       <c r="D23">
-        <v>1.008810193967062</v>
+        <v>1.03363666889912</v>
       </c>
       <c r="E23">
-        <v>1.001093467548525</v>
+        <v>1.039292296340733</v>
       </c>
       <c r="F23">
-        <v>0.9976339003644739</v>
+        <v>1.048218727939622</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038590635405391</v>
+        <v>1.035353741859484</v>
       </c>
       <c r="J23">
-        <v>1.018626924320464</v>
+        <v>1.037132313457194</v>
       </c>
       <c r="K23">
-        <v>1.023900300295965</v>
+        <v>1.03728647689721</v>
       </c>
       <c r="L23">
-        <v>1.016330983669895</v>
+        <v>1.042920696803623</v>
       </c>
       <c r="M23">
-        <v>1.012938474254293</v>
+        <v>1.051813860398973</v>
       </c>
       <c r="N23">
-        <v>1.02007349139114</v>
+        <v>1.038605160303042</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9946447908107164</v>
+        <v>1.031651565655946</v>
       </c>
       <c r="D24">
-        <v>1.013385638107336</v>
+        <v>1.034545148625073</v>
       </c>
       <c r="E24">
-        <v>1.007022174096676</v>
+        <v>1.040517814995877</v>
       </c>
       <c r="F24">
-        <v>1.00517870974614</v>
+        <v>1.049809130536033</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040402775950658</v>
+        <v>1.035621935743182</v>
       </c>
       <c r="J24">
-        <v>1.022350555020935</v>
+        <v>1.037870505927145</v>
       </c>
       <c r="K24">
-        <v>1.027181695072376</v>
+        <v>1.037920294861769</v>
       </c>
       <c r="L24">
-        <v>1.02092708459106</v>
+        <v>1.043872186119452</v>
       </c>
       <c r="M24">
-        <v>1.019115487720245</v>
+        <v>1.053131699720773</v>
       </c>
       <c r="N24">
-        <v>1.023802410074312</v>
+        <v>1.039344401090973</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002042798279634</v>
+        <v>1.03311749882809</v>
       </c>
       <c r="D25">
-        <v>1.01851811679242</v>
+        <v>1.035601260849427</v>
       </c>
       <c r="E25">
-        <v>1.013675220505697</v>
+        <v>1.041944196300682</v>
       </c>
       <c r="F25">
-        <v>1.013642592378347</v>
+        <v>1.051661378820482</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042392116776735</v>
+        <v>1.035928744023307</v>
       </c>
       <c r="J25">
-        <v>1.026501609147427</v>
+        <v>1.038726502505563</v>
       </c>
       <c r="K25">
-        <v>1.030835606712745</v>
+        <v>1.038654414844707</v>
       </c>
       <c r="L25">
-        <v>1.026064891653587</v>
+        <v>1.044977540497086</v>
       </c>
       <c r="M25">
-        <v>1.026032752810791</v>
+        <v>1.054664880661165</v>
       </c>
       <c r="N25">
-        <v>1.027959359173796</v>
+        <v>1.040201613282716</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034288629020576</v>
+        <v>1.007733666082572</v>
       </c>
       <c r="D2">
-        <v>1.036445064899648</v>
+        <v>1.022479616168845</v>
       </c>
       <c r="E2">
-        <v>1.04308523591621</v>
+        <v>1.018814184753944</v>
       </c>
       <c r="F2">
-        <v>1.053144062657496</v>
+        <v>1.020179948165605</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036169870978543</v>
+        <v>1.043892447701869</v>
       </c>
       <c r="J2">
-        <v>1.039408692253994</v>
+        <v>1.029685499627631</v>
       </c>
       <c r="K2">
-        <v>1.039238786654378</v>
+        <v>1.033634411636261</v>
       </c>
       <c r="L2">
-        <v>1.045860096804635</v>
+        <v>1.030017485929796</v>
       </c>
       <c r="M2">
-        <v>1.055890843412746</v>
+        <v>1.031365124683323</v>
       </c>
       <c r="N2">
-        <v>1.040884771818838</v>
+        <v>1.031147771143681</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035140055680802</v>
+        <v>1.011752924245406</v>
       </c>
       <c r="D3">
-        <v>1.037058555438295</v>
+        <v>1.02528422333794</v>
       </c>
       <c r="E3">
-        <v>1.043915656225188</v>
+        <v>1.02245543620899</v>
       </c>
       <c r="F3">
-        <v>1.054223695634863</v>
+        <v>1.024812688255704</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036342862173903</v>
+        <v>1.04493409370679</v>
       </c>
       <c r="J3">
-        <v>1.03990368429834</v>
+        <v>1.031928240877808</v>
       </c>
       <c r="K3">
-        <v>1.039662400553162</v>
+        <v>1.035603494626486</v>
       </c>
       <c r="L3">
-        <v>1.046501429441061</v>
+        <v>1.032808836741869</v>
       </c>
       <c r="M3">
-        <v>1.056782779266757</v>
+        <v>1.035137632361285</v>
       </c>
       <c r="N3">
-        <v>1.041380466808664</v>
+        <v>1.033393697343678</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03569147886536</v>
+        <v>1.014304153023465</v>
       </c>
       <c r="D4">
-        <v>1.03745589218931</v>
+        <v>1.027067259907022</v>
       </c>
       <c r="E4">
-        <v>1.044453875785342</v>
+        <v>1.02477204079012</v>
       </c>
       <c r="F4">
-        <v>1.054923705310342</v>
+        <v>1.027760651053306</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036453829170416</v>
+        <v>1.045586744167181</v>
       </c>
       <c r="J4">
-        <v>1.040223814536006</v>
+        <v>1.033348902077549</v>
       </c>
       <c r="K4">
-        <v>1.039936180652066</v>
+        <v>1.03684962406198</v>
       </c>
       <c r="L4">
-        <v>1.046916647824395</v>
+        <v>1.034580406807581</v>
       </c>
       <c r="M4">
-        <v>1.057360737396848</v>
+        <v>1.037535188128389</v>
       </c>
       <c r="N4">
-        <v>1.041701051667987</v>
+        <v>1.034816376045275</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035923413868025</v>
+        <v>1.01536521831728</v>
       </c>
       <c r="D5">
-        <v>1.03762301893842</v>
+        <v>1.027809460791094</v>
       </c>
       <c r="E5">
-        <v>1.04468035298415</v>
+        <v>1.025736781359688</v>
       </c>
       <c r="F5">
-        <v>1.055218326777118</v>
+        <v>1.028988490521829</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036500246909858</v>
+        <v>1.045856104559647</v>
       </c>
       <c r="J5">
-        <v>1.040358357255754</v>
+        <v>1.033939033358337</v>
       </c>
       <c r="K5">
-        <v>1.040051198590457</v>
+        <v>1.037366961766181</v>
       </c>
       <c r="L5">
-        <v>1.047091260304403</v>
+        <v>1.035317130989839</v>
       </c>
       <c r="M5">
-        <v>1.057603905077824</v>
+        <v>1.038533044642113</v>
       </c>
       <c r="N5">
-        <v>1.041835785453829</v>
+        <v>1.035407345380171</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035962363578666</v>
+        <v>1.015542713873161</v>
       </c>
       <c r="D6">
-        <v>1.037651085274752</v>
+        <v>1.027933652276199</v>
       </c>
       <c r="E6">
-        <v>1.044718391756086</v>
+        <v>1.025898236970864</v>
       </c>
       <c r="F6">
-        <v>1.05526781476416</v>
+        <v>1.029193988640247</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036508026984593</v>
+        <v>1.045901040182044</v>
       </c>
       <c r="J6">
-        <v>1.040380945191595</v>
+        <v>1.034037707357794</v>
       </c>
       <c r="K6">
-        <v>1.040070505932114</v>
+        <v>1.037453446562416</v>
       </c>
       <c r="L6">
-        <v>1.047120581679938</v>
+        <v>1.035440365428199</v>
       </c>
       <c r="M6">
-        <v>1.057644745345851</v>
+        <v>1.03870000789438</v>
       </c>
       <c r="N6">
-        <v>1.041858405467129</v>
+        <v>1.035506159508024</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035694577535401</v>
+        <v>1.014318375613884</v>
       </c>
       <c r="D7">
-        <v>1.037458125007669</v>
+        <v>1.027077205989149</v>
       </c>
       <c r="E7">
-        <v>1.044456901162648</v>
+        <v>1.024784967300726</v>
       </c>
       <c r="F7">
-        <v>1.054927640732724</v>
+        <v>1.027777102084186</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036454450321952</v>
+        <v>1.045590362944399</v>
       </c>
       <c r="J7">
-        <v>1.040225612461061</v>
+        <v>1.033356815141122</v>
       </c>
       <c r="K7">
-        <v>1.03993771783999</v>
+        <v>1.036856562214723</v>
       </c>
       <c r="L7">
-        <v>1.046918980791549</v>
+        <v>1.034590282242766</v>
       </c>
       <c r="M7">
-        <v>1.057363985854269</v>
+        <v>1.037548560687379</v>
       </c>
       <c r="N7">
-        <v>1.041702852146301</v>
+        <v>1.034824300346306</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034576269696624</v>
+        <v>1.009102476300637</v>
       </c>
       <c r="D8">
-        <v>1.036652319896812</v>
+        <v>1.023434145315787</v>
       </c>
       <c r="E8">
-        <v>1.043365696815078</v>
+        <v>1.020053134245489</v>
       </c>
       <c r="F8">
-        <v>1.053508635894619</v>
+        <v>1.02175616102539</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036228534623031</v>
+        <v>1.044248962624545</v>
       </c>
       <c r="J8">
-        <v>1.039576010175473</v>
+        <v>1.030449890144918</v>
       </c>
       <c r="K8">
-        <v>1.039382015899002</v>
+        <v>1.034305773345224</v>
       </c>
       <c r="L8">
-        <v>1.046076789160914</v>
+        <v>1.030968155071111</v>
       </c>
       <c r="M8">
-        <v>1.05619210759146</v>
+        <v>1.032649279876706</v>
       </c>
       <c r="N8">
-        <v>1.041052327350957</v>
+        <v>1.031913247183178</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032609506711689</v>
+        <v>0.9995143541473011</v>
       </c>
       <c r="D9">
-        <v>1.035235270933924</v>
+        <v>1.016761720622413</v>
       </c>
       <c r="E9">
-        <v>1.041449676515718</v>
+        <v>1.011397983436761</v>
       </c>
       <c r="F9">
-        <v>1.05101906430851</v>
+        <v>1.010745706368647</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035823040615376</v>
+        <v>1.04171684595825</v>
       </c>
       <c r="J9">
-        <v>1.038430129425247</v>
+        <v>1.025084273484704</v>
       </c>
       <c r="K9">
-        <v>1.038400345375856</v>
+        <v>1.029588580679424</v>
       </c>
       <c r="L9">
-        <v>1.04459457863442</v>
+        <v>1.02430880395135</v>
       </c>
       <c r="M9">
-        <v>1.054133413975326</v>
+        <v>1.023666815001136</v>
       </c>
       <c r="N9">
-        <v>1.039904819318632</v>
+        <v>1.026540010731863</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031300993699358</v>
+        <v>0.9928288124316672</v>
       </c>
       <c r="D10">
-        <v>1.034292602869719</v>
+        <v>1.012128876030556</v>
       </c>
       <c r="E10">
-        <v>1.040177003667018</v>
+        <v>1.005393589006269</v>
       </c>
       <c r="F10">
-        <v>1.049366755318007</v>
+        <v>1.003106499345338</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035547770299876</v>
+        <v>1.039908476836186</v>
       </c>
       <c r="J10">
-        <v>1.037665467121572</v>
+        <v>1.021329868529719</v>
       </c>
       <c r="K10">
-        <v>1.037744312885033</v>
+        <v>1.026282539424956</v>
       </c>
       <c r="L10">
-        <v>1.043607744383338</v>
+        <v>1.019666138640924</v>
       </c>
       <c r="M10">
-        <v>1.052765266132811</v>
+        <v>1.017419890601311</v>
       </c>
       <c r="N10">
-        <v>1.039139071106777</v>
+        <v>1.022780274091204</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030735041617805</v>
+        <v>0.989857930681232</v>
       </c>
       <c r="D11">
-        <v>1.033884918604616</v>
+        <v>1.010075553401983</v>
       </c>
       <c r="E11">
-        <v>1.039627049302413</v>
+        <v>1.002732992182217</v>
       </c>
       <c r="F11">
-        <v>1.048653060239072</v>
+        <v>0.9997206787452059</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035427410718434</v>
+        <v>1.039095202392892</v>
       </c>
       <c r="J11">
-        <v>1.037334197368416</v>
+        <v>1.019658804131519</v>
       </c>
       <c r="K11">
-        <v>1.037459880869673</v>
+        <v>1.024809928479454</v>
       </c>
       <c r="L11">
-        <v>1.043180758657839</v>
+        <v>1.017603551663402</v>
       </c>
       <c r="M11">
-        <v>1.052173881994815</v>
+        <v>1.014647864579</v>
       </c>
       <c r="N11">
-        <v>1.038807330912575</v>
+        <v>1.021106836589885</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030524919720326</v>
+        <v>0.9887424136165965</v>
       </c>
       <c r="D12">
-        <v>1.033733562801622</v>
+        <v>1.009305439713671</v>
       </c>
       <c r="E12">
-        <v>1.039422941713218</v>
+        <v>1.001735154387569</v>
       </c>
       <c r="F12">
-        <v>1.04838822867758</v>
+        <v>0.9984506712305717</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035382529254765</v>
+        <v>1.038788417599003</v>
       </c>
       <c r="J12">
-        <v>1.037211125167753</v>
+        <v>1.019030976339286</v>
       </c>
       <c r="K12">
-        <v>1.037354176286983</v>
+        <v>1.024256507571594</v>
       </c>
       <c r="L12">
-        <v>1.043022206386995</v>
+        <v>1.016829186908784</v>
       </c>
       <c r="M12">
-        <v>1.0519543720122</v>
+        <v>1.013607614251567</v>
       </c>
       <c r="N12">
-        <v>1.03868408393527</v>
+        <v>1.020478117210174</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030569987128535</v>
+        <v>0.9889822485543805</v>
       </c>
       <c r="D13">
-        <v>1.033766025657703</v>
+        <v>1.009470972697681</v>
       </c>
       <c r="E13">
-        <v>1.03946671576974</v>
+        <v>1.001949634929906</v>
       </c>
       <c r="F13">
-        <v>1.048445023862743</v>
+        <v>0.9987236624240849</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035392164370777</v>
+        <v>1.038854439198166</v>
       </c>
       <c r="J13">
-        <v>1.037237525635391</v>
+        <v>1.019165974787515</v>
       </c>
       <c r="K13">
-        <v>1.037376852699369</v>
+        <v>1.024375513400417</v>
       </c>
       <c r="L13">
-        <v>1.043056214140482</v>
+        <v>1.016995669370033</v>
       </c>
       <c r="M13">
-        <v>1.052001450550506</v>
+        <v>1.013831239711428</v>
       </c>
       <c r="N13">
-        <v>1.0387105218946</v>
+        <v>1.020613307371685</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030717670871174</v>
+        <v>0.9897659699682876</v>
       </c>
       <c r="D14">
-        <v>1.033872405921386</v>
+        <v>1.010012048791319</v>
       </c>
       <c r="E14">
-        <v>1.039610174229986</v>
+        <v>1.002650708665764</v>
       </c>
       <c r="F14">
-        <v>1.048631163734111</v>
+        <v>0.9996159556068356</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035423704360177</v>
+        <v>1.039069940246649</v>
       </c>
       <c r="J14">
-        <v>1.037324024662585</v>
+        <v>1.019607054750336</v>
       </c>
       <c r="K14">
-        <v>1.037451144388637</v>
+        <v>1.024764315198128</v>
       </c>
       <c r="L14">
-        <v>1.043167651666487</v>
+        <v>1.017539712523596</v>
       </c>
       <c r="M14">
-        <v>1.05215573403314</v>
+        <v>1.014562096452788</v>
       </c>
       <c r="N14">
-        <v>1.038797143760334</v>
+        <v>1.021055013718645</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030808676712904</v>
+        <v>0.9902472385541879</v>
       </c>
       <c r="D15">
-        <v>1.033937960468658</v>
+        <v>1.01034443085425</v>
       </c>
       <c r="E15">
-        <v>1.039698586286034</v>
+        <v>1.003081380455429</v>
       </c>
       <c r="F15">
-        <v>1.04874588601423</v>
+        <v>1.000164068669085</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035443114075601</v>
+        <v>1.039202090149169</v>
       </c>
       <c r="J15">
-        <v>1.037377316437647</v>
+        <v>1.019877865844132</v>
       </c>
       <c r="K15">
-        <v>1.037496910844095</v>
+        <v>1.025003009140836</v>
       </c>
       <c r="L15">
-        <v>1.043236318563573</v>
+        <v>1.017873813599831</v>
       </c>
       <c r="M15">
-        <v>1.052250813942678</v>
+        <v>1.015010981156307</v>
       </c>
       <c r="N15">
-        <v>1.038850511215831</v>
+        <v>1.021326209395257</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031338567730758</v>
+        <v>0.9930243300836781</v>
       </c>
       <c r="D16">
-        <v>1.03431967014285</v>
+        <v>1.01226412578428</v>
       </c>
       <c r="E16">
-        <v>1.040213526078895</v>
+        <v>1.00556884742964</v>
       </c>
       <c r="F16">
-        <v>1.049414158220597</v>
+        <v>1.003329507720907</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035555733658008</v>
+        <v>1.039961801042645</v>
       </c>
       <c r="J16">
-        <v>1.037687448998964</v>
+        <v>1.02143979007701</v>
       </c>
       <c r="K16">
-        <v>1.03776318208864</v>
+        <v>1.02637938483561</v>
       </c>
       <c r="L16">
-        <v>1.043636088861067</v>
+        <v>1.019801892883873</v>
       </c>
       <c r="M16">
-        <v>1.052804536217834</v>
+        <v>1.017602404145557</v>
       </c>
       <c r="N16">
-        <v>1.039161084200957</v>
+        <v>1.022890351739701</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031671127382851</v>
+        <v>0.9947455803674334</v>
       </c>
       <c r="D17">
-        <v>1.034559240776477</v>
+        <v>1.01345542663327</v>
       </c>
       <c r="E17">
-        <v>1.040536835471134</v>
+        <v>1.007112614200786</v>
       </c>
       <c r="F17">
-        <v>1.049833821344713</v>
+        <v>1.005293780086081</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035626065259508</v>
+        <v>1.04043014516669</v>
       </c>
       <c r="J17">
-        <v>1.037881943288068</v>
+        <v>1.022407186490178</v>
       </c>
       <c r="K17">
-        <v>1.037930109868924</v>
+        <v>1.027231576098232</v>
       </c>
       <c r="L17">
-        <v>1.043886940702875</v>
+        <v>1.020997072337391</v>
       </c>
       <c r="M17">
-        <v>1.05315214898059</v>
+        <v>1.019209622488157</v>
       </c>
       <c r="N17">
-        <v>1.03935585469426</v>
+        <v>1.023859121966737</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031865165720871</v>
+        <v>0.995742265000091</v>
       </c>
       <c r="D18">
-        <v>1.034699026143082</v>
+        <v>1.014145753713452</v>
       </c>
       <c r="E18">
-        <v>1.040725524467335</v>
+        <v>1.008007247572614</v>
       </c>
       <c r="F18">
-        <v>1.050078774013565</v>
+        <v>1.006432027379316</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035666975978831</v>
+        <v>1.040700415781144</v>
       </c>
       <c r="J18">
-        <v>1.037995372435052</v>
+        <v>1.022967095083659</v>
       </c>
       <c r="K18">
-        <v>1.038027440670912</v>
+        <v>1.027724700040274</v>
       </c>
       <c r="L18">
-        <v>1.044033289137217</v>
+        <v>1.021689182226171</v>
       </c>
       <c r="M18">
-        <v>1.053355005201323</v>
+        <v>1.020140651651514</v>
       </c>
       <c r="N18">
-        <v>1.039469444923643</v>
+        <v>1.024419825694644</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03193133824139</v>
+        <v>0.9960808889877419</v>
       </c>
       <c r="D19">
-        <v>1.034746697411995</v>
+        <v>1.014380376888397</v>
       </c>
       <c r="E19">
-        <v>1.040789880829297</v>
+        <v>1.008311320852778</v>
       </c>
       <c r="F19">
-        <v>1.050162325384446</v>
+        <v>1.006818890559098</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035680906374969</v>
+        <v>1.040792082628746</v>
       </c>
       <c r="J19">
-        <v>1.038034046082874</v>
+        <v>1.023157279219629</v>
       </c>
       <c r="K19">
-        <v>1.038060621931189</v>
+        <v>1.027892180993247</v>
       </c>
       <c r="L19">
-        <v>1.044083195360147</v>
+        <v>1.021924333617523</v>
       </c>
       <c r="M19">
-        <v>1.053424190782867</v>
+        <v>1.020457032469986</v>
       </c>
       <c r="N19">
-        <v>1.039508173492481</v>
+        <v>1.024610279913901</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031635440465136</v>
+        <v>0.9945616647843402</v>
       </c>
       <c r="D20">
-        <v>1.034533532151998</v>
+        <v>1.013328082996336</v>
       </c>
       <c r="E20">
-        <v>1.040502136241417</v>
+        <v>1.006947587833307</v>
       </c>
       <c r="F20">
-        <v>1.049788777842025</v>
+        <v>1.005083810428531</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035618530977936</v>
+        <v>1.040380198009151</v>
       </c>
       <c r="J20">
-        <v>1.037861077547193</v>
+        <v>1.022303846835298</v>
       </c>
       <c r="K20">
-        <v>1.037912203746434</v>
+        <v>1.027140553876027</v>
       </c>
       <c r="L20">
-        <v>1.043860023480209</v>
+        <v>1.020869362558987</v>
       </c>
       <c r="M20">
-        <v>1.053114843112236</v>
+        <v>1.019037852336956</v>
       </c>
       <c r="N20">
-        <v>1.03933495932164</v>
+        <v>1.023755635557694</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030674178976394</v>
+        <v>0.9895355196421959</v>
       </c>
       <c r="D21">
-        <v>1.033841077466647</v>
+        <v>1.00985292278524</v>
       </c>
       <c r="E21">
-        <v>1.039567924585792</v>
+        <v>1.002444528051522</v>
       </c>
       <c r="F21">
-        <v>1.04857634281232</v>
+        <v>0.9993535441746667</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035414421433348</v>
+        <v>1.039006611557322</v>
       </c>
       <c r="J21">
-        <v>1.037298553505231</v>
+        <v>1.019477366763993</v>
       </c>
       <c r="K21">
-        <v>1.037429268816304</v>
+        <v>1.024650002337113</v>
       </c>
       <c r="L21">
-        <v>1.043134834724016</v>
+        <v>1.017379735627246</v>
       </c>
       <c r="M21">
-        <v>1.052110297065084</v>
+        <v>1.014347174218645</v>
       </c>
       <c r="N21">
-        <v>1.038771636431016</v>
+        <v>1.020925141560486</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030070362842398</v>
+        <v>0.98630564283837</v>
       </c>
       <c r="D22">
-        <v>1.033406145866963</v>
+        <v>1.007624861053068</v>
       </c>
       <c r="E22">
-        <v>1.038981532640165</v>
+        <v>0.9995576357296696</v>
       </c>
       <c r="F22">
-        <v>1.047815579718679</v>
+        <v>0.9956788195259706</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035285080022304</v>
+        <v>1.038115715153666</v>
       </c>
       <c r="J22">
-        <v>1.036944734768513</v>
+        <v>1.017658888412699</v>
       </c>
       <c r="K22">
-        <v>1.037125317321443</v>
+        <v>1.023046766312612</v>
       </c>
       <c r="L22">
-        <v>1.042679165228955</v>
+        <v>1.015137861039151</v>
       </c>
       <c r="M22">
-        <v>1.051479604694148</v>
+        <v>1.011336368647842</v>
       </c>
       <c r="N22">
-        <v>1.038417315231108</v>
+        <v>1.019104080761351</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030390402992304</v>
+        <v>0.988024676215027</v>
       </c>
       <c r="D23">
-        <v>1.03363666889912</v>
+        <v>1.008810193967062</v>
       </c>
       <c r="E23">
-        <v>1.039292296340733</v>
+        <v>1.001093467548524</v>
       </c>
       <c r="F23">
-        <v>1.048218727939622</v>
+        <v>0.9976339003644734</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035353741859484</v>
+        <v>1.038590635405391</v>
       </c>
       <c r="J23">
-        <v>1.037132313457194</v>
+        <v>1.018626924320463</v>
       </c>
       <c r="K23">
-        <v>1.03728647689721</v>
+        <v>1.023900300295964</v>
       </c>
       <c r="L23">
-        <v>1.042920696803623</v>
+        <v>1.016330983669895</v>
       </c>
       <c r="M23">
-        <v>1.051813860398973</v>
+        <v>1.012938474254293</v>
       </c>
       <c r="N23">
-        <v>1.038605160303042</v>
+        <v>1.020073491391139</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031651565655946</v>
+        <v>0.9946447908107168</v>
       </c>
       <c r="D24">
-        <v>1.034545148625073</v>
+        <v>1.013385638107336</v>
       </c>
       <c r="E24">
-        <v>1.040517814995877</v>
+        <v>1.007022174096676</v>
       </c>
       <c r="F24">
-        <v>1.049809130536033</v>
+        <v>1.005178709746141</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035621935743182</v>
+        <v>1.040402775950658</v>
       </c>
       <c r="J24">
-        <v>1.037870505927145</v>
+        <v>1.022350555020935</v>
       </c>
       <c r="K24">
-        <v>1.037920294861769</v>
+        <v>1.027181695072376</v>
       </c>
       <c r="L24">
-        <v>1.043872186119452</v>
+        <v>1.02092708459106</v>
       </c>
       <c r="M24">
-        <v>1.053131699720773</v>
+        <v>1.019115487720245</v>
       </c>
       <c r="N24">
-        <v>1.039344401090973</v>
+        <v>1.023802410074313</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03311749882809</v>
+        <v>1.002042798279635</v>
       </c>
       <c r="D25">
-        <v>1.035601260849427</v>
+        <v>1.01851811679242</v>
       </c>
       <c r="E25">
-        <v>1.041944196300682</v>
+        <v>1.013675220505698</v>
       </c>
       <c r="F25">
-        <v>1.051661378820482</v>
+        <v>1.013642592378348</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035928744023307</v>
+        <v>1.042392116776736</v>
       </c>
       <c r="J25">
-        <v>1.038726502505563</v>
+        <v>1.026501609147427</v>
       </c>
       <c r="K25">
-        <v>1.038654414844707</v>
+        <v>1.030835606712745</v>
       </c>
       <c r="L25">
-        <v>1.044977540497086</v>
+        <v>1.026064891653587</v>
       </c>
       <c r="M25">
-        <v>1.054664880661165</v>
+        <v>1.026032752810792</v>
       </c>
       <c r="N25">
-        <v>1.040201613282716</v>
+        <v>1.027959359173797</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007733666082572</v>
+        <v>1.01861212139652</v>
       </c>
       <c r="D2">
-        <v>1.022479616168845</v>
+        <v>1.033073145232947</v>
       </c>
       <c r="E2">
-        <v>1.018814184753944</v>
+        <v>1.031386748701709</v>
       </c>
       <c r="F2">
-        <v>1.020179948165605</v>
+        <v>1.040005855710748</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043892447701869</v>
+        <v>1.050567418753692</v>
       </c>
       <c r="J2">
-        <v>1.029685499627631</v>
+        <v>1.040250048951853</v>
       </c>
       <c r="K2">
-        <v>1.033634411636261</v>
+        <v>1.044090173236629</v>
       </c>
       <c r="L2">
-        <v>1.030017485929796</v>
+        <v>1.042425471148886</v>
       </c>
       <c r="M2">
-        <v>1.031365124683323</v>
+        <v>1.050934621187147</v>
       </c>
       <c r="N2">
-        <v>1.031147771143681</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016995620823513</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.048883678660384</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.042245852291628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011752924245406</v>
+        <v>1.022378678537555</v>
       </c>
       <c r="D3">
-        <v>1.02528422333794</v>
+        <v>1.03555521294848</v>
       </c>
       <c r="E3">
-        <v>1.02245543620899</v>
+        <v>1.034338839496616</v>
       </c>
       <c r="F3">
-        <v>1.024812688255704</v>
+        <v>1.042833893286379</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04493409370679</v>
+        <v>1.051511314512374</v>
       </c>
       <c r="J3">
-        <v>1.031928240877808</v>
+        <v>1.042277327420885</v>
       </c>
       <c r="K3">
-        <v>1.035603494626486</v>
+        <v>1.045752505510132</v>
       </c>
       <c r="L3">
-        <v>1.032808836741869</v>
+        <v>1.044550421201766</v>
       </c>
       <c r="M3">
-        <v>1.035137632361285</v>
+        <v>1.05294654124793</v>
       </c>
       <c r="N3">
-        <v>1.033393697343678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017698744786299</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.050475958549457</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.043418602643042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014304153023465</v>
+        <v>1.024773820395429</v>
       </c>
       <c r="D4">
-        <v>1.027067259907022</v>
+        <v>1.037137595010556</v>
       </c>
       <c r="E4">
-        <v>1.02477204079012</v>
+        <v>1.036221891518042</v>
       </c>
       <c r="F4">
-        <v>1.027760651053306</v>
+        <v>1.04463999248948</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045586744167181</v>
+        <v>1.052104190956381</v>
       </c>
       <c r="J4">
-        <v>1.033348902077549</v>
+        <v>1.043564359279743</v>
       </c>
       <c r="K4">
-        <v>1.03684962406198</v>
+        <v>1.046807547513267</v>
       </c>
       <c r="L4">
-        <v>1.034580406807581</v>
+        <v>1.045901954676684</v>
       </c>
       <c r="M4">
-        <v>1.037535188128389</v>
+        <v>1.05422792692564</v>
       </c>
       <c r="N4">
-        <v>1.034816376045275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.018144969451165</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.051490074927238</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.04416549092744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01536521831728</v>
+        <v>1.02577464299193</v>
       </c>
       <c r="D5">
-        <v>1.027809460791094</v>
+        <v>1.037801978679335</v>
       </c>
       <c r="E5">
-        <v>1.025736781359688</v>
+        <v>1.037010278327486</v>
       </c>
       <c r="F5">
-        <v>1.028988490521829</v>
+        <v>1.045395947210064</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045856104559647</v>
+        <v>1.052351771885746</v>
       </c>
       <c r="J5">
-        <v>1.033939033358337</v>
+        <v>1.044103239495746</v>
       </c>
       <c r="K5">
-        <v>1.037366961766181</v>
+        <v>1.047250894568872</v>
       </c>
       <c r="L5">
-        <v>1.035317130989839</v>
+        <v>1.0464677037771</v>
       </c>
       <c r="M5">
-        <v>1.038533044642113</v>
+        <v>1.054764040513968</v>
       </c>
       <c r="N5">
-        <v>1.035407345380171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.018332242463363</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.051914366425144</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.044486098643282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015542713873161</v>
+        <v>1.025946606532452</v>
       </c>
       <c r="D6">
-        <v>1.027933652276199</v>
+        <v>1.037918907508406</v>
       </c>
       <c r="E6">
-        <v>1.025898236970864</v>
+        <v>1.037146033897331</v>
       </c>
       <c r="F6">
-        <v>1.029193988640247</v>
+        <v>1.04552526048864</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045901040182044</v>
+        <v>1.052396199502547</v>
       </c>
       <c r="J6">
-        <v>1.034037707357794</v>
+        <v>1.044197767449861</v>
       </c>
       <c r="K6">
-        <v>1.037453446562416</v>
+        <v>1.047330690356892</v>
       </c>
       <c r="L6">
-        <v>1.035440365428199</v>
+        <v>1.046566086015347</v>
       </c>
       <c r="M6">
-        <v>1.03870000789438</v>
+        <v>1.05485645747958</v>
       </c>
       <c r="N6">
-        <v>1.035506159508024</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.018365674764145</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.051987507118902</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.044551212000041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014318375613884</v>
+        <v>1.024799316146649</v>
       </c>
       <c r="D7">
-        <v>1.027077205989149</v>
+        <v>1.037161798613969</v>
       </c>
       <c r="E7">
-        <v>1.024784967300726</v>
+        <v>1.036242555343053</v>
       </c>
       <c r="F7">
-        <v>1.027777102084186</v>
+        <v>1.044657412561194</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045590362944399</v>
+        <v>1.052115867812504</v>
       </c>
       <c r="J7">
-        <v>1.033356815141122</v>
+        <v>1.043583377730669</v>
       </c>
       <c r="K7">
-        <v>1.036856562214723</v>
+        <v>1.046828626120011</v>
       </c>
       <c r="L7">
-        <v>1.034590282242766</v>
+        <v>1.045919528671228</v>
       </c>
       <c r="M7">
-        <v>1.037548560687379</v>
+        <v>1.054242327428569</v>
       </c>
       <c r="N7">
-        <v>1.034824300346306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.018153171870364</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.051501471789343</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.04420038785439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009102476300637</v>
+        <v>1.019909126679358</v>
       </c>
       <c r="D8">
-        <v>1.023434145315787</v>
+        <v>1.033936024807239</v>
       </c>
       <c r="E8">
-        <v>1.020053134245489</v>
+        <v>1.032402884451979</v>
       </c>
       <c r="F8">
-        <v>1.02175616102539</v>
+        <v>1.040975833932658</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044248962624545</v>
+        <v>1.050900628982416</v>
       </c>
       <c r="J8">
-        <v>1.030449890144918</v>
+        <v>1.040955158734699</v>
       </c>
       <c r="K8">
-        <v>1.034305773345224</v>
+        <v>1.044675124513059</v>
       </c>
       <c r="L8">
-        <v>1.030968155071111</v>
+        <v>1.043161122074486</v>
       </c>
       <c r="M8">
-        <v>1.032649279876706</v>
+        <v>1.051627957136691</v>
       </c>
       <c r="N8">
-        <v>1.031913247183178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.017242302176043</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.049432401089031</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.042682244261433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9995143541473011</v>
+        <v>1.010936449895141</v>
       </c>
       <c r="D9">
-        <v>1.016761720622413</v>
+        <v>1.028039340868788</v>
       </c>
       <c r="E9">
-        <v>1.011397983436761</v>
+        <v>1.025404447435045</v>
       </c>
       <c r="F9">
-        <v>1.010745706368647</v>
+        <v>1.034286894733642</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04171684595825</v>
+        <v>1.048605466992711</v>
       </c>
       <c r="J9">
-        <v>1.025084273484704</v>
+        <v>1.036108838031267</v>
       </c>
       <c r="K9">
-        <v>1.029588580679424</v>
+        <v>1.040693309021503</v>
       </c>
       <c r="L9">
-        <v>1.02430880395135</v>
+        <v>1.038098375870224</v>
       </c>
       <c r="M9">
-        <v>1.023666815001136</v>
+        <v>1.046847148469715</v>
       </c>
       <c r="N9">
-        <v>1.026540010731863</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015558880617226</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.045648748050993</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.039863701191869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,81 +857,105 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9928288124316672</v>
+        <v>1.004783712662703</v>
       </c>
       <c r="D10">
-        <v>1.012128876030556</v>
+        <v>1.024032681453774</v>
       </c>
       <c r="E10">
-        <v>1.005393589006269</v>
+        <v>1.020686274200955</v>
       </c>
       <c r="F10">
-        <v>1.003106499345338</v>
+        <v>1.029849504958059</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039908476836186</v>
+        <v>1.047021380736836</v>
       </c>
       <c r="J10">
-        <v>1.021329868529719</v>
+        <v>1.032808811409543</v>
       </c>
       <c r="K10">
-        <v>1.026282539424956</v>
+        <v>1.037981165099515</v>
       </c>
       <c r="L10">
-        <v>1.019666138640924</v>
+        <v>1.034691813252446</v>
       </c>
       <c r="M10">
-        <v>1.017419890601311</v>
+        <v>1.043699950491515</v>
       </c>
       <c r="N10">
-        <v>1.022780274091204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014419699647128</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.043209110048193</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.037962806718721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>0.989857930681232</v>
+        <v>1.002651361442532</v>
       </c>
       <c r="D11">
-        <v>1.010075553401983</v>
+        <v>1.02273551897753</v>
       </c>
       <c r="E11">
-        <v>1.002732992182217</v>
+        <v>1.019431139378997</v>
       </c>
       <c r="F11">
-        <v>0.9997206787452059</v>
+        <v>1.029158494455374</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039095202392892</v>
+        <v>1.046666897455532</v>
       </c>
       <c r="J11">
-        <v>1.019658804131519</v>
+        <v>1.031914255140862</v>
       </c>
       <c r="K11">
-        <v>1.024809928479454</v>
+        <v>1.037241046338006</v>
       </c>
       <c r="L11">
-        <v>1.017603551663402</v>
+        <v>1.033995686196279</v>
       </c>
       <c r="M11">
-        <v>1.014647864579</v>
+        <v>1.043550705828732</v>
       </c>
       <c r="N11">
-        <v>1.021106836589885</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.014173173912517</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.043524682237824</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.037472246816541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9887424136165965</v>
+        <v>1.002066134840353</v>
       </c>
       <c r="D12">
-        <v>1.009305439713671</v>
+        <v>1.022415115147338</v>
       </c>
       <c r="E12">
-        <v>1.001735154387569</v>
+        <v>1.01925815798711</v>
       </c>
       <c r="F12">
-        <v>0.9984506712305717</v>
+        <v>1.029355273790494</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038788417599003</v>
+        <v>1.0466605794562</v>
       </c>
       <c r="J12">
-        <v>1.019030976339286</v>
+        <v>1.031783308805407</v>
       </c>
       <c r="K12">
-        <v>1.024256507571594</v>
+        <v>1.037125118151506</v>
       </c>
       <c r="L12">
-        <v>1.016829186908784</v>
+        <v>1.0340254743721</v>
       </c>
       <c r="M12">
-        <v>1.013607614251567</v>
+        <v>1.04394088460891</v>
       </c>
       <c r="N12">
-        <v>1.020478117210174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.014177466896645</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.044157886892724</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.037390282354471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9889822485543805</v>
+        <v>1.002647224196785</v>
       </c>
       <c r="D13">
-        <v>1.009470972697681</v>
+        <v>1.022842039743957</v>
       </c>
       <c r="E13">
-        <v>1.001949634929906</v>
+        <v>1.019920510832376</v>
       </c>
       <c r="F13">
-        <v>0.9987236624240849</v>
+        <v>1.030271265287634</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038854439198166</v>
+        <v>1.046935691524722</v>
       </c>
       <c r="J13">
-        <v>1.019165974787515</v>
+        <v>1.032247756873219</v>
       </c>
       <c r="K13">
-        <v>1.024375513400417</v>
+        <v>1.037501716935386</v>
       </c>
       <c r="L13">
-        <v>1.016995669370033</v>
+        <v>1.034632976804421</v>
       </c>
       <c r="M13">
-        <v>1.013831239711428</v>
+        <v>1.044798453587518</v>
       </c>
       <c r="N13">
-        <v>1.020613307371685</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014382867473296</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.045111195907442</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.037654064262294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9897659699682876</v>
+        <v>1.003581380929273</v>
       </c>
       <c r="D14">
-        <v>1.010012048791319</v>
+        <v>1.0234800644935</v>
       </c>
       <c r="E14">
-        <v>1.002650708665764</v>
+        <v>1.0207592920847</v>
       </c>
       <c r="F14">
-        <v>0.9996159556068356</v>
+        <v>1.031234283445838</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039069940246649</v>
+        <v>1.047255133170613</v>
       </c>
       <c r="J14">
-        <v>1.019607054750336</v>
+        <v>1.032841367822807</v>
       </c>
       <c r="K14">
-        <v>1.024764315198128</v>
+        <v>1.037988768597973</v>
       </c>
       <c r="L14">
-        <v>1.017539712523596</v>
+        <v>1.035316527161693</v>
       </c>
       <c r="M14">
-        <v>1.014562096452788</v>
+        <v>1.045606493164119</v>
       </c>
       <c r="N14">
-        <v>1.021055013718645</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014617504714255</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.045922448128816</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.03799984304022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9902472385541879</v>
+        <v>1.004069535368018</v>
       </c>
       <c r="D15">
-        <v>1.01034443085425</v>
+        <v>1.023805761475767</v>
       </c>
       <c r="E15">
-        <v>1.003081380455429</v>
+        <v>1.02115741338737</v>
       </c>
       <c r="F15">
-        <v>1.000164068669085</v>
+        <v>1.031645628088796</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039202090149169</v>
+        <v>1.047399667725689</v>
       </c>
       <c r="J15">
-        <v>1.019877865844132</v>
+        <v>1.033123920856278</v>
       </c>
       <c r="K15">
-        <v>1.025003009140836</v>
+        <v>1.03822276464234</v>
       </c>
       <c r="L15">
-        <v>1.017873813599831</v>
+        <v>1.035621290398278</v>
       </c>
       <c r="M15">
-        <v>1.015010981156307</v>
+        <v>1.045925696298563</v>
       </c>
       <c r="N15">
-        <v>1.021326209395257</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.014721878724668</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.046212119826963</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.038171133841201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9930243300836781</v>
+        <v>1.006558369472391</v>
       </c>
       <c r="D16">
-        <v>1.01226412578428</v>
+        <v>1.025416846341429</v>
       </c>
       <c r="E16">
-        <v>1.00556884742964</v>
+        <v>1.023029368594741</v>
       </c>
       <c r="F16">
-        <v>1.003329507720907</v>
+        <v>1.033382650037212</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039961801042645</v>
+        <v>1.048029527985945</v>
       </c>
       <c r="J16">
-        <v>1.02143979007701</v>
+        <v>1.034438214834001</v>
       </c>
       <c r="K16">
-        <v>1.02637938483561</v>
+        <v>1.039306494485284</v>
       </c>
       <c r="L16">
-        <v>1.019801892883873</v>
+        <v>1.036959413263532</v>
       </c>
       <c r="M16">
-        <v>1.017602404145557</v>
+        <v>1.04713925347186</v>
       </c>
       <c r="N16">
-        <v>1.022890351739701</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01516720821458</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.047132777660218</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038940517793406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9947455803674334</v>
+        <v>1.007981738641519</v>
       </c>
       <c r="D17">
-        <v>1.01345542663327</v>
+        <v>1.026322046298336</v>
       </c>
       <c r="E17">
-        <v>1.007112614200786</v>
+        <v>1.024028948543503</v>
       </c>
       <c r="F17">
-        <v>1.005293780086081</v>
+        <v>1.034206956586375</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04043014516669</v>
+        <v>1.048344347452016</v>
       </c>
       <c r="J17">
-        <v>1.022407186490178</v>
+        <v>1.035136608556256</v>
       </c>
       <c r="K17">
-        <v>1.027231576098232</v>
+        <v>1.039883775577032</v>
       </c>
       <c r="L17">
-        <v>1.020997072337391</v>
+        <v>1.037628384255144</v>
       </c>
       <c r="M17">
-        <v>1.019209622488157</v>
+        <v>1.04764066777142</v>
       </c>
       <c r="N17">
-        <v>1.023859121966737</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.015386190974089</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.047400708653473</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.039351251263851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.995742265000091</v>
+        <v>1.008603190869943</v>
       </c>
       <c r="D18">
-        <v>1.014145753713452</v>
+        <v>1.026682568719292</v>
       </c>
       <c r="E18">
-        <v>1.008007247572614</v>
+        <v>1.024331726930916</v>
       </c>
       <c r="F18">
-        <v>1.006432027379316</v>
+        <v>1.034256077266964</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040700415781144</v>
+        <v>1.048402167665353</v>
       </c>
       <c r="J18">
-        <v>1.022967095083659</v>
+        <v>1.035345074171805</v>
       </c>
       <c r="K18">
-        <v>1.027724700040274</v>
+        <v>1.040056090111966</v>
       </c>
       <c r="L18">
-        <v>1.021689182226171</v>
+        <v>1.03774327667201</v>
       </c>
       <c r="M18">
-        <v>1.020140651651514</v>
+        <v>1.047508591461413</v>
       </c>
       <c r="N18">
-        <v>1.024419825694644</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.015420041343753</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.047059915666406</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.039461494382996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9960808889877419</v>
+        <v>1.008513445349051</v>
       </c>
       <c r="D19">
-        <v>1.014380376888397</v>
+        <v>1.02657141279249</v>
       </c>
       <c r="E19">
-        <v>1.008311320852778</v>
+        <v>1.024007916419553</v>
       </c>
       <c r="F19">
-        <v>1.006818890559098</v>
+        <v>1.033598344110859</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040792082628746</v>
+        <v>1.048240914884403</v>
       </c>
       <c r="J19">
-        <v>1.023157279219629</v>
+        <v>1.035125867981448</v>
       </c>
       <c r="K19">
-        <v>1.027892180993247</v>
+        <v>1.03988455558546</v>
       </c>
       <c r="L19">
-        <v>1.021924333617523</v>
+        <v>1.037362329025352</v>
       </c>
       <c r="M19">
-        <v>1.020457032469986</v>
+        <v>1.046799703791722</v>
       </c>
       <c r="N19">
-        <v>1.024610279913901</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.015297763409166</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.046175849564025</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.03934658376489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9945616647843402</v>
+        <v>1.006411159645967</v>
       </c>
       <c r="D20">
-        <v>1.013328082996336</v>
+        <v>1.025109283465326</v>
       </c>
       <c r="E20">
-        <v>1.006947587833307</v>
+        <v>1.021936155481623</v>
       </c>
       <c r="F20">
-        <v>1.005083810428531</v>
+        <v>1.031021393927775</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040380198009151</v>
+        <v>1.047457585575381</v>
       </c>
       <c r="J20">
-        <v>1.022303846835298</v>
+        <v>1.033697159419465</v>
       </c>
       <c r="K20">
-        <v>1.027140553876027</v>
+        <v>1.038724532270208</v>
       </c>
       <c r="L20">
-        <v>1.020869362558987</v>
+        <v>1.035603947508019</v>
       </c>
       <c r="M20">
-        <v>1.019037852336956</v>
+        <v>1.044539853319697</v>
       </c>
       <c r="N20">
-        <v>1.023755635557694</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014731513765917</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.043863311600968</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.038530316175781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9895355196421959</v>
+        <v>1.001679348989807</v>
       </c>
       <c r="D21">
-        <v>1.00985292278524</v>
+        <v>1.022018313151558</v>
       </c>
       <c r="E21">
-        <v>1.002444528051522</v>
+        <v>1.018248197058449</v>
       </c>
       <c r="F21">
-        <v>0.9993535441746667</v>
+        <v>1.02746288226918</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039006611557322</v>
+        <v>1.046186936988175</v>
       </c>
       <c r="J21">
-        <v>1.019477366763993</v>
+        <v>1.031107024724722</v>
       </c>
       <c r="K21">
-        <v>1.024650002337113</v>
+        <v>1.036594213356344</v>
       </c>
       <c r="L21">
-        <v>1.017379735627246</v>
+        <v>1.032891907063379</v>
       </c>
       <c r="M21">
-        <v>1.014347174218645</v>
+        <v>1.041941994593232</v>
       </c>
       <c r="N21">
-        <v>1.020925141560486</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013825540548109</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.041766664802275</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.037027330011901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.98630564283837</v>
+        <v>0.9986686236201354</v>
       </c>
       <c r="D22">
-        <v>1.007624861053068</v>
+        <v>1.020055255005666</v>
       </c>
       <c r="E22">
-        <v>0.9995576357296696</v>
+        <v>1.015931928765939</v>
       </c>
       <c r="F22">
-        <v>0.9956788195259706</v>
+        <v>1.025263517497733</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038115715153666</v>
+        <v>1.045378014134592</v>
       </c>
       <c r="J22">
-        <v>1.017658888412699</v>
+        <v>1.029467363436085</v>
       </c>
       <c r="K22">
-        <v>1.023046766312612</v>
+        <v>1.035239614797475</v>
       </c>
       <c r="L22">
-        <v>1.015137861039151</v>
+        <v>1.031194242960386</v>
       </c>
       <c r="M22">
-        <v>1.011336368647842</v>
+        <v>1.040350580162831</v>
       </c>
       <c r="N22">
-        <v>1.019104080761351</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013253395537983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.04050716809307</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.036056109883883</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.988024676215027</v>
+        <v>1.000258676057713</v>
       </c>
       <c r="D23">
-        <v>1.008810193967062</v>
+        <v>1.021084860911502</v>
       </c>
       <c r="E23">
-        <v>1.001093467548524</v>
+        <v>1.017153563216467</v>
       </c>
       <c r="F23">
-        <v>0.9976339003644734</v>
+        <v>1.026425450479024</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038590635405391</v>
+        <v>1.045801073018819</v>
       </c>
       <c r="J23">
-        <v>1.018626924320463</v>
+        <v>1.030328602906794</v>
       </c>
       <c r="K23">
-        <v>1.023900300295964</v>
+        <v>1.035946466862639</v>
       </c>
       <c r="L23">
-        <v>1.016330983669895</v>
+        <v>1.032087570008747</v>
       </c>
       <c r="M23">
-        <v>1.012938474254293</v>
+        <v>1.041189856538042</v>
       </c>
       <c r="N23">
-        <v>1.020073491391139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013552132752908</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.041171398759799</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.036546272881538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9946447908107168</v>
+        <v>1.006414503055321</v>
       </c>
       <c r="D24">
-        <v>1.013385638107336</v>
+        <v>1.0250936686421</v>
       </c>
       <c r="E24">
-        <v>1.007022174096676</v>
+        <v>1.021901142022092</v>
       </c>
       <c r="F24">
-        <v>1.005178709746141</v>
+        <v>1.030943222381826</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040402775950658</v>
+        <v>1.047432095689914</v>
       </c>
       <c r="J24">
-        <v>1.022350555020935</v>
+        <v>1.033667848396408</v>
       </c>
       <c r="K24">
-        <v>1.027181695072376</v>
+        <v>1.038693990253148</v>
       </c>
       <c r="L24">
-        <v>1.02092708459106</v>
+        <v>1.035554263738137</v>
       </c>
       <c r="M24">
-        <v>1.019115487720245</v>
+        <v>1.044447890009407</v>
       </c>
       <c r="N24">
-        <v>1.023802410074313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014713226417874</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.043749906822308</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.038481413939357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002042798279635</v>
+        <v>1.013317549312212</v>
       </c>
       <c r="D25">
-        <v>1.01851811679242</v>
+        <v>1.029611333300895</v>
       </c>
       <c r="E25">
-        <v>1.013675220505698</v>
+        <v>1.027257002235241</v>
       </c>
       <c r="F25">
-        <v>1.013642592378348</v>
+        <v>1.036051601284557</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042392116776736</v>
+        <v>1.049229394409342</v>
       </c>
       <c r="J25">
-        <v>1.026501609147427</v>
+        <v>1.037404889149191</v>
       </c>
       <c r="K25">
-        <v>1.030835606712745</v>
+        <v>1.041766726392563</v>
       </c>
       <c r="L25">
-        <v>1.026064891653587</v>
+        <v>1.039446426372632</v>
       </c>
       <c r="M25">
-        <v>1.026032752810792</v>
+        <v>1.048114901926821</v>
       </c>
       <c r="N25">
-        <v>1.027959359173797</v>
+        <v>1.016012000703451</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.046652082127101</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.04065112783762</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01861212139652</v>
+        <v>1.017631117097407</v>
       </c>
       <c r="D2">
-        <v>1.033073145232947</v>
+        <v>1.031546995722356</v>
       </c>
       <c r="E2">
-        <v>1.031386748701709</v>
+        <v>1.030637810245553</v>
       </c>
       <c r="F2">
-        <v>1.040005855710748</v>
+        <v>1.039456108450526</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050567418753692</v>
+        <v>1.049892952666541</v>
       </c>
       <c r="J2">
-        <v>1.040250048951853</v>
+        <v>1.039296975613218</v>
       </c>
       <c r="K2">
-        <v>1.044090173236629</v>
+        <v>1.042583652876558</v>
       </c>
       <c r="L2">
-        <v>1.042425471148886</v>
+        <v>1.041686195801532</v>
       </c>
       <c r="M2">
-        <v>1.050934621187147</v>
+        <v>1.050391819290163</v>
       </c>
       <c r="N2">
-        <v>1.016995620823513</v>
+        <v>1.017396665354131</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.048883678660384</v>
+        <v>1.048454092149763</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042245852291628</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041189355050076</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023293786530833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022378678537555</v>
+        <v>1.021225915661139</v>
       </c>
       <c r="D3">
-        <v>1.03555521294848</v>
+        <v>1.033822875502412</v>
       </c>
       <c r="E3">
-        <v>1.034338839496616</v>
+        <v>1.033452570049946</v>
       </c>
       <c r="F3">
-        <v>1.042833893286379</v>
+        <v>1.042185948121626</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051511314512374</v>
+        <v>1.05072934527859</v>
       </c>
       <c r="J3">
-        <v>1.042277327420885</v>
+        <v>1.0411542028566</v>
       </c>
       <c r="K3">
-        <v>1.045752505510132</v>
+        <v>1.044040530982582</v>
       </c>
       <c r="L3">
-        <v>1.044550421201766</v>
+        <v>1.043674589284775</v>
       </c>
       <c r="M3">
-        <v>1.05294654124793</v>
+        <v>1.052306071884522</v>
       </c>
       <c r="N3">
-        <v>1.017698744786299</v>
+        <v>1.017906564896088</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.050475958549457</v>
+        <v>1.049969076708375</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043418602643042</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042216556746133</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023589956888407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024773820395429</v>
+        <v>1.02351302472032</v>
       </c>
       <c r="D4">
-        <v>1.037137595010556</v>
+        <v>1.035274913814622</v>
       </c>
       <c r="E4">
-        <v>1.036221891518042</v>
+        <v>1.035249200806668</v>
       </c>
       <c r="F4">
-        <v>1.04463999248948</v>
+        <v>1.043930322477279</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052104190956381</v>
+        <v>1.051254262112614</v>
       </c>
       <c r="J4">
-        <v>1.043564359279743</v>
+        <v>1.042333806688918</v>
       </c>
       <c r="K4">
-        <v>1.046807547513267</v>
+        <v>1.044965456071425</v>
       </c>
       <c r="L4">
-        <v>1.045901954676684</v>
+        <v>1.044940027928073</v>
       </c>
       <c r="M4">
-        <v>1.05422792692564</v>
+        <v>1.053525953264756</v>
       </c>
       <c r="N4">
-        <v>1.018144969451165</v>
+        <v>1.018230401029056</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.051490074927238</v>
+        <v>1.050934517938708</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04416549092744</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042871525124417</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023775646998697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02577464299193</v>
+        <v>1.024468896199642</v>
       </c>
       <c r="D5">
-        <v>1.037801978679335</v>
+        <v>1.035884992368883</v>
       </c>
       <c r="E5">
-        <v>1.037010278327486</v>
+        <v>1.036001611616678</v>
       </c>
       <c r="F5">
-        <v>1.045395947210064</v>
+        <v>1.044660598135979</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052351771885746</v>
+        <v>1.051473495844552</v>
       </c>
       <c r="J5">
-        <v>1.044103239495746</v>
+        <v>1.042827886847034</v>
       </c>
       <c r="K5">
-        <v>1.047250894568872</v>
+        <v>1.045354540349421</v>
       </c>
       <c r="L5">
-        <v>1.0464677037771</v>
+        <v>1.045469901776682</v>
       </c>
       <c r="M5">
-        <v>1.054764040513968</v>
+        <v>1.054036454903656</v>
       </c>
       <c r="N5">
-        <v>1.018332242463363</v>
+        <v>1.018366395315228</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051914366425144</v>
+        <v>1.051338539909366</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044486098643282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043154477965231</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023853743458263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025946606532452</v>
+        <v>1.024633053293525</v>
       </c>
       <c r="D6">
-        <v>1.037918907508406</v>
+        <v>1.035992576344012</v>
       </c>
       <c r="E6">
-        <v>1.037146033897331</v>
+        <v>1.036131106439879</v>
       </c>
       <c r="F6">
-        <v>1.04552526048864</v>
+        <v>1.04478544397491</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052396199502547</v>
+        <v>1.05151300401962</v>
       </c>
       <c r="J6">
-        <v>1.044197767449861</v>
+        <v>1.042914634221787</v>
       </c>
       <c r="K6">
-        <v>1.047330690356892</v>
+        <v>1.045424997861235</v>
       </c>
       <c r="L6">
-        <v>1.046566086015347</v>
+        <v>1.045562040610965</v>
       </c>
       <c r="M6">
-        <v>1.05485645747958</v>
+        <v>1.054124416004431</v>
       </c>
       <c r="N6">
-        <v>1.018365674764145</v>
+        <v>1.018390711856795</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051987507118902</v>
+        <v>1.051408154193311</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044551212000041</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043213859538713</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023868522299472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024799316146649</v>
+        <v>1.023545771623575</v>
       </c>
       <c r="D7">
-        <v>1.037161798613969</v>
+        <v>1.035304063436617</v>
       </c>
       <c r="E7">
-        <v>1.036242555343053</v>
+        <v>1.035275799153889</v>
       </c>
       <c r="F7">
-        <v>1.044657412561194</v>
+        <v>1.043951950800552</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052115867812504</v>
+        <v>1.051269463890197</v>
       </c>
       <c r="J7">
-        <v>1.043583377730669</v>
+        <v>1.042359889128966</v>
       </c>
       <c r="K7">
-        <v>1.046828626120011</v>
+        <v>1.044991417889192</v>
       </c>
       <c r="L7">
-        <v>1.045919528671228</v>
+        <v>1.044963466610679</v>
       </c>
       <c r="M7">
-        <v>1.054242327428569</v>
+        <v>1.053544513488702</v>
       </c>
       <c r="N7">
-        <v>1.018153171870364</v>
+        <v>1.018264865183536</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.051501471789343</v>
+        <v>1.050949206902723</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04420038785439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042911878599368</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023783455665405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019909126679358</v>
+        <v>1.018895072229321</v>
       </c>
       <c r="D8">
-        <v>1.033936024807239</v>
+        <v>1.032358420313199</v>
       </c>
       <c r="E8">
-        <v>1.032402884451979</v>
+        <v>1.031628086267268</v>
       </c>
       <c r="F8">
-        <v>1.040975833932658</v>
+        <v>1.04040750564582</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050900628982416</v>
+        <v>1.050202486461922</v>
       </c>
       <c r="J8">
-        <v>1.040955158734699</v>
+        <v>1.039969014299176</v>
       </c>
       <c r="K8">
-        <v>1.044675124513059</v>
+        <v>1.043117214030858</v>
       </c>
       <c r="L8">
-        <v>1.043161122074486</v>
+        <v>1.042396022532716</v>
       </c>
       <c r="M8">
-        <v>1.051627957136691</v>
+        <v>1.051066596190748</v>
       </c>
       <c r="N8">
-        <v>1.017242302176043</v>
+        <v>1.01766216749292</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.049432401089031</v>
+        <v>1.048988126823133</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042682244261433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041591681888695</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023407434680284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010936449895141</v>
+        <v>1.010343415892403</v>
       </c>
       <c r="D9">
-        <v>1.028039340868788</v>
+        <v>1.026960890822696</v>
       </c>
       <c r="E9">
-        <v>1.025404447435045</v>
+        <v>1.024966115324944</v>
       </c>
       <c r="F9">
-        <v>1.034286894733642</v>
+        <v>1.03395968436456</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048605466992711</v>
+        <v>1.0481682181368</v>
       </c>
       <c r="J9">
-        <v>1.036108838031267</v>
+        <v>1.035536135235587</v>
       </c>
       <c r="K9">
-        <v>1.040693309021503</v>
+        <v>1.039631182954233</v>
       </c>
       <c r="L9">
-        <v>1.038098375870224</v>
+        <v>1.037666716831352</v>
       </c>
       <c r="M9">
-        <v>1.046847148469715</v>
+        <v>1.046524810573886</v>
       </c>
       <c r="N9">
-        <v>1.015558880617226</v>
+        <v>1.016453514128391</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045648748050993</v>
+        <v>1.045393640979557</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039863701191869</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03912340929485</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022684090044848</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,105 +935,123 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004783712662703</v>
+        <v>1.004522828262533</v>
       </c>
       <c r="D10">
-        <v>1.024032681453774</v>
+        <v>1.023327308699059</v>
       </c>
       <c r="E10">
-        <v>1.020686274200955</v>
+        <v>1.020513583569993</v>
       </c>
       <c r="F10">
-        <v>1.029849504958059</v>
+        <v>1.029713206301653</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047021380736836</v>
+        <v>1.046783341014444</v>
       </c>
       <c r="J10">
-        <v>1.032808811409543</v>
+        <v>1.032558142639057</v>
       </c>
       <c r="K10">
-        <v>1.037981165099515</v>
+        <v>1.037287778697381</v>
       </c>
       <c r="L10">
-        <v>1.034691813252446</v>
+        <v>1.034522080073726</v>
       </c>
       <c r="M10">
-        <v>1.043699950491515</v>
+        <v>1.043565932711702</v>
       </c>
       <c r="N10">
-        <v>1.014419699647128</v>
+        <v>1.015759207172213</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.043209110048193</v>
+        <v>1.043103050887783</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037962806718721</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037484916895671</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022195365060504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002651361442532</v>
+        <v>1.002542656666745</v>
       </c>
       <c r="D11">
-        <v>1.02273551897753</v>
+        <v>1.022180653735868</v>
       </c>
       <c r="E11">
-        <v>1.019431139378997</v>
+        <v>1.019378558821481</v>
       </c>
       <c r="F11">
-        <v>1.029158494455374</v>
+        <v>1.029108682530672</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046666897455532</v>
+        <v>1.046511785454777</v>
       </c>
       <c r="J11">
-        <v>1.031914255140862</v>
+        <v>1.031810039378656</v>
       </c>
       <c r="K11">
-        <v>1.037241046338006</v>
+        <v>1.036696056930337</v>
       </c>
       <c r="L11">
-        <v>1.033995686196279</v>
+        <v>1.03394404879682</v>
       </c>
       <c r="M11">
-        <v>1.043550705828732</v>
+        <v>1.043501765650197</v>
       </c>
       <c r="N11">
-        <v>1.014173173912517</v>
+        <v>1.015829763164485</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.043524682237824</v>
+        <v>1.043485971158512</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037472246816541</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037102495674057</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022119503738173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002066134840353</v>
+        <v>1.001997305584829</v>
       </c>
       <c r="D12">
-        <v>1.022415115147338</v>
+        <v>1.021896556743552</v>
       </c>
       <c r="E12">
-        <v>1.01925815798711</v>
+        <v>1.019235296020782</v>
       </c>
       <c r="F12">
-        <v>1.029355273790494</v>
+        <v>1.029326841546868</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.0466605794562</v>
+        <v>1.046524193090755</v>
       </c>
       <c r="J12">
-        <v>1.031783308805407</v>
+        <v>1.031717375733755</v>
       </c>
       <c r="K12">
-        <v>1.037125118151506</v>
+        <v>1.036615942372278</v>
       </c>
       <c r="L12">
-        <v>1.0340254743721</v>
+        <v>1.034003029141542</v>
       </c>
       <c r="M12">
-        <v>1.04394088460891</v>
+        <v>1.043912957531084</v>
       </c>
       <c r="N12">
-        <v>1.014177466896645</v>
+        <v>1.0159411493878</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.044157886892724</v>
+        <v>1.044135804312002</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037390282354471</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03704585357312</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022136568719756</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002647224196785</v>
+        <v>1.002520492782167</v>
       </c>
       <c r="D13">
-        <v>1.022842039743957</v>
+        <v>1.022263748390904</v>
       </c>
       <c r="E13">
-        <v>1.019920510832376</v>
+        <v>1.019848603386089</v>
       </c>
       <c r="F13">
-        <v>1.030271265287634</v>
+        <v>1.030207632027026</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046935691524722</v>
+        <v>1.046762955723147</v>
       </c>
       <c r="J13">
-        <v>1.032247756873219</v>
+        <v>1.032126330216667</v>
       </c>
       <c r="K13">
-        <v>1.037501716935386</v>
+        <v>1.036933843531116</v>
       </c>
       <c r="L13">
-        <v>1.034632976804421</v>
+        <v>1.034562373606452</v>
       </c>
       <c r="M13">
-        <v>1.044798453587518</v>
+        <v>1.044735944606995</v>
       </c>
       <c r="N13">
-        <v>1.014382867473296</v>
+        <v>1.016059973748229</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.045111195907442</v>
+        <v>1.045061780915008</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037654064262294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037267887679077</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02223054161319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003581380929273</v>
+        <v>1.003370603973796</v>
       </c>
       <c r="D14">
-        <v>1.0234800644935</v>
+        <v>1.022817288911875</v>
       </c>
       <c r="E14">
-        <v>1.0207592920847</v>
+        <v>1.020618252196657</v>
       </c>
       <c r="F14">
-        <v>1.031234283445838</v>
+        <v>1.031121104852808</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047255133170613</v>
+        <v>1.047032700332133</v>
       </c>
       <c r="J14">
-        <v>1.032841367822807</v>
+        <v>1.032639285742196</v>
       </c>
       <c r="K14">
-        <v>1.037988768597973</v>
+        <v>1.037337784204071</v>
       </c>
       <c r="L14">
-        <v>1.035316527161693</v>
+        <v>1.035178012193111</v>
       </c>
       <c r="M14">
-        <v>1.045606493164119</v>
+        <v>1.045495287691367</v>
       </c>
       <c r="N14">
-        <v>1.014617504714255</v>
+        <v>1.016147838870369</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045922448128816</v>
+        <v>1.045834549038641</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03799984304022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037555037643753</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022331715475959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004069535368018</v>
+        <v>1.003817496051157</v>
       </c>
       <c r="D15">
-        <v>1.023805761475767</v>
+        <v>1.023101791631832</v>
       </c>
       <c r="E15">
-        <v>1.02115741338737</v>
+        <v>1.020982912915023</v>
       </c>
       <c r="F15">
-        <v>1.031645628088796</v>
+        <v>1.031508489177247</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047399667725689</v>
+        <v>1.047153476204533</v>
       </c>
       <c r="J15">
-        <v>1.033123920856278</v>
+        <v>1.032882187298265</v>
       </c>
       <c r="K15">
-        <v>1.03822276464234</v>
+        <v>1.037531223845945</v>
       </c>
       <c r="L15">
-        <v>1.035621290398278</v>
+        <v>1.035449889539241</v>
       </c>
       <c r="M15">
-        <v>1.045925696298563</v>
+        <v>1.045790929581573</v>
       </c>
       <c r="N15">
-        <v>1.014721878724668</v>
+        <v>1.016176565159902</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.046212119826963</v>
+        <v>1.046105600225994</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.038171133841201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037698222656588</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02237583459573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006558369472391</v>
+        <v>1.006118123086127</v>
       </c>
       <c r="D16">
-        <v>1.025416846341429</v>
+        <v>1.024523152456538</v>
       </c>
       <c r="E16">
-        <v>1.023029368594741</v>
+        <v>1.022704538414246</v>
       </c>
       <c r="F16">
-        <v>1.033382650037212</v>
+        <v>1.033137918621273</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048029527985945</v>
+        <v>1.047677129923139</v>
       </c>
       <c r="J16">
-        <v>1.034438214834001</v>
+        <v>1.034015071149351</v>
       </c>
       <c r="K16">
-        <v>1.039306494485284</v>
+        <v>1.038427893603104</v>
       </c>
       <c r="L16">
-        <v>1.036959413263532</v>
+        <v>1.036640098082139</v>
       </c>
       <c r="M16">
-        <v>1.04713925347186</v>
+        <v>1.046898570236655</v>
       </c>
       <c r="N16">
-        <v>1.01516720821458</v>
+        <v>1.016271366307721</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.047132777660218</v>
+        <v>1.046942536247387</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038940517793406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038335647799801</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022556560907952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007981738641519</v>
+        <v>1.007451056621133</v>
       </c>
       <c r="D17">
-        <v>1.026322046298336</v>
+        <v>1.025334177749918</v>
       </c>
       <c r="E17">
-        <v>1.024028948543503</v>
+        <v>1.023632815825041</v>
       </c>
       <c r="F17">
-        <v>1.034206956586375</v>
+        <v>1.033911149020121</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048344347452016</v>
+        <v>1.047941114527468</v>
       </c>
       <c r="J17">
-        <v>1.035136608556256</v>
+        <v>1.0346258825896</v>
       </c>
       <c r="K17">
-        <v>1.039883775577032</v>
+        <v>1.038912124398483</v>
       </c>
       <c r="L17">
-        <v>1.037628384255144</v>
+        <v>1.037238787344017</v>
       </c>
       <c r="M17">
-        <v>1.04764066777142</v>
+        <v>1.047349617658426</v>
       </c>
       <c r="N17">
-        <v>1.015386190974089</v>
+        <v>1.016327961620902</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.047400708653473</v>
+        <v>1.047170633409776</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039351251263851</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038680839118295</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022643891679045</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008603190869943</v>
+        <v>1.008046398779263</v>
       </c>
       <c r="D18">
-        <v>1.026682568719292</v>
+        <v>1.025666063938457</v>
       </c>
       <c r="E18">
-        <v>1.024331726930916</v>
+        <v>1.023916330740466</v>
       </c>
       <c r="F18">
-        <v>1.034256077266964</v>
+        <v>1.033946299271329</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048402167665353</v>
+        <v>1.047985499458984</v>
       </c>
       <c r="J18">
-        <v>1.035345074171805</v>
+        <v>1.034808831838463</v>
       </c>
       <c r="K18">
-        <v>1.040056090111966</v>
+        <v>1.039056001340477</v>
       </c>
       <c r="L18">
-        <v>1.03774327667201</v>
+        <v>1.037334623446261</v>
       </c>
       <c r="M18">
-        <v>1.047508591461413</v>
+        <v>1.04720371847106</v>
       </c>
       <c r="N18">
-        <v>1.015420041343753</v>
+        <v>1.016310164016415</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.047059915666406</v>
+        <v>1.046818863737206</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039461494382996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038769839604093</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022649488545766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008513445349051</v>
+        <v>1.007979734237182</v>
       </c>
       <c r="D19">
-        <v>1.02657141279249</v>
+        <v>1.025578741851456</v>
       </c>
       <c r="E19">
-        <v>1.024007916419553</v>
+        <v>1.023612892931508</v>
       </c>
       <c r="F19">
-        <v>1.033598344110859</v>
+        <v>1.033302866211568</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048240914884403</v>
+        <v>1.047839907284754</v>
       </c>
       <c r="J19">
-        <v>1.035125867981448</v>
+        <v>1.034611744105802</v>
       </c>
       <c r="K19">
-        <v>1.03988455558546</v>
+        <v>1.038907834283293</v>
       </c>
       <c r="L19">
-        <v>1.037362329025352</v>
+        <v>1.036973688628157</v>
       </c>
       <c r="M19">
-        <v>1.046799703791722</v>
+        <v>1.04650888710016</v>
       </c>
       <c r="N19">
-        <v>1.015297763409166</v>
+        <v>1.016212376575459</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.046175849564025</v>
+        <v>1.045945837205805</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03934658376489</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038672076346641</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022587763510656</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006411159645967</v>
+        <v>1.006036403709252</v>
       </c>
       <c r="D20">
-        <v>1.025109283465326</v>
+        <v>1.024286001683389</v>
       </c>
       <c r="E20">
-        <v>1.021936155481623</v>
+        <v>1.021671583746954</v>
       </c>
       <c r="F20">
-        <v>1.031021393927775</v>
+        <v>1.030819065116934</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047457585575381</v>
+        <v>1.047153338253972</v>
       </c>
       <c r="J20">
-        <v>1.033697159419465</v>
+        <v>1.033336599021565</v>
       </c>
       <c r="K20">
-        <v>1.038724532270208</v>
+        <v>1.037914842805353</v>
       </c>
       <c r="L20">
-        <v>1.035603947508019</v>
+        <v>1.035343775751298</v>
       </c>
       <c r="M20">
-        <v>1.044539853319697</v>
+        <v>1.044340813342522</v>
       </c>
       <c r="N20">
-        <v>1.014731513765917</v>
+        <v>1.015875667725699</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.043863311600968</v>
+        <v>1.043705793231547</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038530316175781</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037974297852047</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022329535498311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.001679348989807</v>
+        <v>1.001686919837416</v>
       </c>
       <c r="D21">
-        <v>1.022018313151558</v>
+        <v>1.021578537884559</v>
       </c>
       <c r="E21">
-        <v>1.018248197058449</v>
+        <v>1.018293543915894</v>
       </c>
       <c r="F21">
-        <v>1.02746288226918</v>
+        <v>1.027483501509084</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046186936988175</v>
+        <v>1.046102466689741</v>
       </c>
       <c r="J21">
-        <v>1.031107024724722</v>
+        <v>1.031114280549409</v>
       </c>
       <c r="K21">
-        <v>1.036594213356344</v>
+        <v>1.036162314449794</v>
       </c>
       <c r="L21">
-        <v>1.032891907063379</v>
+        <v>1.032936434427298</v>
       </c>
       <c r="M21">
-        <v>1.041941994593232</v>
+        <v>1.041962249813944</v>
       </c>
       <c r="N21">
-        <v>1.013825540548109</v>
+        <v>1.015685179611216</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.041766664802275</v>
+        <v>1.041782695423113</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.037027330011901</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036738752550708</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021962661396445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9986686236201354</v>
+        <v>0.9989192807194592</v>
       </c>
       <c r="D22">
-        <v>1.020055255005666</v>
+        <v>1.01985952221004</v>
       </c>
       <c r="E22">
-        <v>1.015931928765939</v>
+        <v>1.016174722723402</v>
       </c>
       <c r="F22">
-        <v>1.025263517497733</v>
+        <v>1.025426664568913</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045378014134592</v>
+        <v>1.04543364507062</v>
       </c>
       <c r="J22">
-        <v>1.029467363436085</v>
+        <v>1.029706980907958</v>
       </c>
       <c r="K22">
-        <v>1.035239614797475</v>
+        <v>1.035047563854151</v>
       </c>
       <c r="L22">
-        <v>1.031194242960386</v>
+        <v>1.031432423804375</v>
       </c>
       <c r="M22">
-        <v>1.040350580162831</v>
+        <v>1.040510700254152</v>
       </c>
       <c r="N22">
-        <v>1.013253395537983</v>
+        <v>1.015560053967094</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.04050716809307</v>
+        <v>1.040633892397211</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.036056109883883</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035935816346484</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021728212931281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.000258676057713</v>
+        <v>1.000366677369414</v>
       </c>
       <c r="D23">
-        <v>1.021084860911502</v>
+        <v>1.020749215647176</v>
       </c>
       <c r="E23">
-        <v>1.017153563216467</v>
+        <v>1.017280146229159</v>
       </c>
       <c r="F23">
-        <v>1.026425450479024</v>
+        <v>1.026504673818327</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045801073018819</v>
+        <v>1.045775161956612</v>
       </c>
       <c r="J23">
-        <v>1.030328602906794</v>
+        <v>1.030431987531433</v>
       </c>
       <c r="K23">
-        <v>1.035946466862639</v>
+        <v>1.035616974658546</v>
       </c>
       <c r="L23">
-        <v>1.032087570008747</v>
+        <v>1.032211810435001</v>
       </c>
       <c r="M23">
-        <v>1.041189856538042</v>
+        <v>1.041267647893841</v>
       </c>
       <c r="N23">
-        <v>1.013552132752908</v>
+        <v>1.015578926425161</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.041171398759799</v>
+        <v>1.041232965342255</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036546272881538</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036327859890409</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021845036763537</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006414503055321</v>
+        <v>1.006041763352905</v>
       </c>
       <c r="D24">
-        <v>1.0250936686421</v>
+        <v>1.024272294979258</v>
       </c>
       <c r="E24">
-        <v>1.021901142022092</v>
+        <v>1.021638491034513</v>
       </c>
       <c r="F24">
-        <v>1.030943222381826</v>
+        <v>1.030742241444161</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047432095689914</v>
+        <v>1.047129370091251</v>
       </c>
       <c r="J24">
-        <v>1.033667848396408</v>
+        <v>1.03330920789076</v>
       </c>
       <c r="K24">
-        <v>1.038693990253148</v>
+        <v>1.037886160542876</v>
       </c>
       <c r="L24">
-        <v>1.035554263738137</v>
+        <v>1.035295975563301</v>
       </c>
       <c r="M24">
-        <v>1.044447890009407</v>
+        <v>1.044250172451197</v>
       </c>
       <c r="N24">
-        <v>1.014713226417874</v>
+        <v>1.015858390183082</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043749906822308</v>
+        <v>1.043593427316145</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038481413939357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037924036188701</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022316902823282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013317549312212</v>
+        <v>1.012600274640115</v>
       </c>
       <c r="D25">
-        <v>1.029611333300895</v>
+        <v>1.028391422873262</v>
       </c>
       <c r="E25">
-        <v>1.027257002235241</v>
+        <v>1.026719104412048</v>
       </c>
       <c r="F25">
-        <v>1.036051601284557</v>
+        <v>1.035652982508726</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049229394409342</v>
+        <v>1.048716668737126</v>
       </c>
       <c r="J25">
-        <v>1.037404889149191</v>
+        <v>1.036710904867882</v>
       </c>
       <c r="K25">
-        <v>1.041766726392563</v>
+        <v>1.040564424699742</v>
       </c>
       <c r="L25">
-        <v>1.039446426372632</v>
+        <v>1.038916331446615</v>
       </c>
       <c r="M25">
-        <v>1.048114901926821</v>
+        <v>1.047721941133738</v>
       </c>
       <c r="N25">
-        <v>1.016012000703451</v>
+        <v>1.016745137367928</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046652082127101</v>
+        <v>1.046341082565945</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.04065112783762</v>
+        <v>1.039814530691838</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022881701836855</v>
       </c>
     </row>
   </sheetData>
